--- a/Scripts/olympics/olympics.xlsx
+++ b/Scripts/olympics/olympics.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1900" sheetId="1" r:id="rId1"/>
     <sheet name="1904" sheetId="48" r:id="rId2"/>
     <sheet name="1906" sheetId="63" r:id="rId3"/>
     <sheet name="1908" sheetId="64" r:id="rId4"/>
+    <sheet name="1912" sheetId="65" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -835,7 +836,7 @@
         <v>1904-11-23</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -843,7 +844,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (6, '1904-11-23', 12, 1);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (6, '1904-11-23', 11, 1);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <f>B16</f>
+        <f t="shared" ref="B19:B25" si="5">B16</f>
         <v>5</v>
       </c>
       <c r="C19" s="3">
@@ -1188,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <f>B17</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C20" s="3">
@@ -1214,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <f>B18</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C21" s="3">
@@ -1240,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="3">
-        <f>B19</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C22" s="3">
@@ -1266,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <f>B20</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C23" s="3">
@@ -1292,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3">
-        <f>B21</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C24" s="3">
@@ -1308,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" ref="G24:G25" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <f t="shared" ref="G24:G25" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (25, 5, 13141015, 0, 1, 5);</v>
       </c>
     </row>
@@ -1318,7 +1319,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3">
-        <f>B22</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C25" s="3">
@@ -1334,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (26, 5, 13141850, 0, 1, 5);</v>
       </c>
     </row>
@@ -1554,7 +1555,7 @@
         <v>1906-04-25</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -1562,7 +1563,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (10, '1906-04-25', 11, 30);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (10, '1906-04-25', 12, 30);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2014,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2180,7 +2181,7 @@
         <v>1908-10-23</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
@@ -2188,7 +2189,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (17, '1908-10-23', 5, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (17, '1908-10-23', 13, 44);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2201,7 +2202,7 @@
         <v>1908-10-24</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
@@ -2209,7 +2210,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (18, '1908-10-24', 6, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (18, '1908-10-24', 14, 44);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3071,4 +3072,1460 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1908'!A9+1</f>
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1912-06-29"</f>
+        <v>1912-06-29</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>46</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G12" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (19, '1912-06-29', 15, 46);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1912-06-29"</f>
+        <v>1912-06-29</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>46</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (20, '1912-06-29', 15, 46);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1912-06-29"</f>
+        <v>1912-06-29</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D12" si="2">D3</f>
+        <v>46</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (21, '1912-06-29', 15, 46);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1912-06-30"</f>
+        <v>1912-06-30</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (22, '1912-06-30', 3, 46);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1912-06-30"</f>
+        <v>1912-06-30</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (23, '1912-06-30', 3, 46);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1912-06-30"</f>
+        <v>1912-06-30</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (24, '1912-06-30', 3, 46);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1912-06-30"</f>
+        <v>1912-06-30</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (25, '1912-06-30', 3, 46);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1912-07-02"</f>
+        <v>1912-07-02</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (26, '1912-07-02', 4, 46);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1912-07-02"</f>
+        <v>1912-07-02</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (27, '1912-07-02', 4, 46);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1912-07-04"</f>
+        <v>1912-07-04</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (28, '1912-07-04', 13, 46);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1912-07-04"</f>
+        <v>1912-07-04</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (29, '1912-07-04', 14, 46);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f>'1908'!A43 + 1</f>
+        <v>79</v>
+      </c>
+      <c r="B15" s="3">
+        <f>A2</f>
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G54" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (79, 19, 39, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f>A15+1</f>
+        <v>80</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B15</f>
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (80, 19, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" ref="A17:A66" si="4">A16+1</f>
+        <v>81</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B15</f>
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>358</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 19, 358, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B15</f>
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>358</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 19, 358, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B16</f>
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 19, 39, 3, 2, 4);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B17</f>
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 19, 39, 3, 0, 3);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B18</f>
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>358</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 19, 358, 2, 0, 4);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B19</f>
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>358</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 19, 358, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B15+1</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 20, 43, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B23</f>
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 20, 43, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B23</f>
+        <v>20</v>
+      </c>
+      <c r="C25" s="4">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 20, 49, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B23</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="4">
+        <v>49</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 20, 49, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B23+1</f>
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 21, 31, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B27</f>
+        <v>21</v>
+      </c>
+      <c r="C28" s="3">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 21, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27</f>
+        <v>21</v>
+      </c>
+      <c r="C29" s="3">
+        <v>46</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 21, 46, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B27</f>
+        <v>21</v>
+      </c>
+      <c r="C30" s="3">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 21, 46, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>21</v>
+      </c>
+      <c r="C31" s="3">
+        <v>31</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 21, 31, 4, 2, 4);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B29</f>
+        <v>21</v>
+      </c>
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 21, 31, 4, 0, 3);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B30</f>
+        <v>21</v>
+      </c>
+      <c r="C33" s="3">
+        <v>46</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 21, 46, 3, 0, 4);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B31</f>
+        <v>21</v>
+      </c>
+      <c r="C34" s="3">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 21, 46, 3, 0, 3);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B27+1</f>
+        <v>22</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 22, , , , 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B35</f>
+        <v>22</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 22, , , , 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B35</f>
+        <v>22</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 22, , , , 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B35</f>
+        <v>22</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 22, , , , 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B35+1</f>
+        <v>23</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 23, , , , 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B39</f>
+        <v>23</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 23, , , , 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B39</f>
+        <v>23</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 23, , , , 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B39</f>
+        <v>23</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 23, , , , 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B39+1</f>
+        <v>24</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 24, , , , 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B43</f>
+        <v>24</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 24, , , , 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B43</f>
+        <v>24</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 24, , , , 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B43</f>
+        <v>24</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 24, , , , 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B43+1</f>
+        <v>25</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 25, , , , 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B47</f>
+        <v>25</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 25, , , , 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B47</f>
+        <v>25</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 25, , , , 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B47</f>
+        <v>25</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 25, , , , 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B47+1</f>
+        <v>26</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 26, , , , 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B51</f>
+        <v>26</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 26, , , , 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B51</f>
+        <v>26</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 26, , , , 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B51</f>
+        <v>26</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 26, , , , 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B51+1</f>
+        <v>27</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" ref="G55:G66" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A55 &amp; ", " &amp; B55 &amp; ", " &amp; C55 &amp; ", " &amp; D55 &amp; ", " &amp; E55 &amp; ", " &amp; F55 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 27, , , , 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B55</f>
+        <v>27</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 27, , , , 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B55</f>
+        <v>27</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 27, , , , 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B55</f>
+        <v>27</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 27, , , , 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B55+1</f>
+        <v>28</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 28, , , , 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B59</f>
+        <v>28</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 28, , , , 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B59</f>
+        <v>28</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 28, , , , 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B59</f>
+        <v>28</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 28, , , , 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B59+1</f>
+        <v>29</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 29, , , , 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B63</f>
+        <v>29</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 29, , , , 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B63</f>
+        <v>29</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 29, , , , 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B63</f>
+        <v>29</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 29, , , , 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scripts/olympics/olympics.xlsx
+++ b/Scripts/olympics/olympics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1900" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="1906" sheetId="63" r:id="rId3"/>
     <sheet name="1908" sheetId="64" r:id="rId4"/>
     <sheet name="1912" sheetId="65" r:id="rId5"/>
+    <sheet name="1920" sheetId="66" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>nul</t>
+  </si>
+  <si>
+    <t>match_number</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2027,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2041,6 +2045,9 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G1" t="str">
         <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
@@ -2072,8 +2079,8 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1908-10-20"</f>
-        <v>1908-10-20</v>
+        <f>"1908-10-19"</f>
+        <v>1908-10-19</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2082,9 +2089,12 @@
         <f>D2</f>
         <v>44</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (12, '1908-10-20', 3, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (12, '1908-10-19', 3, 44);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,8 +2103,8 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1908-10-19"</f>
-        <v>1908-10-19</v>
+        <f>"1908-10-20"</f>
+        <v>1908-10-20</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2105,7 +2115,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (13, '1908-10-19', 3, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (13, '1908-10-20', 3, 44);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2124,6 +2134,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (14, '1908-10-20', 3, 44);</v>
@@ -2145,6 +2158,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A6 &amp; ", '" &amp; B6 &amp; "', " &amp; C6 &amp; ", " &amp; D6 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (15, '1908-10-22', 4, 44);</v>
@@ -2166,6 +2182,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
       <c r="G7" t="str">
         <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (16, '1908-10-22', 4, 44);</v>
@@ -2187,6 +2206,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
       <c r="G8" t="str">
         <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (17, '1908-10-23', 13, 44);</v>
@@ -2208,6 +2230,9 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (18, '1908-10-24', 14, 44);</v>
@@ -2259,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" ref="G12:G27" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A12 &amp; ", " &amp; B12 &amp; ", " &amp; C12 &amp; ", " &amp; D12 &amp; ", " &amp; E12 &amp; ", " &amp; F12 &amp; ");"</f>
+        <f t="shared" ref="G12:G43" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A12 &amp; ", " &amp; B12 &amp; ", " &amp; C12 &amp; ", " &amp; D12 &amp; ", " &amp; E12 &amp; ", " &amp; F12 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (47, 11, 31, null, 2, 2);</v>
       </c>
     </row>
@@ -2351,10 +2376,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -2362,9 +2387,9 @@
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (51, 12, 44, 12, 2, 2);</v>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (51, 12, 45, 9, 2, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2377,10 +2402,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2388,9 +2413,9 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (52, 12, 44, 7, 0, 1);</v>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (52, 12, 45, 4, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,10 +2428,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="4">
-        <v>46</v>
+        <v>3399</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2414,9 +2439,9 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (53, 12, 46, 1, 0, 2);</v>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (53, 12, 3399, 0, 0, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2429,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4">
-        <v>46</v>
+        <v>3399</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -2440,9 +2465,9 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (54, 12, 46, 0, 0, 1);</v>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (54, 12, 3399, 0, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,20 +2480,20 @@
         <v>13</v>
       </c>
       <c r="C20" s="3">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3">
+        <v>3398</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (55, 13, 45, 9, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (55, 13, 3398, null, 2, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2481,10 +2506,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
+        <v>3398</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2494,7 +2519,7 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (56, 13, 45, 4, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (56, 13, 3398, null, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,10 +2532,10 @@
         <v>13</v>
       </c>
       <c r="C22" s="3">
-        <v>3399</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
+        <v>4203</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2520,7 +2545,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (57, 13, 3399, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (57, 13, 4203, null, 0, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2533,10 +2558,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="3">
-        <v>3399</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
+        <v>4203</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2546,7 +2571,7 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (58, 13, 3399, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (58, 13, 4203, null, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,10 +2584,10 @@
         <v>14</v>
       </c>
       <c r="C24" s="4">
-        <v>3398</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="4">
+        <v>12</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
@@ -2570,9 +2595,9 @@
       <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (59, 14, 3398, null, 2, 2);</v>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (59, 14, 44, 12, 2, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,10 +2610,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="4">
-        <v>3398</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2596,9 +2621,9 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (60, 14, 3398, null, 0, 1);</v>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (60, 14, 44, 7, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,10 +2636,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="4">
-        <v>4203</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2622,9 +2647,9 @@
       <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (61, 14, 4203, null, 0, 2);</v>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (61, 14, 46, 1, 0, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2637,10 +2662,10 @@
         <v>14</v>
       </c>
       <c r="C27" s="4">
-        <v>4203</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -2648,9 +2673,9 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (62, 14, 4203, null, 0, 1);</v>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (62, 14, 46, 0, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2663,20 +2688,20 @@
         <v>15</v>
       </c>
       <c r="C28" s="3">
-        <v>44</v>
+        <v>3398</v>
       </c>
       <c r="D28" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" ref="G28:G43" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (63, 15, 44, 4, 2, 2);</v>
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (63, 15, 3398, 1, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,7 +2714,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="3">
-        <v>44</v>
+        <v>3398</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -2701,8 +2726,8 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (64, 15, 44, 1, 0, 1);</v>
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (64, 15, 3398, 1, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,20 +2740,20 @@
         <v>15</v>
       </c>
       <c r="C30" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D30" s="5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (65, 15, 31, 0, 0, 2);</v>
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (65, 15, 45, 17, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,10 +2766,10 @@
         <v>15</v>
       </c>
       <c r="C31" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D31" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -2753,8 +2778,8 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (66, 15, 31, 0, 0, 1);</v>
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (66, 15, 45, 6, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,20 +2792,20 @@
         <v>16</v>
       </c>
       <c r="C32" s="4">
-        <v>3398</v>
+        <v>44</v>
       </c>
       <c r="D32" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (67, 16, 3398, 1, 0, 2);</v>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (67, 16, 44, 4, 2, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2793,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="4">
-        <v>3398</v>
+        <v>44</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -2804,9 +2829,9 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (68, 16, 3398, 1, 0, 1);</v>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (68, 16, 44, 1, 0, 1);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,20 +2844,20 @@
         <v>16</v>
       </c>
       <c r="C34" s="4">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D34" s="6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (69, 16, 45, 17, 2, 2);</v>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (69, 16, 31, 0, 0, 2);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,10 +2870,10 @@
         <v>16</v>
       </c>
       <c r="C35" s="4">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D35" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -2856,9 +2881,9 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (70, 16, 45, 6, 0, 1);</v>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (70, 16, 31, 0, 0, 1);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2883,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (71, 17, 31, 2, 2, 2);</v>
       </c>
     </row>
@@ -2909,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (72, 17, 31, 1, 0, 1);</v>
       </c>
     </row>
@@ -2935,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (73, 17, 46, 0, 0, 2);</v>
       </c>
     </row>
@@ -2961,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (74, 17, 46, 0, 0, 1);</v>
       </c>
     </row>
@@ -2986,8 +3011,8 @@
       <c r="F40" s="4">
         <v>2</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="6"/>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (75, 18, 44, 2, 2, 2);</v>
       </c>
     </row>
@@ -3012,8 +3037,8 @@
       <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="6"/>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (76, 18, 44, 1, 0, 1);</v>
       </c>
     </row>
@@ -3038,8 +3063,8 @@
       <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="6"/>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (77, 18, 45, 0, 0, 2);</v>
       </c>
     </row>
@@ -3064,8 +3089,8 @@
       <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="6"/>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (78, 18, 45, 0, 0, 1);</v>
       </c>
     </row>
@@ -3076,11 +3101,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3088,7 +3111,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3106,6 +3129,9 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G1" t="str">
         <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
@@ -3126,6 +3152,9 @@
       <c r="D2">
         <v>46</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G12" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (19, '1912-06-29', 15, 46);</v>
@@ -3147,6 +3176,9 @@
         <f>D2</f>
         <v>46</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (20, '1912-06-29', 15, 46);</v>
@@ -3168,6 +3200,9 @@
         <f t="shared" ref="D4:D12" si="2">D3</f>
         <v>46</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (21, '1912-06-29', 15, 46);</v>
@@ -3189,6 +3224,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (22, '1912-06-30', 3, 46);</v>
@@ -3210,6 +3248,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (23, '1912-06-30', 3, 46);</v>
@@ -3231,6 +3272,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (24, '1912-06-30', 3, 46);</v>
@@ -3252,6 +3296,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (25, '1912-06-30', 3, 46);</v>
@@ -3273,6 +3320,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (26, '1912-07-02', 4, 46);</v>
@@ -3294,6 +3344,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (27, '1912-07-02', 4, 46);</v>
@@ -3315,6 +3368,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (28, '1912-07-04', 13, 46);</v>
@@ -3336,6 +3392,9 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (29, '1912-07-04', 14, 46);</v>
@@ -3387,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" ref="G15:G54" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
+        <f t="shared" ref="G15:G66" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (79, 19, 39, 2, 0, 2);</v>
       </c>
     </row>
@@ -3583,20 +3642,20 @@
         <v>20</v>
       </c>
       <c r="C23" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D23" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 20, 43, 5, 2, 2);</v>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 20, 49, 1, 0, 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3609,10 +3668,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -3620,9 +3679,9 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 20, 43, 0, 0, 1);</v>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 20, 49, 1, 0, 1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,20 +3694,20 @@
         <v>20</v>
       </c>
       <c r="C25" s="4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 20, 49, 1, 0, 2);</v>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 20, 43, 5, 2, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3661,10 +3720,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -3672,9 +3731,9 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 20, 49, 1, 0, 1);</v>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 20, 43, 0, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3687,7 +3746,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
@@ -3700,7 +3759,7 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 21, 31, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 21, 46, 3, 0, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,10 +3772,10 @@
         <v>21</v>
       </c>
       <c r="C28" s="3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -3726,7 +3785,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 21, 31, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 21, 46, 1, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3739,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3">
         <v>3</v>
@@ -3752,7 +3811,7 @@
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 21, 46, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 21, 31, 3, 0, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3765,10 +3824,10 @@
         <v>21</v>
       </c>
       <c r="C30" s="3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3778,7 +3837,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 21, 46, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 21, 31, 2, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3791,20 +3850,20 @@
         <v>21</v>
       </c>
       <c r="C31" s="3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>4</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 21, 31, 4, 2, 4);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 21, 46, 3, 0, 4);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3817,10 +3876,10 @@
         <v>21</v>
       </c>
       <c r="C32" s="3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3830,7 +3889,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 21, 31, 4, 0, 3);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 21, 46, 3, 0, 3);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3843,20 +3902,20 @@
         <v>21</v>
       </c>
       <c r="C33" s="3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 21, 46, 3, 0, 4);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 21, 31, 4, 2, 4);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3869,10 +3928,10 @@
         <v>21</v>
       </c>
       <c r="C34" s="3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -3882,7 +3941,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 21, 46, 3, 0, 3);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 21, 31, 4, 0, 3);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3894,15 +3953,21 @@
         <f>B27+1</f>
         <v>22</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="C35" s="4">
+        <v>7812</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
       <c r="F35" s="4">
         <v>2</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 22, , , , 2);</v>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 22, 7812, 1, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3914,15 +3979,21 @@
         <f>B35</f>
         <v>22</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="4">
+        <v>7812</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 22, , , , 1);</v>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 22, 7812, 0, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3934,15 +4005,21 @@
         <f>B35</f>
         <v>22</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="C37" s="4">
+        <v>358</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
       <c r="F37" s="4">
         <v>2</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 22, , , , 2);</v>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 22, 358, 2, 2, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3954,15 +4031,21 @@
         <f>B35</f>
         <v>22</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="4">
+        <v>358</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 22, , , , 1);</v>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 22, 358, 1, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3974,15 +4057,21 @@
         <f>B35+1</f>
         <v>23</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="3">
+        <v>44</v>
+      </c>
+      <c r="D39" s="5">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
       <c r="F39" s="3">
         <v>2</v>
       </c>
       <c r="G39" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 23, , , , 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 23, 44, 7, 2, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3994,15 +4083,21 @@
         <f>B39</f>
         <v>23</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="C40" s="3">
+        <v>44</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 23, , , , 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 23, 44, 3, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4014,15 +4109,21 @@
         <f>B39</f>
         <v>23</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="3">
+        <v>36</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
       <c r="F41" s="3">
         <v>2</v>
       </c>
       <c r="G41" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 23, , , , 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 23, 36, 0, 0, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4034,15 +4135,21 @@
         <f>B39</f>
         <v>23</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="C42" s="3">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 23, , , , 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 23, 36, 0, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4054,15 +4161,21 @@
         <f>B39+1</f>
         <v>24</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="C43" s="4">
+        <v>45</v>
+      </c>
+      <c r="D43" s="6">
+        <v>7</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
       <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 24, , , , 2);</v>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 24, 45, 7, 2, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4074,15 +4187,21 @@
         <f>B43</f>
         <v>24</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="4">
+        <v>45</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 24, , , , 1);</v>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 24, 45, 3, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4094,15 +4213,21 @@
         <f>B43</f>
         <v>24</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="C45" s="4">
+        <v>47</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
       <c r="F45" s="4">
         <v>2</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 24, , , , 2);</v>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 24, 47, 0, 0, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4114,15 +4239,21 @@
         <f>B43</f>
         <v>24</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="4">
+        <v>47</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 24, , , , 1);</v>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 24, 47, 0, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4134,15 +4265,21 @@
         <f>B43+1</f>
         <v>25</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="3">
+        <v>31</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2</v>
+      </c>
       <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 25, , , , 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 25, 31, 3, 2, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,15 +4291,21 @@
         <f>B47</f>
         <v>25</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="C48" s="3">
+        <v>31</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
       <c r="F48" s="3">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 25, , , , 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 25, 31, 3, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,15 +4317,21 @@
         <f>B47</f>
         <v>25</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="3">
+        <v>43</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
       <c r="F49" s="3">
         <v>2</v>
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 25, , , , 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 25, 43, 1, 0, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4194,15 +4343,21 @@
         <f>B47</f>
         <v>25</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="C50" s="3">
+        <v>43</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
       <c r="F50" s="3">
         <v>1</v>
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 25, , , , 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 25, 43, 1, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4214,15 +4369,21 @@
         <f>B47+1</f>
         <v>26</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="C51" s="4">
+        <v>44</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2</v>
+      </c>
       <c r="F51" s="4">
         <v>2</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 26, , , , 2);</v>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 26, 44, 4, 2, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,15 +4395,21 @@
         <f>B51</f>
         <v>26</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="4">
+        <v>44</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 26, , , , 1);</v>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 26, 44, 2, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4254,15 +4421,21 @@
         <f>B51</f>
         <v>26</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="4">
+        <v>358</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
       <c r="F53" s="4">
         <v>2</v>
       </c>
-      <c r="G53" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 26, , , , 2);</v>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 26, 358, 0, 0, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,15 +4447,21 @@
         <f>B51</f>
         <v>26</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="4">
+        <v>358</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
       <c r="F54" s="4">
         <v>1</v>
       </c>
-      <c r="G54" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 26, , , , 1);</v>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 26, 358, 0, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4294,15 +4473,21 @@
         <f>B51+1</f>
         <v>27</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="3">
+        <v>31</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
       <c r="F55" s="3">
         <v>2</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f t="shared" ref="G55:G66" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A55 &amp; ", " &amp; B55 &amp; ", " &amp; C55 &amp; ", " &amp; D55 &amp; ", " &amp; E55 &amp; ", " &amp; F55 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 27, , , , 2);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 27, 31, 1, 0, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4314,15 +4499,21 @@
         <f>B55</f>
         <v>27</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="C56" s="3">
+        <v>31</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
       <c r="F56" s="3">
         <v>1</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 27, , , , 1);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 27, 31, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4334,15 +4525,21 @@
         <f>B55</f>
         <v>27</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="3">
+        <v>45</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2</v>
+      </c>
       <c r="F57" s="3">
         <v>2</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 27, , , , 2);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 27, 45, 4, 2, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,15 +4551,21 @@
         <f>B55</f>
         <v>27</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="C58" s="3">
+        <v>45</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
       <c r="F58" s="3">
         <v>1</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 27, , , , 1);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 27, 45, 3, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,15 +4577,21 @@
         <f>B55+1</f>
         <v>28</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="C59" s="4">
+        <v>31</v>
+      </c>
+      <c r="D59" s="6">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2</v>
+      </c>
       <c r="F59" s="4">
         <v>2</v>
       </c>
-      <c r="G59" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 28, , , , 2);</v>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 28, 31, 9, 2, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,15 +4603,21 @@
         <f>B59</f>
         <v>28</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="C60" s="4">
+        <v>31</v>
+      </c>
+      <c r="D60" s="6">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
       <c r="F60" s="4">
         <v>1</v>
       </c>
-      <c r="G60" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 28, , , , 1);</v>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 28, 31, 4, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4414,15 +4629,21 @@
         <f>B59</f>
         <v>28</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="C61" s="4">
+        <v>358</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
       <c r="F61" s="4">
         <v>2</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 28, , , , 2);</v>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 28, 358, 0, 0, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4434,15 +4655,21 @@
         <f>B59</f>
         <v>28</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="C62" s="4">
+        <v>358</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
       <c r="F62" s="4">
         <v>1</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 28, , , , 1);</v>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 28, 358, 0, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4454,15 +4681,21 @@
         <f>B59+1</f>
         <v>29</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="C63" s="3">
+        <v>45</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
       <c r="F63" s="3">
         <v>2</v>
       </c>
       <c r="G63" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 29, , , , 2);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 29, 45, 2, 0, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,15 +4707,21 @@
         <f>B63</f>
         <v>29</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="C64" s="3">
+        <v>45</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
       <c r="F64" s="3">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 29, , , , 1);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 29, 45, 1, 0, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,15 +4733,21 @@
         <f>B63</f>
         <v>29</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="C65" s="3">
+        <v>44</v>
+      </c>
+      <c r="D65" s="5">
+        <v>4</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2</v>
+      </c>
       <c r="F65" s="3">
         <v>2</v>
       </c>
       <c r="G65" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 29, , , , 2);</v>
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 29, 44, 4, 2, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4514,15 +4759,3455 @@
         <f>B63</f>
         <v>29</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="C66" s="3">
+        <v>44</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
       <c r="F66" s="3">
         <v>1</v>
       </c>
       <c r="G66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 29, 44, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A68 &amp; ", '" &amp; B68 &amp; "', " &amp; C68 &amp; ", " &amp; D68 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>'1912'!A12+1</f>
+        <v>30</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f>"1912-07-01"</f>
+        <v>1912-07-01</v>
+      </c>
+      <c r="C69" s="4">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>46</v>
+      </c>
+      <c r="E69" s="6">
+        <v>12</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ref="G69:G74" si="5">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A69 &amp; ", '" &amp; B69 &amp; "', " &amp; C69 &amp; ", " &amp; D69 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (30, '1912-07-01', 16, 46);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>A69+1</f>
+        <v>31</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f>"1912-07-01"</f>
+        <v>1912-07-01</v>
+      </c>
+      <c r="C70" s="4">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <f>D69</f>
+        <v>46</v>
+      </c>
+      <c r="E70" s="6">
+        <v>13</v>
+      </c>
+      <c r="G70" t="str">
         <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 29, , , , 1);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (31, '1912-07-01', 16, 46);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" ref="A71:A74" si="6">A70+1</f>
+        <v>32</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f>"1912-07-01"</f>
+        <v>1912-07-01</v>
+      </c>
+      <c r="C71" s="4">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D74" si="7">D70</f>
+        <v>46</v>
+      </c>
+      <c r="E71" s="6">
+        <v>14</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (32, '1912-07-01', 16, 46);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f>"1912-07-03"</f>
+        <v>1912-07-03</v>
+      </c>
+      <c r="C72" s="4">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="E72" s="6">
+        <v>15</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1912-07-03', 17, 46);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f>"1912-07-03"</f>
+        <v>1912-07-03</v>
+      </c>
+      <c r="C73" s="4">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="E73" s="6">
+        <v>16</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1912-07-03', 17, 46);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f>"1912-07-05"</f>
+        <v>1912-07-05</v>
+      </c>
+      <c r="C74" s="4">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="E74" s="6">
+        <v>17</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1912-07-05', 18, 46);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A76 &amp; ", " &amp; B76 &amp; ", " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f>'1912'!A66 + 1</f>
+        <v>131</v>
+      </c>
+      <c r="B77" s="3">
+        <f>A69</f>
+        <v>30</v>
+      </c>
+      <c r="C77" s="3">
+        <v>43</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" ref="G77:G100" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A77 &amp; ", " &amp; B77 &amp; ", " &amp; C77 &amp; ", " &amp; D77 &amp; ", " &amp; E77 &amp; ", " &amp; F77 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 30, 43, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f>A77+1</f>
+        <v>132</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>30</v>
+      </c>
+      <c r="C78" s="3">
+        <v>43</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 30, 43, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" ref="A79:A84" si="9">A78+1</f>
+        <v>133</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>30</v>
+      </c>
+      <c r="C79" s="3">
+        <v>47</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 30, 47, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="9"/>
+        <v>134</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B77</f>
+        <v>30</v>
+      </c>
+      <c r="C80" s="3">
+        <v>47</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 30, 47, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="B81">
+        <f>B77+1</f>
+        <v>31</v>
+      </c>
+      <c r="C81" s="4">
+        <v>49</v>
+      </c>
+      <c r="D81" s="4">
+        <v>16</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 31, 49, 16, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="9"/>
+        <v>136</v>
+      </c>
+      <c r="B82">
+        <f>B81</f>
+        <v>31</v>
+      </c>
+      <c r="C82" s="4">
+        <v>49</v>
+      </c>
+      <c r="D82" s="4">
+        <v>8</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 31, 49, 8, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="B83">
+        <f>B81</f>
+        <v>31</v>
+      </c>
+      <c r="C83" s="4">
+        <v>7812</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 31, 7812, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
+      <c r="B84">
+        <f>B81</f>
+        <v>31</v>
+      </c>
+      <c r="C84" s="4">
+        <v>7812</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 31, 7812, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" ref="A85:A100" si="10">A84+1</f>
+        <v>139</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B81+1</f>
+        <v>32</v>
+      </c>
+      <c r="C85" s="3">
+        <v>46</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 32, 46, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B85</f>
+        <v>32</v>
+      </c>
+      <c r="C86" s="3">
+        <v>46</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 32, 46, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="10"/>
+        <v>141</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B85</f>
+        <v>32</v>
+      </c>
+      <c r="C87" s="3">
+        <v>39</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 32, 39, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B85</f>
+        <v>32</v>
+      </c>
+      <c r="C88" s="3">
+        <v>39</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 32, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
+      <c r="B89">
+        <f>B85+1</f>
+        <v>33</v>
+      </c>
+      <c r="C89" s="4">
+        <v>49</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 33, 49, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="B90">
+        <f>B89</f>
+        <v>33</v>
+      </c>
+      <c r="C90" s="4">
+        <v>49</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 33, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="B91">
+        <f>B89</f>
+        <v>33</v>
+      </c>
+      <c r="C91" s="4">
+        <v>36</v>
+      </c>
+      <c r="D91" s="4">
+        <v>3</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 33, 36, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="B92">
+        <f>B89</f>
+        <v>33</v>
+      </c>
+      <c r="C92" s="4">
+        <v>36</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 33, 36, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B89+1</f>
+        <v>34</v>
+      </c>
+      <c r="C93" s="3">
+        <v>39</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 34, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="10"/>
+        <v>148</v>
+      </c>
+      <c r="B94" s="3">
+        <f>B93</f>
+        <v>34</v>
+      </c>
+      <c r="C94" s="3">
+        <v>39</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 34, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+      <c r="B95" s="3">
+        <f>B93</f>
+        <v>34</v>
+      </c>
+      <c r="C95" s="3">
+        <v>43</v>
+      </c>
+      <c r="D95" s="3">
+        <v>5</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 34, 43, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B93</f>
+        <v>34</v>
+      </c>
+      <c r="C96" s="3">
+        <v>43</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 34, 43, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="B97">
+        <f>B93+1</f>
+        <v>35</v>
+      </c>
+      <c r="C97" s="4">
+        <v>36</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 35, 36, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="10"/>
+        <v>152</v>
+      </c>
+      <c r="B98">
+        <f>B97</f>
+        <v>35</v>
+      </c>
+      <c r="C98" s="4">
+        <v>36</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 35, 36, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="B99">
+        <f>B97</f>
+        <v>35</v>
+      </c>
+      <c r="C99" s="4">
+        <v>43</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 35, 43, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="10"/>
+        <v>154</v>
+      </c>
+      <c r="B100">
+        <f>B97</f>
+        <v>35</v>
+      </c>
+      <c r="C100" s="4">
+        <v>43</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 35, 43, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1912'!A12+1</f>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1920-08-29"</f>
+        <v>1920-08-29</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C5 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (30, '1920-08-29', 15, 32);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B7" si="0">"1920-08-29"</f>
+        <v>1920-08-29</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G14" si="1">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A3 &amp; ", '" &amp; B3 &amp; "', " &amp; C6 &amp; ", " &amp; D3 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (31, '1920-08-29', 15, 32);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A14" si="2">A3+1</f>
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1920-08-29</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D14" si="3">D3</f>
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (32, '1920-08-29', 15, 32);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1920-08-29</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1920-08-29', 3, 32);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1920-08-29</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1920-08-29', 3, 32);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1920-08-29</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1920-08-29', 3, 32);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1920-08-30"</f>
+        <v>1920-08-30</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (36, '1920-08-30', 3, 32);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" ref="B9:B11" si="4">"1920-08-30"</f>
+        <v>1920-08-30</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (37, '1920-08-30', 4, 32);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>1920-08-30</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (38, '1920-08-30', 4, 32);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>1920-08-30</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (39, '1920-08-30', 14, 32);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1920-08-31"</f>
+        <v>1920-08-31</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (40, '1920-08-31', , 32);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1920-08-31"</f>
+        <v>1920-08-31</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (41, '1920-08-31', squad, 32);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1920-09-02"</f>
+        <v>1920-09-02</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (42, '1920-09-02', 38, 32);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A16 &amp; ", " &amp; B16 &amp; ", " &amp; C16 &amp; ", " &amp; D16 &amp; ", " &amp; E16 &amp; ", " &amp; F16 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>'1912'!A100 + 1</f>
+        <v>155</v>
+      </c>
+      <c r="B17" s="3">
+        <f>A2</f>
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" ref="G17:G64" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A17 &amp; ", " &amp; B17 &amp; ", " &amp; C17 &amp; ", " &amp; D17 &amp; ", " &amp; E17 &amp; ", " &amp; F17 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 30, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f>A17+1</f>
+        <v>156</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B17</f>
+        <v>30</v>
+      </c>
+      <c r="C18" s="3">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 30, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" ref="A19:A72" si="6">A18+1</f>
+        <v>157</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B17</f>
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 30, 42, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B17</f>
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 30, 42, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B17+1</f>
+        <v>31</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 31, 44, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B21</f>
+        <v>31</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 31, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B21</f>
+        <v>31</v>
+      </c>
+      <c r="C23" s="4">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 31, 47, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B21</f>
+        <v>31</v>
+      </c>
+      <c r="C24" s="4">
+        <v>47</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 31, 47, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B21+1</f>
+        <v>32</v>
+      </c>
+      <c r="C25" s="3">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 32, 39, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B25</f>
+        <v>32</v>
+      </c>
+      <c r="C26" s="3">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 32, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B25</f>
+        <v>32</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 32, 20, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B25</f>
+        <v>32</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 32, 20, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="6"/>
+        <v>167</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B25+1</f>
+        <v>33</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 33, 45, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B29</f>
+        <v>33</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 33, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="6"/>
+        <v>169</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B29</f>
+        <v>33</v>
+      </c>
+      <c r="C31" s="4">
+        <v>34</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 33, 34, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B29</f>
+        <v>33</v>
+      </c>
+      <c r="C32" s="4">
+        <v>34</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 33, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B29+1</f>
+        <v>34</v>
+      </c>
+      <c r="C33" s="3">
+        <v>46</v>
+      </c>
+      <c r="D33" s="5">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 34, 46, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B33</f>
+        <v>34</v>
+      </c>
+      <c r="C34" s="3">
+        <v>46</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 34, 46, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B33</f>
+        <v>34</v>
+      </c>
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 34, 30, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B33</f>
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>30</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 34, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B33+1</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>31</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 35, 31, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B37</f>
+        <v>35</v>
+      </c>
+      <c r="C38" s="4">
+        <v>31</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 35, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B37</f>
+        <v>35</v>
+      </c>
+      <c r="C39" s="4">
+        <v>352</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 35, 352, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B37</f>
+        <v>35</v>
+      </c>
+      <c r="C40" s="4">
+        <v>352</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 35, 352, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="6"/>
+        <v>179</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B37+1</f>
+        <v>36</v>
+      </c>
+      <c r="C41" s="3">
+        <v>31</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 36, 31, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B41</f>
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <v>31</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 36, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B41</f>
+        <v>36</v>
+      </c>
+      <c r="C43" s="3">
+        <v>46</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (181, 36, 46, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B41</f>
+        <v>36</v>
+      </c>
+      <c r="C44" s="3">
+        <v>46</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (182, 36, 46, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" ref="B45:B48" si="7">B42</f>
+        <v>36</v>
+      </c>
+      <c r="C45" s="3">
+        <v>31</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" ref="G45:G48" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A45 &amp; ", " &amp; B45 &amp; ", " &amp; C45 &amp; ", " &amp; D45 &amp; ", " &amp; E45 &amp; ", " &amp; F45 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 36, 31, 5, 2, 4);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="C46" s="3">
+        <v>31</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 36, 31, 4, 0, 3);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 36, 46, 4, 0, 4);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="C48" s="3">
+        <v>46</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 36, 46, 4, 0, 3);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f>A48+1</f>
+        <v>187</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B41+1</f>
+        <v>37</v>
+      </c>
+      <c r="C49" s="4">
+        <v>33</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 37, 33, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B49</f>
+        <v>37</v>
+      </c>
+      <c r="C50" s="4">
+        <v>33</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 37, 33, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B49</f>
+        <v>37</v>
+      </c>
+      <c r="C51" s="4">
+        <v>39</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 37, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B49</f>
+        <v>37</v>
+      </c>
+      <c r="C52" s="4">
+        <v>39</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 37, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B49+1</f>
+        <v>38</v>
+      </c>
+      <c r="C53" s="3">
+        <v>42</v>
+      </c>
+      <c r="D53" s="5">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (191, 38, 42, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B53</f>
+        <v>38</v>
+      </c>
+      <c r="C54" s="3">
+        <v>42</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (192, 38, 42, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53</f>
+        <v>38</v>
+      </c>
+      <c r="C55" s="3">
+        <v>47</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (193, 38, 47, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B53</f>
+        <v>38</v>
+      </c>
+      <c r="C56" s="3">
+        <v>47</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (194, 38, 47, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B53+1</f>
+        <v>39</v>
+      </c>
+      <c r="C57" s="4">
+        <v>32</v>
+      </c>
+      <c r="D57" s="6">
+        <v>3</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 39, 32, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B57</f>
+        <v>39</v>
+      </c>
+      <c r="C58" s="4">
+        <v>32</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 39, 32, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B57</f>
+        <v>39</v>
+      </c>
+      <c r="C59" s="4">
+        <v>34</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (197, 39, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B57</f>
+        <v>39</v>
+      </c>
+      <c r="C60" s="4">
+        <v>34</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (198, 39, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57+1</f>
+        <v>40</v>
+      </c>
+      <c r="C61" s="3">
+        <v>33</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (199, 40, 33, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B61</f>
+        <v>40</v>
+      </c>
+      <c r="C62" s="3">
+        <v>33</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (200, 40, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B61</f>
+        <v>40</v>
+      </c>
+      <c r="C63" s="3">
+        <v>42</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (201, 40, 42, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B61</f>
+        <v>40</v>
+      </c>
+      <c r="C64" s="3">
+        <v>42</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (202, 40, 42, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B61+1</f>
+        <v>41</v>
+      </c>
+      <c r="C65" s="4">
+        <v>32</v>
+      </c>
+      <c r="D65" s="6">
+        <v>3</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" ref="G65:G72" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A65 &amp; ", " &amp; B65 &amp; ", " &amp; C65 &amp; ", " &amp; D65 &amp; ", " &amp; E65 &amp; ", " &amp; F65 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 41, 32, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B65</f>
+        <v>41</v>
+      </c>
+      <c r="C66" s="4">
+        <v>32</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 41, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="6"/>
+        <v>205</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B65</f>
+        <v>41</v>
+      </c>
+      <c r="C67" s="4">
+        <v>31</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 41, 31, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f>A67+1</f>
+        <v>206</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>41</v>
+      </c>
+      <c r="C68" s="4">
+        <v>31</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 41, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="6"/>
+        <v>207</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B65+1</f>
+        <v>42</v>
+      </c>
+      <c r="C69" s="3">
+        <v>32</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 42, 32, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B69</f>
+        <v>42</v>
+      </c>
+      <c r="C70" s="3">
+        <v>32</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 42, 32, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B69</f>
+        <v>42</v>
+      </c>
+      <c r="C71" s="3">
+        <v>42</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 42, 42, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B69</f>
+        <v>42</v>
+      </c>
+      <c r="C72" s="3">
+        <v>42</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 42, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A74 &amp; ", '" &amp; B74 &amp; "', " &amp; C74 &amp; ", " &amp; D74 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>'1920'!A14+1</f>
+        <v>43</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f>"1920-08-31"</f>
+        <v>1920-08-31</v>
+      </c>
+      <c r="C75" s="4">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>46</v>
+      </c>
+      <c r="E75" s="6">
+        <v>14</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" ref="G75:G79" si="10">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A75 &amp; ", '" &amp; B75 &amp; "', " &amp; C75 &amp; ", " &amp; D75 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (43, '1920-08-31', 19, 46);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>A75+1</f>
+        <v>44</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f>"1920-09-01"</f>
+        <v>1920-09-01</v>
+      </c>
+      <c r="C76" s="4">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <f>D75</f>
+        <v>46</v>
+      </c>
+      <c r="E76" s="6">
+        <v>15</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (44, '1920-09-01', 19, 46);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" ref="A77:A79" si="11">A76+1</f>
+        <v>45</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f>"1920-09-02"</f>
+        <v>1920-09-02</v>
+      </c>
+      <c r="C77" s="4">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77:D79" si="12">D76</f>
+        <v>46</v>
+      </c>
+      <c r="E77" s="6">
+        <v>16</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (45, '1920-09-02', 20, 46);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <f>"1920-09-03"</f>
+        <v>1920-09-03</v>
+      </c>
+      <c r="C78" s="4">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="E78" s="6">
+        <v>17</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (46, '1920-09-03', 21, 46);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="B79" s="2" t="str">
+        <f>"1920-09-05"</f>
+        <v>1920-09-05</v>
+      </c>
+      <c r="C79" s="4">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="E79" s="6">
+        <v>18</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (47, '1920-09-05', 12, 46);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A81 &amp; ", " &amp; B81 &amp; ", " &amp; C81 &amp; ", " &amp; D81 &amp; ", " &amp; E81 &amp; ", " &amp; F81 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f>'1920'!A64 + 1</f>
+        <v>203</v>
+      </c>
+      <c r="B82" s="3">
+        <f>A75</f>
+        <v>43</v>
+      </c>
+      <c r="C82" s="3">
+        <v>39</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" ref="G82:G105" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A82 &amp; ", " &amp; B82 &amp; ", " &amp; C82 &amp; ", " &amp; D82 &amp; ", " &amp; E82 &amp; ", " &amp; F82 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 43, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f>A82+1</f>
+        <v>204</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B82</f>
+        <v>43</v>
+      </c>
+      <c r="C83" s="3">
+        <v>39</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 43, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" ref="A84:A105" si="14">A83+1</f>
+        <v>205</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B82</f>
+        <v>43</v>
+      </c>
+      <c r="C84" s="3">
+        <v>47</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 43, 47, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B82</f>
+        <v>43</v>
+      </c>
+      <c r="C85" s="3">
+        <v>47</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 43, 47, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" ref="A86:A90" si="15">A85+1</f>
+        <v>207</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B83</f>
+        <v>43</v>
+      </c>
+      <c r="C86" s="3">
+        <v>39</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" ref="G86:G89" si="16">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A86 &amp; ", " &amp; B86 &amp; ", " &amp; C86 &amp; ", " &amp; D86 &amp; ", " &amp; E86 &amp; ", " &amp; F86 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 43, 39, 2, 2, 4);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="15"/>
+        <v>208</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B84</f>
+        <v>43</v>
+      </c>
+      <c r="C87" s="3">
+        <v>39</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>3</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 43, 39, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="15"/>
+        <v>209</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B85</f>
+        <v>43</v>
+      </c>
+      <c r="C88" s="3">
+        <v>47</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>4</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 43, 47, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B86</f>
+        <v>43</v>
+      </c>
+      <c r="C89" s="3">
+        <v>47</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 43, 47, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="15"/>
+        <v>211</v>
+      </c>
+      <c r="B90">
+        <f>B82+1</f>
+        <v>44</v>
+      </c>
+      <c r="C90" s="4">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (211, 44, 34, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
+      <c r="B91">
+        <f>B90</f>
+        <v>44</v>
+      </c>
+      <c r="C91" s="4">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (212, 44, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="14"/>
+        <v>213</v>
+      </c>
+      <c r="B92">
+        <f>B90</f>
+        <v>44</v>
+      </c>
+      <c r="C92" s="4">
+        <v>46</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (213, 44, 46, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="14"/>
+        <v>214</v>
+      </c>
+      <c r="B93">
+        <f>B90</f>
+        <v>44</v>
+      </c>
+      <c r="C93" s="4">
+        <v>46</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (214, 44, 46, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
+      <c r="B94" s="3">
+        <f>B90+1</f>
+        <v>45</v>
+      </c>
+      <c r="C94" s="3">
+        <v>34</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (215, 45, 34, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="B95" s="3">
+        <f>B94</f>
+        <v>45</v>
+      </c>
+      <c r="C95" s="3">
+        <v>34</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (216, 45, 34, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B94</f>
+        <v>45</v>
+      </c>
+      <c r="C96" s="3">
+        <v>39</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (217, 45, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+      <c r="B97" s="3">
+        <f>B94</f>
+        <v>45</v>
+      </c>
+      <c r="C97" s="3">
+        <v>39</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (218, 45, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+      <c r="B98">
+        <f>B94+1</f>
+        <v>46</v>
+      </c>
+      <c r="C98" s="4">
+        <v>38</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (219, 46, 38, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="B99">
+        <f>B98</f>
+        <v>46</v>
+      </c>
+      <c r="C99" s="4">
+        <v>38</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (220, 46, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="14"/>
+        <v>221</v>
+      </c>
+      <c r="B100">
+        <f>B98</f>
+        <v>46</v>
+      </c>
+      <c r="C100" s="4">
+        <v>20</v>
+      </c>
+      <c r="D100" s="4">
+        <v>4</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (221, 46, 20, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="14"/>
+        <v>222</v>
+      </c>
+      <c r="B101">
+        <f>B98</f>
+        <v>46</v>
+      </c>
+      <c r="C101" s="4">
+        <v>20</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (222, 46, 20, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <f t="shared" si="14"/>
+        <v>223</v>
+      </c>
+      <c r="B102" s="3">
+        <f>B98+1</f>
+        <v>47</v>
+      </c>
+      <c r="C102" s="3">
+        <v>31</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2</v>
+      </c>
+      <c r="G102" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (223, 47, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="B103" s="3">
+        <f>B102</f>
+        <v>47</v>
+      </c>
+      <c r="C103" s="3">
+        <v>31</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (224, 47, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f t="shared" si="14"/>
+        <v>225</v>
+      </c>
+      <c r="B104" s="3">
+        <f>B102</f>
+        <v>47</v>
+      </c>
+      <c r="C104" s="3">
+        <v>34</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (225, 47, 34, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f t="shared" si="14"/>
+        <v>226</v>
+      </c>
+      <c r="B105" s="3">
+        <f>B102</f>
+        <v>47</v>
+      </c>
+      <c r="C105" s="3">
+        <v>34</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (226, 47, 34, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/olympics/olympics.xlsx
+++ b/Scripts/olympics/olympics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1900" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="1908" sheetId="64" r:id="rId4"/>
     <sheet name="1912" sheetId="65" r:id="rId5"/>
     <sheet name="1920" sheetId="66" r:id="rId6"/>
+    <sheet name="1924" sheetId="67" r:id="rId7"/>
+    <sheet name="1928" sheetId="68" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -5597,7 +5599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5650,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C5 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <f t="shared" ref="G2:G14" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (30, '1920-08-29', 15, 32);</v>
       </c>
     </row>
@@ -5660,7 +5662,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3:B7" si="0">"1920-08-29"</f>
+        <f t="shared" ref="B3:B7" si="1">"1920-08-29"</f>
         <v>1920-08-29</v>
       </c>
       <c r="C3">
@@ -5674,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G14" si="1">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A3 &amp; ", '" &amp; B3 &amp; "', " &amp; C6 &amp; ", " &amp; D3 &amp;  ");"</f>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (31, '1920-08-29', 15, 32);</v>
       </c>
     </row>
@@ -5684,7 +5686,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1920-08-29</v>
       </c>
       <c r="C4">
@@ -5698,7 +5700,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (32, '1920-08-29', 15, 32);</v>
       </c>
     </row>
@@ -5708,7 +5710,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1920-08-29</v>
       </c>
       <c r="C5">
@@ -5722,8 +5724,8 @@
         <v>4</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1920-08-29', 3, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1920-08-29', 15, 32);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5732,7 +5734,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1920-08-29</v>
       </c>
       <c r="C6">
@@ -5746,8 +5748,8 @@
         <v>5</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1920-08-29', 3, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1920-08-29', 15, 32);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5756,7 +5758,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1920-08-29</v>
       </c>
       <c r="C7">
@@ -5770,8 +5772,8 @@
         <v>6</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1920-08-29', 3, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1920-08-29', 15, 32);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5794,7 +5796,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (36, '1920-08-30', 3, 32);</v>
       </c>
     </row>
@@ -5818,8 +5820,8 @@
         <v>8</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (37, '1920-08-30', 4, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (37, '1920-08-30', 3, 32);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5842,8 +5844,8 @@
         <v>9</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (38, '1920-08-30', 4, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (38, '1920-08-30', 3, 32);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5866,8 +5868,8 @@
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (39, '1920-08-30', 14, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (39, '1920-08-30', 3, 32);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5890,8 +5892,8 @@
         <v>11</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (40, '1920-08-31', , 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (40, '1920-08-31', 4, 32);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5914,8 +5916,8 @@
         <v>12</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (41, '1920-08-31', squad, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (41, '1920-08-31', 4, 32);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5938,8 +5940,8 @@
         <v>13</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (42, '1920-09-02', 38, 32);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (42, '1920-09-02', 14, 32);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5988,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" ref="G17:G64" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A17 &amp; ", " &amp; B17 &amp; ", " &amp; C17 &amp; ", " &amp; D17 &amp; ", " &amp; E17 &amp; ", " &amp; F17 &amp; ");"</f>
+        <f t="shared" ref="G17:G72" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A17 &amp; ", " &amp; B17 &amp; ", " &amp; C17 &amp; ", " &amp; D17 &amp; ", " &amp; E17 &amp; ", " &amp; F17 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 30, 38, 0, 0, 2);</v>
       </c>
     </row>
@@ -6091,7 +6093,7 @@
       <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 31, 44, 1, 0, 2);</v>
       </c>
@@ -6117,7 +6119,7 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="4" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 31, 44, 1, 0, 1);</v>
       </c>
@@ -6143,7 +6145,7 @@
       <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="4" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 31, 47, 3, 2, 2);</v>
       </c>
@@ -6169,7 +6171,7 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="4" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 31, 47, 1, 0, 1);</v>
       </c>
@@ -6299,7 +6301,7 @@
       <c r="F29" s="4">
         <v>2</v>
       </c>
-      <c r="G29" s="4" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 33, 45, 0, 0, 2);</v>
       </c>
@@ -6325,7 +6327,7 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 33, 45, 0, 0, 1);</v>
       </c>
@@ -6351,7 +6353,7 @@
       <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="4" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 33, 34, 1, 2, 2);</v>
       </c>
@@ -6377,7 +6379,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 33, 34, 0, 0, 1);</v>
       </c>
@@ -6507,7 +6509,7 @@
       <c r="F37" s="4">
         <v>2</v>
       </c>
-      <c r="G37" s="4" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 35, 31, 3, 2, 2);</v>
       </c>
@@ -6533,7 +6535,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" s="4" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 35, 31, 1, 0, 1);</v>
       </c>
@@ -6559,7 +6561,7 @@
       <c r="F39" s="4">
         <v>2</v>
       </c>
-      <c r="G39" s="4" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 35, 352, 0, 0, 2);</v>
       </c>
@@ -6585,7 +6587,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="G40" s="4" t="str">
+      <c r="G40" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 35, 352, 0, 0, 1);</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" ref="G45:G48" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A45 &amp; ", " &amp; B45 &amp; ", " &amp; C45 &amp; ", " &amp; D45 &amp; ", " &amp; E45 &amp; ", " &amp; F45 &amp; ");"</f>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 36, 31, 5, 2, 4);</v>
       </c>
     </row>
@@ -6742,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 36, 31, 4, 0, 3);</v>
       </c>
     </row>
@@ -6768,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 36, 46, 4, 0, 4);</v>
       </c>
     </row>
@@ -6794,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 36, 46, 4, 0, 3);</v>
       </c>
     </row>
@@ -6819,7 +6821,7 @@
       <c r="F49" s="4">
         <v>2</v>
       </c>
-      <c r="G49" s="4" t="str">
+      <c r="G49" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 37, 33, 3, 2, 2);</v>
       </c>
@@ -6845,7 +6847,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="4" t="str">
+      <c r="G50" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 37, 33, 2, 0, 1);</v>
       </c>
@@ -6871,7 +6873,7 @@
       <c r="F51" s="4">
         <v>2</v>
       </c>
-      <c r="G51" s="4" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 37, 39, 1, 0, 2);</v>
       </c>
@@ -6897,7 +6899,7 @@
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="4" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 37, 39, 1, 0, 1);</v>
       </c>
@@ -7027,7 +7029,7 @@
       <c r="F57" s="4">
         <v>2</v>
       </c>
-      <c r="G57" s="4" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 39, 32, 3, 2, 2);</v>
       </c>
@@ -7053,7 +7055,7 @@
       <c r="F58" s="4">
         <v>1</v>
       </c>
-      <c r="G58" s="4" t="str">
+      <c r="G58" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 39, 32, 1, 0, 1);</v>
       </c>
@@ -7079,7 +7081,7 @@
       <c r="F59" s="4">
         <v>2</v>
       </c>
-      <c r="G59" s="4" t="str">
+      <c r="G59" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (197, 39, 34, 1, 0, 2);</v>
       </c>
@@ -7105,7 +7107,7 @@
       <c r="F60" s="4">
         <v>1</v>
       </c>
-      <c r="G60" s="4" t="str">
+      <c r="G60" t="str">
         <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (198, 39, 34, 0, 0, 1);</v>
       </c>
@@ -7235,8 +7237,8 @@
       <c r="F65" s="4">
         <v>2</v>
       </c>
-      <c r="G65" s="4" t="str">
-        <f t="shared" ref="G65:G72" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A65 &amp; ", " &amp; B65 &amp; ", " &amp; C65 &amp; ", " &amp; D65 &amp; ", " &amp; E65 &amp; ", " &amp; F65 &amp; ");"</f>
+      <c r="G65" t="str">
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 41, 32, 3, 2, 2);</v>
       </c>
     </row>
@@ -7261,8 +7263,8 @@
       <c r="F66" s="4">
         <v>1</v>
       </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G66" t="str">
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 41, 32, 0, 0, 1);</v>
       </c>
     </row>
@@ -7287,8 +7289,8 @@
       <c r="F67" s="4">
         <v>2</v>
       </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G67" t="str">
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 41, 31, 0, 0, 2);</v>
       </c>
     </row>
@@ -7313,8 +7315,8 @@
       <c r="F68" s="4">
         <v>1</v>
       </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="G68" t="str">
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 41, 31, 0, 0, 1);</v>
       </c>
     </row>
@@ -7340,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 42, 32, 2, 2, 2);</v>
       </c>
     </row>
@@ -7366,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 42, 32, 2, 0, 1);</v>
       </c>
     </row>
@@ -7392,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 42, 42, 0, 0, 2);</v>
       </c>
     </row>
@@ -7418,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 42, 42, 0, 0, 1);</v>
       </c>
     </row>
@@ -7462,7 +7464,7 @@
         <v>14</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" ref="G75:G79" si="10">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A75 &amp; ", '" &amp; B75 &amp; "', " &amp; C75 &amp; ", " &amp; D75 &amp;  ");"</f>
+        <f t="shared" ref="G75:G79" si="8">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A75 &amp; ", '" &amp; B75 &amp; "', " &amp; C75 &amp; ", " &amp; D75 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (43, '1920-08-31', 19, 46);</v>
       </c>
     </row>
@@ -7486,13 +7488,13 @@
         <v>15</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (44, '1920-09-01', 19, 46);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" ref="A77:A79" si="11">A76+1</f>
+        <f t="shared" ref="A77:A79" si="9">A76+1</f>
         <v>45</v>
       </c>
       <c r="B77" s="2" t="str">
@@ -7503,20 +7505,20 @@
         <v>20</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77:D79" si="12">D76</f>
+        <f t="shared" ref="D77:D79" si="10">D76</f>
         <v>46</v>
       </c>
       <c r="E77" s="6">
         <v>16</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (45, '1920-09-02', 20, 46);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="B78" s="2" t="str">
@@ -7527,20 +7529,20 @@
         <v>21</v>
       </c>
       <c r="D78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="E78" s="6">
         <v>17</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (46, '1920-09-03', 21, 46);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="B79" s="2" t="str">
@@ -7551,14 +7553,14 @@
         <v>12</v>
       </c>
       <c r="D79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="E79" s="6">
         <v>18</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (47, '1920-09-05', 12, 46);</v>
       </c>
     </row>
@@ -7588,8 +7590,8 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <f>'1920'!A64 + 1</f>
-        <v>203</v>
+        <f>'1920'!A72 + 1</f>
+        <v>211</v>
       </c>
       <c r="B82" s="3">
         <f>A75</f>
@@ -7608,14 +7610,14 @@
         <v>2</v>
       </c>
       <c r="G82" s="3" t="str">
-        <f t="shared" ref="G82:G105" si="13">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A82 &amp; ", " &amp; B82 &amp; ", " &amp; C82 &amp; ", " &amp; D82 &amp; ", " &amp; E82 &amp; ", " &amp; F82 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 43, 39, 1, 0, 2);</v>
+        <f t="shared" ref="G82:G105" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A82 &amp; ", " &amp; B82 &amp; ", " &amp; C82 &amp; ", " &amp; D82 &amp; ", " &amp; E82 &amp; ", " &amp; F82 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (211, 43, 39, 1, 0, 2);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <f>A82+1</f>
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B83" s="3">
         <f>B82</f>
@@ -7634,14 +7636,14 @@
         <v>1</v>
       </c>
       <c r="G83" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 43, 39, 0, 0, 1);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (212, 43, 39, 0, 0, 1);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <f t="shared" ref="A84:A105" si="14">A83+1</f>
-        <v>205</v>
+        <f t="shared" ref="A84:A105" si="12">A83+1</f>
+        <v>213</v>
       </c>
       <c r="B84" s="3">
         <f>B82</f>
@@ -7660,14 +7662,14 @@
         <v>2</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 43, 47, 1, 0, 2);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (213, 43, 47, 1, 0, 2);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <f t="shared" si="14"/>
-        <v>206</v>
+        <f t="shared" si="12"/>
+        <v>214</v>
       </c>
       <c r="B85" s="3">
         <f>B82</f>
@@ -7686,14 +7688,14 @@
         <v>1</v>
       </c>
       <c r="G85" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 43, 47, 1, 0, 1);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (214, 43, 47, 1, 0, 1);</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <f t="shared" ref="A86:A90" si="15">A85+1</f>
-        <v>207</v>
+        <f t="shared" ref="A86:A90" si="13">A85+1</f>
+        <v>215</v>
       </c>
       <c r="B86" s="3">
         <f>B83</f>
@@ -7712,14 +7714,14 @@
         <v>4</v>
       </c>
       <c r="G86" s="3" t="str">
-        <f t="shared" ref="G86:G89" si="16">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A86 &amp; ", " &amp; B86 &amp; ", " &amp; C86 &amp; ", " &amp; D86 &amp; ", " &amp; E86 &amp; ", " &amp; F86 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 43, 39, 2, 2, 4);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (215, 43, 39, 2, 2, 4);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <f t="shared" si="15"/>
-        <v>208</v>
+        <f t="shared" si="13"/>
+        <v>216</v>
       </c>
       <c r="B87" s="3">
         <f>B84</f>
@@ -7738,14 +7740,14 @@
         <v>3</v>
       </c>
       <c r="G87" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 43, 39, 2, 0, 3);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (216, 43, 39, 2, 0, 3);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <f t="shared" si="15"/>
-        <v>209</v>
+        <f t="shared" si="13"/>
+        <v>217</v>
       </c>
       <c r="B88" s="3">
         <f>B85</f>
@@ -7764,14 +7766,14 @@
         <v>4</v>
       </c>
       <c r="G88" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 43, 47, 1, 0, 4);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (217, 43, 47, 1, 0, 4);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <f t="shared" si="15"/>
-        <v>210</v>
+        <f t="shared" si="13"/>
+        <v>218</v>
       </c>
       <c r="B89" s="3">
         <f>B86</f>
@@ -7790,14 +7792,14 @@
         <v>3</v>
       </c>
       <c r="G89" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 43, 47, 1, 0, 3);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (218, 43, 47, 1, 0, 3);</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <f t="shared" si="15"/>
-        <v>211</v>
+        <f t="shared" si="13"/>
+        <v>219</v>
       </c>
       <c r="B90">
         <f>B82+1</f>
@@ -7815,15 +7817,15 @@
       <c r="F90" s="4">
         <v>2</v>
       </c>
-      <c r="G90" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (211, 44, 34, 2, 2, 2);</v>
+      <c r="G90" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (219, 44, 34, 2, 2, 2);</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="14"/>
-        <v>212</v>
+        <f t="shared" si="12"/>
+        <v>220</v>
       </c>
       <c r="B91">
         <f>B90</f>
@@ -7841,15 +7843,15 @@
       <c r="F91" s="4">
         <v>1</v>
       </c>
-      <c r="G91" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (212, 44, 34, 0, 0, 1);</v>
+      <c r="G91" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (220, 44, 34, 0, 0, 1);</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="14"/>
-        <v>213</v>
+        <f t="shared" si="12"/>
+        <v>221</v>
       </c>
       <c r="B92">
         <f>B90</f>
@@ -7867,15 +7869,15 @@
       <c r="F92" s="4">
         <v>2</v>
       </c>
-      <c r="G92" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (213, 44, 46, 1, 0, 2);</v>
+      <c r="G92" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (221, 44, 46, 1, 0, 2);</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="14"/>
-        <v>214</v>
+        <f t="shared" si="12"/>
+        <v>222</v>
       </c>
       <c r="B93">
         <f>B90</f>
@@ -7893,15 +7895,15 @@
       <c r="F93" s="4">
         <v>1</v>
       </c>
-      <c r="G93" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (214, 44, 46, 1, 0, 1);</v>
+      <c r="G93" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (222, 44, 46, 1, 0, 1);</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <f t="shared" si="14"/>
-        <v>215</v>
+        <f t="shared" si="12"/>
+        <v>223</v>
       </c>
       <c r="B94" s="3">
         <f>B90+1</f>
@@ -7920,14 +7922,14 @@
         <v>2</v>
       </c>
       <c r="G94" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (215, 45, 34, 2, 2, 2);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (223, 45, 34, 2, 2, 2);</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <f t="shared" si="14"/>
-        <v>216</v>
+        <f t="shared" si="12"/>
+        <v>224</v>
       </c>
       <c r="B95" s="3">
         <f>B94</f>
@@ -7946,14 +7948,14 @@
         <v>1</v>
       </c>
       <c r="G95" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (216, 45, 34, 1, 0, 1);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (224, 45, 34, 1, 0, 1);</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <f t="shared" si="14"/>
-        <v>217</v>
+        <f t="shared" si="12"/>
+        <v>225</v>
       </c>
       <c r="B96" s="3">
         <f>B94</f>
@@ -7972,14 +7974,14 @@
         <v>2</v>
       </c>
       <c r="G96" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (217, 45, 39, 0, 0, 2);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (225, 45, 39, 0, 0, 2);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <f t="shared" si="14"/>
-        <v>218</v>
+        <f t="shared" si="12"/>
+        <v>226</v>
       </c>
       <c r="B97" s="3">
         <f>B94</f>
@@ -7998,14 +8000,14 @@
         <v>1</v>
       </c>
       <c r="G97" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (218, 45, 39, 0, 0, 1);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (226, 45, 39, 0, 0, 1);</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="14"/>
-        <v>219</v>
+        <f t="shared" si="12"/>
+        <v>227</v>
       </c>
       <c r="B98">
         <f>B94+1</f>
@@ -8023,15 +8025,15 @@
       <c r="F98" s="4">
         <v>2</v>
       </c>
-      <c r="G98" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (219, 46, 38, 2, 0, 2);</v>
+      <c r="G98" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (227, 46, 38, 2, 0, 2);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="14"/>
-        <v>220</v>
+        <f t="shared" si="12"/>
+        <v>228</v>
       </c>
       <c r="B99">
         <f>B98</f>
@@ -8049,15 +8051,15 @@
       <c r="F99" s="4">
         <v>1</v>
       </c>
-      <c r="G99" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (220, 46, 38, 1, 0, 1);</v>
+      <c r="G99" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (228, 46, 38, 1, 0, 1);</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="14"/>
-        <v>221</v>
+        <f t="shared" si="12"/>
+        <v>229</v>
       </c>
       <c r="B100">
         <f>B98</f>
@@ -8075,15 +8077,15 @@
       <c r="F100" s="4">
         <v>2</v>
       </c>
-      <c r="G100" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (221, 46, 20, 4, 2, 2);</v>
+      <c r="G100" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (229, 46, 20, 4, 2, 2);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="14"/>
-        <v>222</v>
+        <f t="shared" si="12"/>
+        <v>230</v>
       </c>
       <c r="B101">
         <f>B98</f>
@@ -8101,15 +8103,15 @@
       <c r="F101" s="4">
         <v>1</v>
       </c>
-      <c r="G101" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (222, 46, 20, 2, 0, 1);</v>
+      <c r="G101" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (230, 46, 20, 2, 0, 1);</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <f t="shared" si="14"/>
-        <v>223</v>
+        <f t="shared" si="12"/>
+        <v>231</v>
       </c>
       <c r="B102" s="3">
         <f>B98+1</f>
@@ -8128,14 +8130,14 @@
         <v>2</v>
       </c>
       <c r="G102" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (223, 47, 31, 1, 0, 2);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (231, 47, 31, 1, 0, 2);</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <f t="shared" si="14"/>
-        <v>224</v>
+        <f t="shared" si="12"/>
+        <v>232</v>
       </c>
       <c r="B103" s="3">
         <f>B102</f>
@@ -8154,14 +8156,14 @@
         <v>1</v>
       </c>
       <c r="G103" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (224, 47, 31, 0, 0, 1);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (232, 47, 31, 0, 0, 1);</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <f t="shared" si="14"/>
-        <v>225</v>
+        <f t="shared" si="12"/>
+        <v>233</v>
       </c>
       <c r="B104" s="3">
         <f>B102</f>
@@ -8180,14 +8182,14 @@
         <v>2</v>
       </c>
       <c r="G104" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (225, 47, 34, 3, 2, 2);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (233, 47, 34, 3, 2, 2);</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <f t="shared" si="14"/>
-        <v>226</v>
+        <f t="shared" si="12"/>
+        <v>234</v>
       </c>
       <c r="B105" s="3">
         <f>B102</f>
@@ -8206,8 +8208,6637 @@
         <v>1</v>
       </c>
       <c r="G105" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (226, 47, 34, 0, 0, 1);</v>
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (234, 47, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1920'!A14+1</f>
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1924-05-25"</f>
+        <v>1924-05-25</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G25" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (43, '1924-05-25', 15, 33);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B5" si="1">"1924-05-25"</f>
+        <v>1924-05-25</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (44, '1924-05-25', 15, 33);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A25" si="2">A3+1</f>
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1924-05-25</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D25" si="3">D3</f>
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E25" si="4">E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (45, '1924-05-25', 15, 33);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1924-05-25</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (46, '1924-05-25', 15, 33);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1924-05-26"</f>
+        <v>1924-05-26</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (47, '1924-05-26', 15, 33);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1924-05-26"</f>
+        <v>1924-05-26</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (48, '1924-05-26', 15, 33);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1924-05-27"</f>
+        <v>1924-05-27</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (49, '1924-05-27', 9, 33);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1924-05-27"</f>
+        <v>1924-05-27</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (50, '1924-05-27', 9, 33);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1924-05-28"</f>
+        <v>1924-05-28</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (51, '1924-05-28', 9, 33);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1924-05-28"</f>
+        <v>1924-05-28</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (52, '1924-05-28', 9, 33);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1924-05-29"</f>
+        <v>1924-05-29</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (53, '1924-05-29', 9, 33);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1924-05-29"</f>
+        <v>1924-05-29</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (54, '1924-05-29', 9, 33);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1924-05-29"</f>
+        <v>1924-05-29</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (55, '1924-05-29', 9, 33);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1924-05-29"</f>
+        <v>1924-05-29</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (56, '1924-05-29', 9, 33);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1924-05-30"</f>
+        <v>1924-05-30</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (57, '1924-05-30', 9, 33);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1924-06-01"</f>
+        <v>1924-06-01</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (58, '1924-06-01', 3, 33);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1924-06-01"</f>
+        <v>1924-06-01</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (59, '1924-06-01', 3, 33);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1924-06-02"</f>
+        <v>1924-06-02</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (60, '1924-06-02', 3, 33);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1924-06-02"</f>
+        <v>1924-06-02</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (61, '1924-06-02', 3, 33);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1924-06-05"</f>
+        <v>1924-06-05</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (62, '1924-06-05', 4, 33);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1924-06-06"</f>
+        <v>1924-06-06</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (63, '1924-06-06', 4, 33);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1924-06-08"</f>
+        <v>1924-06-08</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (64, '1924-06-08', 13, 33);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1924-06-09"</f>
+        <v>1924-06-09</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (65, '1924-06-09', 13, 33);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1924-06-09"</f>
+        <v>1924-06-09</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (66, '1924-06-09', 14, 33);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A27 &amp; ", " &amp; B27 &amp; ", " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>'1920'!A105 + 1</f>
+        <v>235</v>
+      </c>
+      <c r="B28" s="3">
+        <f>A2</f>
+        <v>43</v>
+      </c>
+      <c r="C28" s="3">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G91" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (235, 43, 39, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>A28+1</f>
+        <v>236</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B28</f>
+        <v>43</v>
+      </c>
+      <c r="C29" s="3">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 43, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" ref="A30:A97" si="6">A29+1</f>
+        <v>237</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B28</f>
+        <v>43</v>
+      </c>
+      <c r="C30" s="3">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (237, 43, 34, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="6"/>
+        <v>238</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>43</v>
+      </c>
+      <c r="C31" s="3">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (238, 43, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="6"/>
+        <v>239</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B28+1</f>
+        <v>44</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (239, 44, 41, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32</f>
+        <v>44</v>
+      </c>
+      <c r="C33" s="4">
+        <v>41</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (240, 44, 41, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B32</f>
+        <v>44</v>
+      </c>
+      <c r="C34" s="4">
+        <v>370</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (241, 44, 370, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B32</f>
+        <v>44</v>
+      </c>
+      <c r="C35" s="4">
+        <v>370</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (242, 44, 370, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B32+1</f>
+        <v>45</v>
+      </c>
+      <c r="C36" s="3">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (243, 45, 90, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B36</f>
+        <v>45</v>
+      </c>
+      <c r="C37" s="3">
+        <v>90</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (244, 45, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B36</f>
+        <v>45</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 45, 42, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="6"/>
+        <v>246</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B36</f>
+        <v>45</v>
+      </c>
+      <c r="C39" s="3">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 45, 42, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B36+1</f>
+        <v>46</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 46, 1, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B40</f>
+        <v>46</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 46, 1, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B40</f>
+        <v>46</v>
+      </c>
+      <c r="C42" s="4">
+        <v>372</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 46, 372, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B40</f>
+        <v>46</v>
+      </c>
+      <c r="C43" s="4">
+        <v>372</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 46, 372, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B40+1</f>
+        <v>47</v>
+      </c>
+      <c r="C44" s="3">
+        <v>38</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 47, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B44</f>
+        <v>47</v>
+      </c>
+      <c r="C45" s="3">
+        <v>38</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 47, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44</f>
+        <v>47</v>
+      </c>
+      <c r="C46" s="3">
+        <v>598</v>
+      </c>
+      <c r="D46" s="5">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 47, 598, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B44</f>
+        <v>47</v>
+      </c>
+      <c r="C47" s="3">
+        <v>598</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 47, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B44+1</f>
+        <v>48</v>
+      </c>
+      <c r="C48" s="4">
+        <v>36</v>
+      </c>
+      <c r="D48" s="6">
+        <v>5</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 48, 36, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B48</f>
+        <v>48</v>
+      </c>
+      <c r="C49" s="4">
+        <v>36</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 48, 36, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B48</f>
+        <v>48</v>
+      </c>
+      <c r="C50" s="4">
+        <v>48</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 48, 48, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="6"/>
+        <v>258</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B48</f>
+        <v>48</v>
+      </c>
+      <c r="C51" s="4">
+        <v>48</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 48, 48, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="6"/>
+        <v>259</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B48+1</f>
+        <v>49</v>
+      </c>
+      <c r="C52" s="3">
+        <v>31</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 49, 31, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B52</f>
+        <v>49</v>
+      </c>
+      <c r="C53" s="3">
+        <v>31</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 49, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B52</f>
+        <v>49</v>
+      </c>
+      <c r="C54" s="3">
+        <v>40</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 49, 40, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B52</f>
+        <v>49</v>
+      </c>
+      <c r="C55" s="3">
+        <v>40</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 49, 40, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B52+1</f>
+        <v>50</v>
+      </c>
+      <c r="C56" s="4">
+        <v>33</v>
+      </c>
+      <c r="D56" s="6">
+        <v>7</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 50, 33, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
+        <v>264</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B56</f>
+        <v>50</v>
+      </c>
+      <c r="C57" s="4">
+        <v>33</v>
+      </c>
+      <c r="D57" s="6">
+        <v>3</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 50, 33, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B56</f>
+        <v>50</v>
+      </c>
+      <c r="C58" s="4">
+        <v>371</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 50, 371, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B56</f>
+        <v>50</v>
+      </c>
+      <c r="C59" s="4">
+        <v>371</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 50, 371, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B56+1</f>
+        <v>51</v>
+      </c>
+      <c r="C60" s="3">
+        <v>359</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 51, 359, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B60</f>
+        <v>51</v>
+      </c>
+      <c r="C61" s="3">
+        <v>359</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 51, 359, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B60</f>
+        <v>51</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3531</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 51, 3531, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B60</f>
+        <v>51</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3531</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 51, 3531, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B60+1</f>
+        <v>52</v>
+      </c>
+      <c r="C64" s="4">
+        <v>41</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 52, 41, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B64</f>
+        <v>52</v>
+      </c>
+      <c r="C65" s="4">
+        <v>41</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 52, 41, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B64</f>
+        <v>52</v>
+      </c>
+      <c r="C66" s="4">
+        <v>42</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 52, 42, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="6"/>
+        <v>274</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B64</f>
+        <v>52</v>
+      </c>
+      <c r="C67" s="4">
+        <v>42</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 52, 42, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B65</f>
+        <v>52</v>
+      </c>
+      <c r="C68" s="4">
+        <v>41</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 52, 41, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B66</f>
+        <v>52</v>
+      </c>
+      <c r="C69" s="4">
+        <v>41</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 52, 41, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="6"/>
+        <v>277</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B67</f>
+        <v>52</v>
+      </c>
+      <c r="C70" s="4">
+        <v>42</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 52, 42, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B68</f>
+        <v>52</v>
+      </c>
+      <c r="C71" s="4">
+        <v>42</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 52, 42, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B64+1</f>
+        <v>53</v>
+      </c>
+      <c r="C72" s="3">
+        <v>46</v>
+      </c>
+      <c r="D72" s="5">
+        <v>8</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 53, 46, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B72</f>
+        <v>53</v>
+      </c>
+      <c r="C73" s="3">
+        <v>46</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 53, 46, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="6"/>
+        <v>281</v>
+      </c>
+      <c r="B74" s="3">
+        <f>B72</f>
+        <v>53</v>
+      </c>
+      <c r="C74" s="3">
+        <v>32</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 53, 32, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="6"/>
+        <v>282</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B72</f>
+        <v>53</v>
+      </c>
+      <c r="C75" s="3">
+        <v>32</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 53, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="6"/>
+        <v>283</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B72+1</f>
+        <v>54</v>
+      </c>
+      <c r="C76" s="4">
+        <v>39</v>
+      </c>
+      <c r="D76" s="6">
+        <v>2</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 54, 39, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="6"/>
+        <v>284</v>
+      </c>
+      <c r="B77" s="4">
+        <f>B76</f>
+        <v>54</v>
+      </c>
+      <c r="C77" s="4">
+        <v>39</v>
+      </c>
+      <c r="D77" s="6">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 54, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="B78" s="4">
+        <f>B76</f>
+        <v>54</v>
+      </c>
+      <c r="C78" s="4">
+        <v>352</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 54, 352, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f>A78+1</f>
+        <v>286</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B76</f>
+        <v>54</v>
+      </c>
+      <c r="C79" s="4">
+        <v>352</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 54, 352, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="6"/>
+        <v>287</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B76+1</f>
+        <v>55</v>
+      </c>
+      <c r="C80" s="3">
+        <v>598</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3</v>
+      </c>
+      <c r="E80" s="5">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 55, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B80</f>
+        <v>55</v>
+      </c>
+      <c r="C81" s="3">
+        <v>598</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 55, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="6"/>
+        <v>289</v>
+      </c>
+      <c r="B82" s="3">
+        <f>B80</f>
+        <v>55</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 55, 1, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B80</f>
+        <v>55</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 55, 1, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B80+1</f>
+        <v>56</v>
+      </c>
+      <c r="C84" s="4">
+        <v>20</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 56, 20, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B84</f>
+        <v>56</v>
+      </c>
+      <c r="C85" s="4">
+        <v>20</v>
+      </c>
+      <c r="D85" s="6">
+        <v>2</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 56, 20, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B84</f>
+        <v>56</v>
+      </c>
+      <c r="C86" s="4">
+        <v>36</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 56, 36, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="6"/>
+        <v>294</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B84</f>
+        <v>56</v>
+      </c>
+      <c r="C87" s="4">
+        <v>37</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 56, 37, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B84+1</f>
+        <v>57</v>
+      </c>
+      <c r="C88" s="3">
+        <v>41</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 57, 41, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B88</f>
+        <v>57</v>
+      </c>
+      <c r="C89" s="3">
+        <v>41</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 57, 41, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="6"/>
+        <v>297</v>
+      </c>
+      <c r="B90" s="3">
+        <f>B88</f>
+        <v>57</v>
+      </c>
+      <c r="C90" s="3">
+        <v>42</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 57, 42, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="B91" s="3">
+        <f>B88</f>
+        <v>57</v>
+      </c>
+      <c r="C91" s="3">
+        <v>42</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 57, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="6"/>
+        <v>299</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B88+1</f>
+        <v>58</v>
+      </c>
+      <c r="C92" s="4">
+        <v>33</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" ref="G92:G131" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A92 &amp; ", " &amp; B92 &amp; ", " &amp; C92 &amp; ", " &amp; D92 &amp; ", " &amp; E92 &amp; ", " &amp; F92 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 58, 33, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B92</f>
+        <v>58</v>
+      </c>
+      <c r="C93" s="4">
+        <v>33</v>
+      </c>
+      <c r="D93" s="6">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 58, 33, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="6"/>
+        <v>301</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B92</f>
+        <v>58</v>
+      </c>
+      <c r="C94" s="4">
+        <v>598</v>
+      </c>
+      <c r="D94" s="6">
+        <v>5</v>
+      </c>
+      <c r="E94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="4">
+        <v>2</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 58, 598, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="6"/>
+        <v>302</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B92</f>
+        <v>58</v>
+      </c>
+      <c r="C95" s="4">
+        <v>598</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 58, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="6"/>
+        <v>303</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B92+1</f>
+        <v>59</v>
+      </c>
+      <c r="C96" s="3">
+        <v>46</v>
+      </c>
+      <c r="D96" s="5">
+        <v>5</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 59, 46, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="6"/>
+        <v>304</v>
+      </c>
+      <c r="B97" s="3">
+        <f>B96</f>
+        <v>59</v>
+      </c>
+      <c r="C97" s="3">
+        <v>46</v>
+      </c>
+      <c r="D97" s="5">
+        <v>3</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 59, 46, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" ref="A98:A131" si="8">A97+1</f>
+        <v>305</v>
+      </c>
+      <c r="B98" s="3">
+        <f>B96</f>
+        <v>59</v>
+      </c>
+      <c r="C98" s="3">
+        <v>20</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 59, 20, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="B99" s="3">
+        <f>B96</f>
+        <v>59</v>
+      </c>
+      <c r="C99" s="3">
+        <v>20</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 59, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="8"/>
+        <v>307</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B96+1</f>
+        <v>60</v>
+      </c>
+      <c r="C100" s="4">
+        <v>31</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 60, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f t="shared" si="8"/>
+        <v>308</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B100</f>
+        <v>60</v>
+      </c>
+      <c r="C101" s="4">
+        <v>31</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 60, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f t="shared" si="8"/>
+        <v>309</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B100</f>
+        <v>60</v>
+      </c>
+      <c r="C102" s="4">
+        <v>3531</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 60, 3531, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f>A102+1</f>
+        <v>310</v>
+      </c>
+      <c r="B103" s="4">
+        <f>B100</f>
+        <v>60</v>
+      </c>
+      <c r="C103" s="4">
+        <v>3531</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 60, 3531, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <f>A103+1</f>
+        <v>311</v>
+      </c>
+      <c r="B104" s="4">
+        <f>B101</f>
+        <v>60</v>
+      </c>
+      <c r="C104" s="4">
+        <v>31</v>
+      </c>
+      <c r="D104" s="6">
+        <v>2</v>
+      </c>
+      <c r="E104" s="6">
+        <v>2</v>
+      </c>
+      <c r="F104" s="4">
+        <v>4</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 60, 31, 2, 2, 4);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <f>A104+1</f>
+        <v>312</v>
+      </c>
+      <c r="B105" s="4">
+        <f>B102</f>
+        <v>60</v>
+      </c>
+      <c r="C105" s="4">
+        <v>31</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>3</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 60, 31, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <f>A105+1</f>
+        <v>313</v>
+      </c>
+      <c r="B106" s="4">
+        <f>B103</f>
+        <v>60</v>
+      </c>
+      <c r="C106" s="4">
+        <v>3531</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>4</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 60, 3531, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <f>A106+1</f>
+        <v>314</v>
+      </c>
+      <c r="B107" s="4">
+        <f>B104</f>
+        <v>60</v>
+      </c>
+      <c r="C107" s="4">
+        <v>3531</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 60, 3531, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f>A107+1</f>
+        <v>315</v>
+      </c>
+      <c r="B108" s="3">
+        <f>B100+1</f>
+        <v>61</v>
+      </c>
+      <c r="C108" s="3">
+        <v>41</v>
+      </c>
+      <c r="D108" s="5">
+        <v>2</v>
+      </c>
+      <c r="E108" s="5">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2</v>
+      </c>
+      <c r="G108" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 61, 41, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f t="shared" si="8"/>
+        <v>316</v>
+      </c>
+      <c r="B109" s="3">
+        <f>B108</f>
+        <v>61</v>
+      </c>
+      <c r="C109" s="3">
+        <v>41</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 61, 41, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <f t="shared" si="8"/>
+        <v>317</v>
+      </c>
+      <c r="B110" s="3">
+        <f>B108</f>
+        <v>61</v>
+      </c>
+      <c r="C110" s="3">
+        <v>46</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 61, 46, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f t="shared" si="8"/>
+        <v>318</v>
+      </c>
+      <c r="B111" s="3">
+        <f>B108</f>
+        <v>61</v>
+      </c>
+      <c r="C111" s="3">
+        <v>46</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 61, 46, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <f t="shared" si="8"/>
+        <v>319</v>
+      </c>
+      <c r="B112" s="4">
+        <f>B108+1</f>
+        <v>62</v>
+      </c>
+      <c r="C112" s="4">
+        <v>31</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 62, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <f t="shared" si="8"/>
+        <v>320</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B112</f>
+        <v>62</v>
+      </c>
+      <c r="C113" s="4">
+        <v>31</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 62, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <f t="shared" si="8"/>
+        <v>321</v>
+      </c>
+      <c r="B114" s="4">
+        <f>B112</f>
+        <v>62</v>
+      </c>
+      <c r="C114" s="4">
+        <v>598</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" s="4">
+        <v>2</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 62, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <f t="shared" si="8"/>
+        <v>322</v>
+      </c>
+      <c r="B115" s="4">
+        <f>B112</f>
+        <v>62</v>
+      </c>
+      <c r="C115" s="4">
+        <v>598</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 62, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f t="shared" si="8"/>
+        <v>323</v>
+      </c>
+      <c r="B116" s="3">
+        <f>B112+1</f>
+        <v>63</v>
+      </c>
+      <c r="C116" s="3">
+        <v>31</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2</v>
+      </c>
+      <c r="G116" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 63, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f t="shared" si="8"/>
+        <v>324</v>
+      </c>
+      <c r="B117" s="3">
+        <f>B116</f>
+        <v>63</v>
+      </c>
+      <c r="C117" s="3">
+        <v>31</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 63, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="B118" s="3">
+        <f>B116</f>
+        <v>63</v>
+      </c>
+      <c r="C118" s="3">
+        <v>46</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2</v>
+      </c>
+      <c r="G118" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 63, 46, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <f t="shared" si="8"/>
+        <v>326</v>
+      </c>
+      <c r="B119" s="3">
+        <f>B116</f>
+        <v>63</v>
+      </c>
+      <c r="C119" s="3">
+        <v>46</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 63, 46, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <f t="shared" si="8"/>
+        <v>327</v>
+      </c>
+      <c r="B120" s="3">
+        <f>B117</f>
+        <v>63</v>
+      </c>
+      <c r="C120" s="3">
+        <v>31</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 63, 31, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <f t="shared" si="8"/>
+        <v>328</v>
+      </c>
+      <c r="B121" s="3">
+        <f>B118</f>
+        <v>63</v>
+      </c>
+      <c r="C121" s="3">
+        <v>31</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>3</v>
+      </c>
+      <c r="G121" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 63, 31, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f t="shared" si="8"/>
+        <v>329</v>
+      </c>
+      <c r="B122" s="3">
+        <f>B119</f>
+        <v>63</v>
+      </c>
+      <c r="C122" s="3">
+        <v>46</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>4</v>
+      </c>
+      <c r="G122" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 63, 46, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+      <c r="B123" s="3">
+        <f>B120</f>
+        <v>63</v>
+      </c>
+      <c r="C123" s="3">
+        <v>46</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>3</v>
+      </c>
+      <c r="G123" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 63, 46, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <f t="shared" si="8"/>
+        <v>331</v>
+      </c>
+      <c r="B124" s="4">
+        <f>B116+1</f>
+        <v>64</v>
+      </c>
+      <c r="C124" s="4">
+        <v>31</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>2</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 64, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <f t="shared" si="8"/>
+        <v>332</v>
+      </c>
+      <c r="B125" s="4">
+        <f>B124</f>
+        <v>64</v>
+      </c>
+      <c r="C125" s="4">
+        <v>31</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 64, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <f t="shared" si="8"/>
+        <v>333</v>
+      </c>
+      <c r="B126" s="4">
+        <f>B124</f>
+        <v>64</v>
+      </c>
+      <c r="C126" s="4">
+        <v>46</v>
+      </c>
+      <c r="D126" s="6">
+        <v>3</v>
+      </c>
+      <c r="E126" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" s="4">
+        <v>2</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 64, 46, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <f t="shared" si="8"/>
+        <v>334</v>
+      </c>
+      <c r="B127" s="4">
+        <f>B124</f>
+        <v>64</v>
+      </c>
+      <c r="C127" s="4">
+        <v>46</v>
+      </c>
+      <c r="D127" s="6">
+        <v>2</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 64, 46, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="B128" s="3">
+        <f>B124+1</f>
+        <v>65</v>
+      </c>
+      <c r="C128" s="3">
+        <v>41</v>
+      </c>
+      <c r="D128" s="5">
+        <v>0</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 65, 41, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f t="shared" si="8"/>
+        <v>336</v>
+      </c>
+      <c r="B129" s="3">
+        <f>B128</f>
+        <v>65</v>
+      </c>
+      <c r="C129" s="3">
+        <v>41</v>
+      </c>
+      <c r="D129" s="5">
+        <v>0</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 65, 41, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f t="shared" si="8"/>
+        <v>337</v>
+      </c>
+      <c r="B130" s="3">
+        <f>B128</f>
+        <v>65</v>
+      </c>
+      <c r="C130" s="3">
+        <v>598</v>
+      </c>
+      <c r="D130" s="5">
+        <v>3</v>
+      </c>
+      <c r="E130" s="5">
+        <v>2</v>
+      </c>
+      <c r="F130" s="3">
+        <v>2</v>
+      </c>
+      <c r="G130" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 65, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f t="shared" si="8"/>
+        <v>338</v>
+      </c>
+      <c r="B131" s="3">
+        <f>B128</f>
+        <v>65</v>
+      </c>
+      <c r="C131" s="3">
+        <v>598</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 65, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1924'!A25+1</f>
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1928-05-27"</f>
+        <v>1928-05-27</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (67, '1928-05-27', 22, 31);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1928-05-27"</f>
+        <v>1928-05-27</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (68, '1928-05-27', 15, 31);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A20" si="1">A3+1</f>
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1928-05-28"</f>
+        <v>1928-05-28</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D20" si="2">D3</f>
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E20" si="3">E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (69, '1928-05-28', 15, 31);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1928-05-28"</f>
+        <v>1928-05-28</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (70, '1928-05-28', 15, 31);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1928-05-29"</f>
+        <v>1928-05-29</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (71, '1928-05-29', 15, 31);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1928-05-29"</f>
+        <v>1928-05-29</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (72, '1928-05-29', 15, 31);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1928-05-29"</f>
+        <v>1928-05-29</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (73, '1928-05-29', 15, 31);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1928-05-30"</f>
+        <v>1928-05-30</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (74, '1928-05-30', 15, 31);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1928-05-30"</f>
+        <v>1928-05-30</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (75, '1928-05-30', 15, 31);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1928-06-01"</f>
+        <v>1928-06-01</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (76, '1928-06-01', 3, 31);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1928-06-02"</f>
+        <v>1928-06-02</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G12" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (77, '1928-06-02', 3, 31);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1928-06-03"</f>
+        <v>1928-06-03</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A13 &amp; ", '" &amp; B13 &amp; "', " &amp; C13 &amp; ", " &amp; D13 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (78, '1928-06-03', 3, 31);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1928-06-04"</f>
+        <v>1928-06-04</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A14 &amp; ", '" &amp; B14 &amp; "', " &amp; C14 &amp; ", " &amp; D14 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (79, '1928-06-04', 3, 31);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1928-06-04"</f>
+        <v>1928-06-04</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A15 &amp; ", '" &amp; B15 &amp; "', " &amp; C15 &amp; ", " &amp; D15 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (80, '1928-06-04', 3, 31);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1928-06-06"</f>
+        <v>1928-06-06</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G16" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A16 &amp; ", '" &amp; B16 &amp; "', " &amp; C16 &amp; ", " &amp; D16 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (81, '1928-06-06', 4, 31);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1928-06-07"</f>
+        <v>1928-06-07</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A17 &amp; ", '" &amp; B17 &amp; "', " &amp; C17 &amp; ", " &amp; D17 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (82, '1928-06-07', 4, 31);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1928-06-09"</f>
+        <v>1928-06-09</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A18 &amp; ", '" &amp; B18 &amp; "', " &amp; C18 &amp; ", " &amp; D18 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (83, '1928-06-09', 13, 31);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1928-06-10"</f>
+        <v>1928-06-10</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A19 &amp; ", '" &amp; B19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (84, '1928-06-10', 14, 31);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1928-06-13"</f>
+        <v>1928-06-13</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="G20" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A20 &amp; ", '" &amp; B20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (85, '1928-06-13', 14, 31);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A22 &amp; ", " &amp; B22 &amp; ", " &amp; C22 &amp; ", " &amp; D22 &amp; ", " &amp; E22 &amp; ", " &amp; F22 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>'1924'!A131+ 1</f>
+        <v>339</v>
+      </c>
+      <c r="B23" s="3">
+        <f>A2</f>
+        <v>67</v>
+      </c>
+      <c r="C23" s="3">
+        <v>351</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G86" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A23 &amp; ", " &amp; B23 &amp; ", " &amp; C23 &amp; ", " &amp; D23 &amp; ", " &amp; E23 &amp; ", " &amp; F23 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 67, 351, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f>A23+1</f>
+        <v>340</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B23</f>
+        <v>67</v>
+      </c>
+      <c r="C24" s="3">
+        <v>351</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 67, 351, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" ref="A25:A88" si="5">A24+1</f>
+        <v>341</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B23</f>
+        <v>67</v>
+      </c>
+      <c r="C25" s="3">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 67, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B23</f>
+        <v>67</v>
+      </c>
+      <c r="C26" s="3">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 67, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B23+1</f>
+        <v>68</v>
+      </c>
+      <c r="C27" s="4">
+        <v>352</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 68, 352, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B27</f>
+        <v>68</v>
+      </c>
+      <c r="C28" s="4">
+        <v>352</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 68, 352, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B27</f>
+        <v>68</v>
+      </c>
+      <c r="C29" s="4">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 68, 32, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B27</f>
+        <v>68</v>
+      </c>
+      <c r="C30" s="4">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 68, 32, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B27+1</f>
+        <v>69</v>
+      </c>
+      <c r="C31" s="3">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 69, 41, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B31</f>
+        <v>69</v>
+      </c>
+      <c r="C32" s="3">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 69, 41, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B31</f>
+        <v>69</v>
+      </c>
+      <c r="C33" s="3">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 69, 49, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B31</f>
+        <v>69</v>
+      </c>
+      <c r="C34" s="3">
+        <v>49</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 69, 49, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B31+1</f>
+        <v>70</v>
+      </c>
+      <c r="C35" s="4">
+        <v>90</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 70, 90, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B35</f>
+        <v>70</v>
+      </c>
+      <c r="C36" s="4">
+        <v>90</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 70, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B35</f>
+        <v>70</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20</v>
+      </c>
+      <c r="D37" s="6">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 70, 20, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B35</f>
+        <v>70</v>
+      </c>
+      <c r="C38" s="4">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 70, 20, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B35+1</f>
+        <v>71</v>
+      </c>
+      <c r="C39" s="3">
+        <v>33</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 71, 33, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B39</f>
+        <v>71</v>
+      </c>
+      <c r="C40" s="3">
+        <v>33</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 71, 33, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B39</f>
+        <v>71</v>
+      </c>
+      <c r="C41" s="3">
+        <v>39</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 71, 39, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B39</f>
+        <v>71</v>
+      </c>
+      <c r="C42" s="3">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 71, 39, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B39+1</f>
+        <v>72</v>
+      </c>
+      <c r="C43" s="4">
+        <v>38</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 72, 38, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B43</f>
+        <v>72</v>
+      </c>
+      <c r="C44" s="4">
+        <v>38</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 72, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B43</f>
+        <v>72</v>
+      </c>
+      <c r="C45" s="4">
+        <v>351</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 72, 351, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B43</f>
+        <v>72</v>
+      </c>
+      <c r="C46" s="4">
+        <v>351</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 72, 351, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B43+1</f>
+        <v>73</v>
+      </c>
+      <c r="C47" s="3">
+        <v>54</v>
+      </c>
+      <c r="D47" s="5">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 73, 54, 11, 2, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B47</f>
+        <v>73</v>
+      </c>
+      <c r="C48" s="3">
+        <v>54</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 73, 54, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B47</f>
+        <v>73</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 73, 1, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B47</f>
+        <v>73</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 73, 1, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B47+1</f>
+        <v>74</v>
+      </c>
+      <c r="C51" s="4">
+        <v>34</v>
+      </c>
+      <c r="D51" s="6">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 74, 34, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B51</f>
+        <v>74</v>
+      </c>
+      <c r="C52" s="4">
+        <v>34</v>
+      </c>
+      <c r="D52" s="6">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 74, 34, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B51</f>
+        <v>74</v>
+      </c>
+      <c r="C53" s="4">
+        <v>52</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 74, 52, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B51</f>
+        <v>74</v>
+      </c>
+      <c r="C54" s="4">
+        <v>52</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 74, 52, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="5"/>
+        <v>371</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B51+1</f>
+        <v>75</v>
+      </c>
+      <c r="C55" s="3">
+        <v>31</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 75, 31, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B55</f>
+        <v>75</v>
+      </c>
+      <c r="C56" s="3">
+        <v>31</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 75, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B55</f>
+        <v>75</v>
+      </c>
+      <c r="C57" s="3">
+        <v>598</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 75, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B55</f>
+        <v>75</v>
+      </c>
+      <c r="C58" s="3">
+        <v>598</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 75, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B55+1</f>
+        <v>76</v>
+      </c>
+      <c r="C59" s="4">
+        <v>39</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 76, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B59</f>
+        <v>76</v>
+      </c>
+      <c r="C60" s="4">
+        <v>39</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 76, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B59</f>
+        <v>76</v>
+      </c>
+      <c r="C61" s="4">
+        <v>34</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 76, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="5"/>
+        <v>378</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B59</f>
+        <v>76</v>
+      </c>
+      <c r="C62" s="4">
+        <v>34</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 76, 34, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B60</f>
+        <v>76</v>
+      </c>
+      <c r="C63" s="4">
+        <v>39</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 76, 39, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B61</f>
+        <v>76</v>
+      </c>
+      <c r="C64" s="4">
+        <v>39</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 76, 39, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B62</f>
+        <v>76</v>
+      </c>
+      <c r="C65" s="4">
+        <v>34</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 76, 34, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B63</f>
+        <v>76</v>
+      </c>
+      <c r="C66" s="4">
+        <v>34</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>3</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 76, 34, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B59+1</f>
+        <v>77</v>
+      </c>
+      <c r="C67" s="3">
+        <v>54</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 77, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B67</f>
+        <v>77</v>
+      </c>
+      <c r="C68" s="3">
+        <v>54</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 77, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B67</f>
+        <v>77</v>
+      </c>
+      <c r="C69" s="3">
+        <v>32</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 77, 32, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="5"/>
+        <v>386</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B67</f>
+        <v>77</v>
+      </c>
+      <c r="C70" s="3">
+        <v>32</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 77, 32, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B67+1</f>
+        <v>78</v>
+      </c>
+      <c r="C71" s="4">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 78, 49, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="5"/>
+        <v>388</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B71</f>
+        <v>78</v>
+      </c>
+      <c r="C72" s="4">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 78, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="5"/>
+        <v>389</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B71</f>
+        <v>78</v>
+      </c>
+      <c r="C73" s="4">
+        <v>598</v>
+      </c>
+      <c r="D73" s="6">
+        <v>4</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 78, 598, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f>A73+1</f>
+        <v>390</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B71</f>
+        <v>78</v>
+      </c>
+      <c r="C74" s="4">
+        <v>598</v>
+      </c>
+      <c r="D74" s="6">
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 78, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="5"/>
+        <v>391</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B71+1</f>
+        <v>79</v>
+      </c>
+      <c r="C75" s="3">
+        <v>351</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 79, 351, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="5"/>
+        <v>392</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B75</f>
+        <v>79</v>
+      </c>
+      <c r="C76" s="3">
+        <v>351</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 79, 351, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="5"/>
+        <v>393</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B75</f>
+        <v>79</v>
+      </c>
+      <c r="C77" s="3">
+        <v>20</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 79, 20, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="5"/>
+        <v>394</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B75</f>
+        <v>79</v>
+      </c>
+      <c r="C78" s="3">
+        <v>20</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 79, 20, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="5"/>
+        <v>395</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B75+1</f>
+        <v>80</v>
+      </c>
+      <c r="C79" s="4">
+        <v>39</v>
+      </c>
+      <c r="D79" s="6">
+        <v>7</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 80, 39, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B79</f>
+        <v>80</v>
+      </c>
+      <c r="C80" s="4">
+        <v>39</v>
+      </c>
+      <c r="D80" s="6">
+        <v>4</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 80, 39, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="5"/>
+        <v>397</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B79</f>
+        <v>80</v>
+      </c>
+      <c r="C81" s="4">
+        <v>34</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 80, 34, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="5"/>
+        <v>398</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B79</f>
+        <v>80</v>
+      </c>
+      <c r="C82" s="4">
+        <v>34</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 80, 34, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="5"/>
+        <v>399</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B79+1</f>
+        <v>81</v>
+      </c>
+      <c r="C83" s="3">
+        <v>54</v>
+      </c>
+      <c r="D83" s="5">
+        <v>6</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 81, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B83</f>
+        <v>81</v>
+      </c>
+      <c r="C84" s="3">
+        <v>54</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 81, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="5"/>
+        <v>401</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B83</f>
+        <v>81</v>
+      </c>
+      <c r="C85" s="3">
+        <v>20</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 81, 20, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="5"/>
+        <v>402</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B83</f>
+        <v>81</v>
+      </c>
+      <c r="C86" s="3">
+        <v>20</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 81, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="5"/>
+        <v>403</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B83+1</f>
+        <v>82</v>
+      </c>
+      <c r="C87" s="4">
+        <v>39</v>
+      </c>
+      <c r="D87" s="6">
+        <v>2</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" ref="G87:G106" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A87 &amp; ", " &amp; B87 &amp; ", " &amp; C87 &amp; ", " &amp; D87 &amp; ", " &amp; E87 &amp; ", " &amp; F87 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 82, 39, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="5"/>
+        <v>404</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B87</f>
+        <v>82</v>
+      </c>
+      <c r="C88" s="4">
+        <v>39</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 82, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" ref="A89:A106" si="7">A88+1</f>
+        <v>405</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B87</f>
+        <v>82</v>
+      </c>
+      <c r="C89" s="4">
+        <v>598</v>
+      </c>
+      <c r="D89" s="6">
+        <v>3</v>
+      </c>
+      <c r="E89" s="6">
+        <v>2</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 82, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="7"/>
+        <v>406</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B87</f>
+        <v>82</v>
+      </c>
+      <c r="C90" s="4">
+        <v>598</v>
+      </c>
+      <c r="D90" s="6">
+        <v>3</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 82, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="7"/>
+        <v>407</v>
+      </c>
+      <c r="B91" s="3">
+        <f>B87+1</f>
+        <v>83</v>
+      </c>
+      <c r="C91" s="3">
+        <v>39</v>
+      </c>
+      <c r="D91" s="5">
+        <v>11</v>
+      </c>
+      <c r="E91" s="5">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 83, 39, 11, 2, 2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="7"/>
+        <v>408</v>
+      </c>
+      <c r="B92" s="3">
+        <f>B91</f>
+        <v>83</v>
+      </c>
+      <c r="C92" s="3">
+        <v>39</v>
+      </c>
+      <c r="D92" s="5">
+        <v>6</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 83, 39, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="7"/>
+        <v>409</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B91</f>
+        <v>83</v>
+      </c>
+      <c r="C93" s="3">
+        <v>20</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 83, 20, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="B94" s="3">
+        <f>B91</f>
+        <v>83</v>
+      </c>
+      <c r="C94" s="3">
+        <v>20</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 83, 20, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="7"/>
+        <v>411</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B91+1</f>
+        <v>84</v>
+      </c>
+      <c r="C95" s="4">
+        <v>598</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 84, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="7"/>
+        <v>412</v>
+      </c>
+      <c r="B96" s="4">
+        <f>B95</f>
+        <v>84</v>
+      </c>
+      <c r="C96" s="4">
+        <v>598</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 84, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="7"/>
+        <v>413</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B95</f>
+        <v>84</v>
+      </c>
+      <c r="C97" s="4">
+        <v>54</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 84, 54, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f>A97+1</f>
+        <v>414</v>
+      </c>
+      <c r="B98" s="4">
+        <f>B95</f>
+        <v>84</v>
+      </c>
+      <c r="C98" s="4">
+        <v>54</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 84, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f>A98+1</f>
+        <v>415</v>
+      </c>
+      <c r="B99" s="4">
+        <f>B96</f>
+        <v>84</v>
+      </c>
+      <c r="C99" s="4">
+        <v>598</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="4">
+        <v>4</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 84, 598, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f>A99+1</f>
+        <v>416</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B97</f>
+        <v>84</v>
+      </c>
+      <c r="C100" s="4">
+        <v>598</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 84, 598, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f>A100+1</f>
+        <v>417</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B98</f>
+        <v>84</v>
+      </c>
+      <c r="C101" s="4">
+        <v>54</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4">
+        <v>4</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 84, 54, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f>A101+1</f>
+        <v>418</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B99</f>
+        <v>84</v>
+      </c>
+      <c r="C102" s="4">
+        <v>54</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>3</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 84, 54, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f>A102+1</f>
+        <v>419</v>
+      </c>
+      <c r="B103" s="3">
+        <f>B95+1</f>
+        <v>85</v>
+      </c>
+      <c r="C103" s="3">
+        <v>598</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5">
+        <v>2</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 85, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="B104" s="3">
+        <f>B103</f>
+        <v>85</v>
+      </c>
+      <c r="C104" s="3">
+        <v>598</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 85, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f t="shared" si="7"/>
+        <v>421</v>
+      </c>
+      <c r="B105" s="3">
+        <f>B103</f>
+        <v>85</v>
+      </c>
+      <c r="C105" s="3">
+        <v>54</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2</v>
+      </c>
+      <c r="G105" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 85, 54, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f t="shared" si="7"/>
+        <v>422</v>
+      </c>
+      <c r="B106" s="3">
+        <f>B103</f>
+        <v>85</v>
+      </c>
+      <c r="C106" s="3">
+        <v>54</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 85, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A108 &amp; ", '" &amp; B108 &amp; "', " &amp; C108 &amp; ", " &amp; D108 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>A20+1</f>
+        <v>86</v>
+      </c>
+      <c r="B109" s="2" t="str">
+        <f>"1928-06-05"</f>
+        <v>1928-06-05</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <f>D20</f>
+        <v>31</v>
+      </c>
+      <c r="E109">
+        <f>E20+1</f>
+        <v>20</v>
+      </c>
+      <c r="G109" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A109 &amp; ", '" &amp; B109 &amp; "', " &amp; C109 &amp; ", " &amp; D109 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (86, '1928-06-05', 17, 31);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>A109+1</f>
+        <v>87</v>
+      </c>
+      <c r="B110" s="2" t="str">
+        <f>"1928-06-05"</f>
+        <v>1928-06-05</v>
+      </c>
+      <c r="C110">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <f>D109</f>
+        <v>31</v>
+      </c>
+      <c r="E110">
+        <f>E109+1</f>
+        <v>21</v>
+      </c>
+      <c r="G110" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A110 &amp; ", '" &amp; B110 &amp; "', " &amp; C110 &amp; ", " &amp; D110 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (87, '1928-06-05', 17, 31);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>A110+1</f>
+        <v>88</v>
+      </c>
+      <c r="B111" s="2" t="str">
+        <f>"1928-06-08"</f>
+        <v>1928-06-08</v>
+      </c>
+      <c r="C111">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <f>D110</f>
+        <v>31</v>
+      </c>
+      <c r="E111">
+        <f>E110+1</f>
+        <v>22</v>
+      </c>
+      <c r="G111" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A111 &amp; ", '" &amp; B111 &amp; "', " &amp; C111 &amp; ", " &amp; D111 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (88, '1928-06-08', 18, 31);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A113 &amp; ", " &amp; B113 &amp; ", " &amp; C113 &amp; ", " &amp; D113 &amp; ", " &amp; E113 &amp; ", " &amp; F113 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f>A106+1</f>
+        <v>423</v>
+      </c>
+      <c r="B114" s="3">
+        <f>B106+1</f>
+        <v>86</v>
+      </c>
+      <c r="C114" s="3">
+        <v>31</v>
+      </c>
+      <c r="D114" s="5">
+        <v>3</v>
+      </c>
+      <c r="E114" s="5">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A114 &amp; ", " &amp; B114 &amp; ", " &amp; C114 &amp; ", " &amp; D114 &amp; ", " &amp; E114 &amp; ", " &amp; F114 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 86, 31, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f>A114+1</f>
+        <v>424</v>
+      </c>
+      <c r="B115" s="3">
+        <f>B114</f>
+        <v>86</v>
+      </c>
+      <c r="C115" s="3">
+        <v>31</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A115 &amp; ", " &amp; B115 &amp; ", " &amp; C115 &amp; ", " &amp; D115 &amp; ", " &amp; E115 &amp; ", " &amp; F115 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 86, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f>A115+1</f>
+        <v>425</v>
+      </c>
+      <c r="B116" s="3">
+        <f>B114</f>
+        <v>86</v>
+      </c>
+      <c r="C116" s="3">
+        <v>32</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2</v>
+      </c>
+      <c r="G116" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A116 &amp; ", " &amp; B116 &amp; ", " &amp; C116 &amp; ", " &amp; D116 &amp; ", " &amp; E116 &amp; ", " &amp; F116 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 86, 32, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f>A116+1</f>
+        <v>426</v>
+      </c>
+      <c r="B117" s="3">
+        <f>B114</f>
+        <v>86</v>
+      </c>
+      <c r="C117" s="3">
+        <v>32</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A117 &amp; ", " &amp; B117 &amp; ", " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 86, 32, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <f>A117+1</f>
+        <v>427</v>
+      </c>
+      <c r="B118" s="4">
+        <f>B114+1</f>
+        <v>87</v>
+      </c>
+      <c r="C118" s="4">
+        <v>56</v>
+      </c>
+      <c r="D118" s="6">
+        <v>3</v>
+      </c>
+      <c r="E118" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118" s="4">
+        <v>2</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A118 &amp; ", " &amp; B118 &amp; ", " &amp; C118 &amp; ", " &amp; D118 &amp; ", " &amp; E118 &amp; ", " &amp; F118 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 87, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <f>A118+1</f>
+        <v>428</v>
+      </c>
+      <c r="B119" s="4">
+        <f>B118</f>
+        <v>87</v>
+      </c>
+      <c r="C119" s="4">
+        <v>56</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A119 &amp; ", " &amp; B119 &amp; ", " &amp; C119 &amp; ", " &amp; D119 &amp; ", " &amp; E119 &amp; ", " &amp; F119 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 87, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <f>A119+1</f>
+        <v>429</v>
+      </c>
+      <c r="B120" s="4">
+        <f>B118</f>
+        <v>87</v>
+      </c>
+      <c r="C120" s="4">
+        <v>52</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>2</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A120 &amp; ", " &amp; B120 &amp; ", " &amp; C120 &amp; ", " &amp; D120 &amp; ", " &amp; E120 &amp; ", " &amp; F120 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 87, 52, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f>A120+1</f>
+        <v>430</v>
+      </c>
+      <c r="B121" s="4">
+        <f>B118</f>
+        <v>87</v>
+      </c>
+      <c r="C121" s="4">
+        <v>52</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A121 &amp; ", " &amp; B121 &amp; ", " &amp; C121 &amp; ", " &amp; D121 &amp; ", " &amp; E121 &amp; ", " &amp; F121 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 87, 52, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f>A121+1</f>
+        <v>431</v>
+      </c>
+      <c r="B122" s="3">
+        <f>B118+1</f>
+        <v>88</v>
+      </c>
+      <c r="C122" s="3">
+        <v>31</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2</v>
+      </c>
+      <c r="G122" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A122 &amp; ", " &amp; B122 &amp; ", " &amp; C122 &amp; ", " &amp; D122 &amp; ", " &amp; E122 &amp; ", " &amp; F122 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 88, 31, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f>A122+1</f>
+        <v>432</v>
+      </c>
+      <c r="B123" s="3">
+        <f>B122</f>
+        <v>88</v>
+      </c>
+      <c r="C123" s="3">
+        <v>31</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A123 &amp; ", " &amp; B123 &amp; ", " &amp; C123 &amp; ", " &amp; D123 &amp; ", " &amp; E123 &amp; ", " &amp; F123 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 88, 31, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <f>A123+1</f>
+        <v>433</v>
+      </c>
+      <c r="B124" s="3">
+        <f>B122</f>
+        <v>88</v>
+      </c>
+      <c r="C124" s="3">
+        <v>56</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>2</v>
+      </c>
+      <c r="G124" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A124 &amp; ", " &amp; B124 &amp; ", " &amp; C124 &amp; ", " &amp; D124 &amp; ", " &amp; E124 &amp; ", " &amp; F124 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 88, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f>A124+1</f>
+        <v>434</v>
+      </c>
+      <c r="B125" s="3">
+        <f>B122</f>
+        <v>88</v>
+      </c>
+      <c r="C125" s="3">
+        <v>56</v>
+      </c>
+      <c r="D125" s="5">
+        <v>0</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A125 &amp; ", " &amp; B125 &amp; ", " &amp; C125 &amp; ", " &amp; D125 &amp; ", " &amp; E125 &amp; ", " &amp; F125 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 88, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f>A125+1</f>
+        <v>435</v>
+      </c>
+      <c r="B126" s="3">
+        <f>B123</f>
+        <v>88</v>
+      </c>
+      <c r="C126" s="3">
+        <v>31</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2</v>
+      </c>
+      <c r="E126" s="5">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A126 &amp; ", " &amp; B126 &amp; ", " &amp; C126 &amp; ", " &amp; D126 &amp; ", " &amp; E126 &amp; ", " &amp; F126 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 88, 31, 2, 1, 4);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f>A126+1</f>
+        <v>436</v>
+      </c>
+      <c r="B127" s="3">
+        <f>B124</f>
+        <v>88</v>
+      </c>
+      <c r="C127" s="3">
+        <v>31</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>3</v>
+      </c>
+      <c r="G127" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A127 &amp; ", " &amp; B127 &amp; ", " &amp; C127 &amp; ", " &amp; D127 &amp; ", " &amp; E127 &amp; ", " &amp; F127 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 88, 31, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f>A127+1</f>
+        <v>437</v>
+      </c>
+      <c r="B128" s="3">
+        <f>B125</f>
+        <v>88</v>
+      </c>
+      <c r="C128" s="3">
+        <v>56</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>4</v>
+      </c>
+      <c r="G128" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A128 &amp; ", " &amp; B128 &amp; ", " &amp; C128 &amp; ", " &amp; D128 &amp; ", " &amp; E128 &amp; ", " &amp; F128 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 88, 56, 2, 1, 4);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f>A128+1</f>
+        <v>438</v>
+      </c>
+      <c r="B129" s="3">
+        <f>B126</f>
+        <v>88</v>
+      </c>
+      <c r="C129" s="3">
+        <v>56</v>
+      </c>
+      <c r="D129" s="5">
+        <v>2</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>3</v>
+      </c>
+      <c r="G129" s="3" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A129 &amp; ", " &amp; B129 &amp; ", " &amp; C129 &amp; ", " &amp; D129 &amp; ", " &amp; E129 &amp; ", " &amp; F129 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 88, 56, 2, 0, 3);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/olympics/olympics.xlsx
+++ b/Scripts/olympics/olympics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1900" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="1920" sheetId="66" r:id="rId6"/>
     <sheet name="1924" sheetId="67" r:id="rId7"/>
     <sheet name="1928" sheetId="68" r:id="rId8"/>
+    <sheet name="1936" sheetId="69" r:id="rId9"/>
+    <sheet name="1948" sheetId="70" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -735,6 +737,2601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1936'!A17+1</f>
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1948-07-26"</f>
+        <v>1948-07-26</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G19" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (105, '1948-07-26', 22, 44);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1948-07-26"</f>
+        <v>1948-07-26</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (106, '1948-07-26', 22, 44);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1948-07-31"</f>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f>E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (107, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" ref="B5:B7" si="1">"1948-07-31"</f>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f>D4</f>
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <f>E4+1</f>
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (108, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f>D3</f>
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <f>E5+1</f>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (109, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ref="A7:A19" si="2">A6+1</f>
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D19" si="3">D6</f>
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E19" si="4">E6+1</f>
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (110, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (111, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (112, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (113, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (114, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (115, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (116, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (117, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (118, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1948-08-10"</f>
+        <v>1948-08-10</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (119, '1948-08-10', 4, 44);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1948-08-11"</f>
+        <v>1948-08-11</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (120, '1948-08-11', 4, 44);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1948-08-13"</f>
+        <v>1948-08-13</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (121, '1948-08-13', 13, 44);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1948-08-13"</f>
+        <v>1948-08-13</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (122, '1948-08-13', 14, 44);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A21 &amp; ", " &amp; B21 &amp; ", " &amp; C21 &amp; ", " &amp; D21 &amp; ", " &amp; E21 &amp; ", " &amp; F21 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f>'1936'!A95+ 1</f>
+        <v>515</v>
+      </c>
+      <c r="B22" s="3">
+        <f>A2</f>
+        <v>105</v>
+      </c>
+      <c r="C22" s="3">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G89" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A22 &amp; ", " &amp; B22 &amp; ", " &amp; C22 &amp; ", " &amp; D22 &amp; ", " &amp; E22 &amp; ", " &amp; F22 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 105, 31, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>A22+1</f>
+        <v>516</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B22</f>
+        <v>105</v>
+      </c>
+      <c r="C23" s="3">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 105, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" ref="A24:A87" si="6">A23+1</f>
+        <v>517</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B22</f>
+        <v>105</v>
+      </c>
+      <c r="C24" s="3">
+        <v>353</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 105, 353, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="6"/>
+        <v>518</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B22</f>
+        <v>105</v>
+      </c>
+      <c r="C25" s="3">
+        <v>353</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 105, 353, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B22+1</f>
+        <v>106</v>
+      </c>
+      <c r="C26" s="4">
+        <v>352</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 106, 352, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B26</f>
+        <v>106</v>
+      </c>
+      <c r="C27" s="4">
+        <v>352</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 106, 352, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="6"/>
+        <v>521</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B26</f>
+        <v>106</v>
+      </c>
+      <c r="C28" s="4">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 106, 93, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="6"/>
+        <v>522</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B26</f>
+        <v>106</v>
+      </c>
+      <c r="C29" s="4">
+        <v>93</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 106, 93, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B26+1</f>
+        <v>107</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 107, 45, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="6"/>
+        <v>524</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B30</f>
+        <v>107</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 107, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B30</f>
+        <v>107</v>
+      </c>
+      <c r="C32" s="3">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 107, 20, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="6"/>
+        <v>526</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B30</f>
+        <v>107</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 107, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="6"/>
+        <v>527</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B30+1</f>
+        <v>108</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (527, 108, 45, 3, 2, 4);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>528</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B34</f>
+        <v>108</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (528, 108, 45, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>529</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B34</f>
+        <v>108</v>
+      </c>
+      <c r="C36" s="3">
+        <v>20</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (529, 108, 20, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B34</f>
+        <v>108</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (530, 108, 20, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="6"/>
+        <v>531</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B30+1</f>
+        <v>108</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 108, 44, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>532</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B38</f>
+        <v>108</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 108, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>533</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B38</f>
+        <v>108</v>
+      </c>
+      <c r="C40" s="4">
+        <v>31</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 108, 31, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>534</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B38</f>
+        <v>108</v>
+      </c>
+      <c r="C41" s="4">
+        <v>31</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 108, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="6"/>
+        <v>535</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B39</f>
+        <v>108</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (535, 108, 44, 4, 2, 4);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="6"/>
+        <v>536</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B40</f>
+        <v>108</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (536, 108, 44, 3, 0, 3);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="6"/>
+        <v>537</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B41</f>
+        <v>108</v>
+      </c>
+      <c r="C44" s="4">
+        <v>31</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (537, 108, 31, 3, 0, 4);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="6"/>
+        <v>538</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B42</f>
+        <v>108</v>
+      </c>
+      <c r="C45" s="4">
+        <v>31</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (538, 108, 31, 3, 0, 3);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>539</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B38+1</f>
+        <v>109</v>
+      </c>
+      <c r="C46" s="3">
+        <v>33</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 109, 33, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B46</f>
+        <v>109</v>
+      </c>
+      <c r="C47" s="3">
+        <v>33</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 109, 33, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="6"/>
+        <v>541</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B46</f>
+        <v>109</v>
+      </c>
+      <c r="C48" s="3">
+        <v>91</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 109, 91, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="6"/>
+        <v>542</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B46</f>
+        <v>109</v>
+      </c>
+      <c r="C49" s="3">
+        <v>91</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 109, 91, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>543</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B46+1</f>
+        <v>110</v>
+      </c>
+      <c r="C50" s="4">
+        <v>38</v>
+      </c>
+      <c r="D50" s="6">
+        <v>8</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (543, 110, 38, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="6"/>
+        <v>544</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B50</f>
+        <v>110</v>
+      </c>
+      <c r="C51" s="4">
+        <v>39</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (544, 110, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="6"/>
+        <v>545</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B50</f>
+        <v>110</v>
+      </c>
+      <c r="C52" s="4">
+        <v>352</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (545, 110, 352, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B50</f>
+        <v>110</v>
+      </c>
+      <c r="C53" s="4">
+        <v>352</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (546, 110, 352, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>547</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B50+1</f>
+        <v>111</v>
+      </c>
+      <c r="C54" s="3">
+        <v>90</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 111, 90, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="6"/>
+        <v>548</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B54</f>
+        <v>111</v>
+      </c>
+      <c r="C55" s="3">
+        <v>90</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 111, 90, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="6"/>
+        <v>549</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B54</f>
+        <v>111</v>
+      </c>
+      <c r="C56" s="3">
+        <v>86</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 111, 86, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B54</f>
+        <v>111</v>
+      </c>
+      <c r="C57" s="3">
+        <v>86</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 111, 86, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>551</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B54+1</f>
+        <v>112</v>
+      </c>
+      <c r="C58" s="6">
+        <v>46</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (551, 112, 46, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="6"/>
+        <v>552</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B58</f>
+        <v>112</v>
+      </c>
+      <c r="C59" s="6">
+        <v>46</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (552, 112, 46, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="6"/>
+        <v>553</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B58</f>
+        <v>112</v>
+      </c>
+      <c r="C60" s="6">
+        <v>43</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (553, 112, 43, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="6"/>
+        <v>554</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B58</f>
+        <v>112</v>
+      </c>
+      <c r="C61" s="6">
+        <v>43</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (554, 112, 43, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B58+1</f>
+        <v>113</v>
+      </c>
+      <c r="C62" s="3">
+        <v>52</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 113, 52, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="6"/>
+        <v>556</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B62</f>
+        <v>113</v>
+      </c>
+      <c r="C63" s="3">
+        <v>52</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 113, 52, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="6"/>
+        <v>557</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B62</f>
+        <v>113</v>
+      </c>
+      <c r="C64" s="3">
+        <v>82</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 113, 82, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="6"/>
+        <v>558</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B62</f>
+        <v>113</v>
+      </c>
+      <c r="C65" s="3">
+        <v>82</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 113, 82, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>559</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B62+1</f>
+        <v>114</v>
+      </c>
+      <c r="C66" s="4">
+        <v>39</v>
+      </c>
+      <c r="D66" s="6">
+        <v>9</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (559, 114, 39, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B66</f>
+        <v>114</v>
+      </c>
+      <c r="C67" s="4">
+        <v>39</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (560, 114, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="6"/>
+        <v>561</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B66</f>
+        <v>114</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (561, 114, 1, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="6"/>
+        <v>562</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B66</f>
+        <v>114</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (562, 114, 1, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="6"/>
+        <v>563</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B66+1</f>
+        <v>115</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 115, 44, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="6"/>
+        <v>564</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B70</f>
+        <v>115</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 115, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="6"/>
+        <v>565</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B70</f>
+        <v>115</v>
+      </c>
+      <c r="C72" s="3">
+        <v>33</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 115, 33, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="6"/>
+        <v>566</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B70</f>
+        <v>115</v>
+      </c>
+      <c r="C73" s="3">
+        <v>33</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 115, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B70+1</f>
+        <v>116</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45</v>
+      </c>
+      <c r="D74" s="6">
+        <v>5</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (567, 116, 45, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="6"/>
+        <v>568</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B74</f>
+        <v>116</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (568, 116, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="6"/>
+        <v>569</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B74</f>
+        <v>116</v>
+      </c>
+      <c r="C76" s="4">
+        <v>39</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (569, 116, 39, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f>A76+1</f>
+        <v>570</v>
+      </c>
+      <c r="B77" s="4">
+        <f>B74</f>
+        <v>116</v>
+      </c>
+      <c r="C77" s="4">
+        <v>39</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (570, 116, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="6"/>
+        <v>571</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B74+1</f>
+        <v>117</v>
+      </c>
+      <c r="C78" s="3">
+        <v>46</v>
+      </c>
+      <c r="D78" s="5">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 117, 46, 12, 2, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="6"/>
+        <v>572</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B78</f>
+        <v>117</v>
+      </c>
+      <c r="C79" s="3">
+        <v>46</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 117, 46, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="6"/>
+        <v>573</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B78</f>
+        <v>117</v>
+      </c>
+      <c r="C80" s="3">
+        <v>82</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 117, 82, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="6"/>
+        <v>574</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B78</f>
+        <v>117</v>
+      </c>
+      <c r="C81" s="3">
+        <v>82</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 117, 82, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B78+1</f>
+        <v>118</v>
+      </c>
+      <c r="C82" s="4">
+        <v>90</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (575, 118, 90, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="6"/>
+        <v>576</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B82</f>
+        <v>118</v>
+      </c>
+      <c r="C83" s="4">
+        <v>90</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (576, 118, 90, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>577</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B82</f>
+        <v>118</v>
+      </c>
+      <c r="C84" s="4">
+        <v>38</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (577, 118, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="6"/>
+        <v>578</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B82</f>
+        <v>118</v>
+      </c>
+      <c r="C85" s="4">
+        <v>38</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (578, 118, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="6"/>
+        <v>579</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B82+1</f>
+        <v>119</v>
+      </c>
+      <c r="C86" s="3">
+        <v>45</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 119, 45, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="6"/>
+        <v>580</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B86</f>
+        <v>119</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 119, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" ref="A88:A101" si="7">A87+1</f>
+        <v>581</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B86</f>
+        <v>119</v>
+      </c>
+      <c r="C88" s="3">
+        <v>46</v>
+      </c>
+      <c r="D88" s="5">
+        <v>4</v>
+      </c>
+      <c r="E88" s="5">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 119, 46, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="7"/>
+        <v>582</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B86</f>
+        <v>119</v>
+      </c>
+      <c r="C89" s="3">
+        <v>46</v>
+      </c>
+      <c r="D89" s="5">
+        <v>4</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 119, 46, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="7"/>
+        <v>583</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B86+1</f>
+        <v>120</v>
+      </c>
+      <c r="C90" s="4">
+        <v>44</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" ref="G90:G97" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A90 &amp; ", " &amp; B90 &amp; ", " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (583, 120, 44, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="7"/>
+        <v>584</v>
+      </c>
+      <c r="B91" s="4">
+        <f>B90</f>
+        <v>120</v>
+      </c>
+      <c r="C91" s="4">
+        <v>44</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (584, 120, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="7"/>
+        <v>585</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B90</f>
+        <v>120</v>
+      </c>
+      <c r="C92" s="4">
+        <v>38</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (585, 120, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="7"/>
+        <v>586</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B90</f>
+        <v>120</v>
+      </c>
+      <c r="C93" s="4">
+        <v>38</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (586, 120, 38, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="7"/>
+        <v>587</v>
+      </c>
+      <c r="B94" s="3">
+        <f>B90+1</f>
+        <v>121</v>
+      </c>
+      <c r="C94" s="3">
+        <v>45</v>
+      </c>
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+      <c r="E94" s="5">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 121, 45, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="7"/>
+        <v>588</v>
+      </c>
+      <c r="B95" s="3">
+        <f>B94</f>
+        <v>121</v>
+      </c>
+      <c r="C95" s="3">
+        <v>45</v>
+      </c>
+      <c r="D95" s="5">
+        <v>3</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 121, 45, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="7"/>
+        <v>589</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B94</f>
+        <v>121</v>
+      </c>
+      <c r="C96" s="3">
+        <v>44</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 121, 44, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="7"/>
+        <v>590</v>
+      </c>
+      <c r="B97" s="3">
+        <f>B94</f>
+        <v>121</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 121, 44, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f t="shared" si="7"/>
+        <v>591</v>
+      </c>
+      <c r="B98" s="4">
+        <f>B94+1</f>
+        <v>122</v>
+      </c>
+      <c r="C98" s="4">
+        <v>38</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" ref="G98:G101" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A98 &amp; ", " &amp; B98 &amp; ", " &amp; C98 &amp; ", " &amp; D98 &amp; ", " &amp; E98 &amp; ", " &amp; F98 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (591, 122, 38, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f t="shared" si="7"/>
+        <v>592</v>
+      </c>
+      <c r="B99" s="4">
+        <f>B98</f>
+        <v>122</v>
+      </c>
+      <c r="C99" s="4">
+        <v>38</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (592, 122, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="7"/>
+        <v>593</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B98</f>
+        <v>122</v>
+      </c>
+      <c r="C100" s="4">
+        <v>46</v>
+      </c>
+      <c r="D100" s="6">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (593, 122, 46, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f t="shared" si="7"/>
+        <v>594</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B98</f>
+        <v>122</v>
+      </c>
+      <c r="C101" s="4">
+        <v>46</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (594, 122, 46, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
@@ -10829,7 +13426,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <f>A102+1</f>
+        <f t="shared" ref="A103:A108" si="9">A102+1</f>
         <v>310</v>
       </c>
       <c r="B103" s="4">
@@ -10855,7 +13452,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <f>A103+1</f>
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
       <c r="B104" s="4">
@@ -10881,7 +13478,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <f>A104+1</f>
+        <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="B105" s="4">
@@ -10907,7 +13504,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <f>A105+1</f>
+        <f t="shared" si="9"/>
         <v>313</v>
       </c>
       <c r="B106" s="4">
@@ -10933,7 +13530,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <f>A106+1</f>
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="B107" s="4">
@@ -10959,7 +13556,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <f>A107+1</f>
+        <f t="shared" si="9"/>
         <v>315</v>
       </c>
       <c r="B108" s="3">
@@ -11590,7 +14187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11843,7 +14440,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <f t="shared" ref="G10:G20" si="4">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (75, '1928-05-30', 15, 31);</v>
       </c>
     </row>
@@ -11868,7 +14465,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (76, '1928-06-01', 3, 31);</v>
       </c>
     </row>
@@ -11893,7 +14490,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (77, '1928-06-02', 3, 31);</v>
       </c>
     </row>
@@ -11918,7 +14515,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A13 &amp; ", '" &amp; B13 &amp; "', " &amp; C13 &amp; ", " &amp; D13 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (78, '1928-06-03', 3, 31);</v>
       </c>
     </row>
@@ -11943,7 +14540,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A14 &amp; ", '" &amp; B14 &amp; "', " &amp; C14 &amp; ", " &amp; D14 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (79, '1928-06-04', 3, 31);</v>
       </c>
     </row>
@@ -11968,7 +14565,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A15 &amp; ", '" &amp; B15 &amp; "', " &amp; C15 &amp; ", " &amp; D15 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (80, '1928-06-04', 3, 31);</v>
       </c>
     </row>
@@ -11993,7 +14590,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A16 &amp; ", '" &amp; B16 &amp; "', " &amp; C16 &amp; ", " &amp; D16 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (81, '1928-06-06', 4, 31);</v>
       </c>
     </row>
@@ -12018,7 +14615,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A17 &amp; ", '" &amp; B17 &amp; "', " &amp; C17 &amp; ", " &amp; D17 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (82, '1928-06-07', 4, 31);</v>
       </c>
     </row>
@@ -12043,7 +14640,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A18 &amp; ", '" &amp; B18 &amp; "', " &amp; C18 &amp; ", " &amp; D18 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (83, '1928-06-09', 13, 31);</v>
       </c>
     </row>
@@ -12068,7 +14665,7 @@
         <v>18</v>
       </c>
       <c r="G19" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A19 &amp; ", '" &amp; B19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (84, '1928-06-10', 14, 31);</v>
       </c>
     </row>
@@ -12093,7 +14690,7 @@
         <v>19</v>
       </c>
       <c r="G20" t="str">
-        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A20 &amp; ", '" &amp; B20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp;  ");"</f>
+        <f t="shared" si="4"/>
         <v>insert into game (matchid, matchdate, game_type, country) values (85, '1928-06-13', 14, 31);</v>
       </c>
     </row>
@@ -12143,7 +14740,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" ref="G23:G86" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A23 &amp; ", " &amp; B23 &amp; ", " &amp; C23 &amp; ", " &amp; D23 &amp; ", " &amp; E23 &amp; ", " &amp; F23 &amp; ");"</f>
+        <f t="shared" ref="G23:G86" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A23 &amp; ", " &amp; B23 &amp; ", " &amp; C23 &amp; ", " &amp; D23 &amp; ", " &amp; E23 &amp; ", " &amp; F23 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 67, 351, 4, 2, 2);</v>
       </c>
     </row>
@@ -12169,13 +14766,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 67, 351, 2, 0, 1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" ref="A25:A88" si="5">A24+1</f>
+        <f t="shared" ref="A25:A88" si="6">A24+1</f>
         <v>341</v>
       </c>
       <c r="B25" s="3">
@@ -12195,13 +14792,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 67, 56, 2, 0, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
       <c r="B26" s="3">
@@ -12221,13 +14818,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 67, 56, 2, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>343</v>
       </c>
       <c r="B27" s="4">
@@ -12247,13 +14844,13 @@
         <v>2</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 68, 352, 3, 0, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
       <c r="B28" s="4">
@@ -12273,13 +14870,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 68, 352, 3, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="B29" s="4">
@@ -12299,13 +14896,13 @@
         <v>2</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 68, 32, 5, 2, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
       <c r="B30" s="4">
@@ -12325,13 +14922,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 68, 32, 3, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>347</v>
       </c>
       <c r="B31" s="3">
@@ -12351,13 +14948,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 69, 41, 0, 0, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="B32" s="3">
@@ -12377,13 +14974,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 69, 41, 0, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>349</v>
       </c>
       <c r="B33" s="3">
@@ -12403,13 +15000,13 @@
         <v>2</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 69, 49, 4, 2, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="B34" s="3">
@@ -12429,13 +15026,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 69, 49, 2, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>351</v>
       </c>
       <c r="B35" s="4">
@@ -12455,13 +15052,13 @@
         <v>2</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 70, 90, 1, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="B36" s="4">
@@ -12481,13 +15078,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 70, 90, 0, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="B37" s="4">
@@ -12507,13 +15104,13 @@
         <v>2</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 70, 20, 7, 2, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="B38" s="4">
@@ -12533,13 +15130,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 70, 20, 2, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="B39" s="3">
@@ -12559,13 +15156,13 @@
         <v>2</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 71, 33, 3, 0, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="B40" s="3">
@@ -12585,13 +15182,13 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 71, 33, 2, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="B41" s="3">
@@ -12611,13 +15208,13 @@
         <v>2</v>
       </c>
       <c r="G41" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 71, 39, 4, 2, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="B42" s="3">
@@ -12637,13 +15234,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 71, 39, 3, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="B43" s="4">
@@ -12663,13 +15260,13 @@
         <v>2</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 72, 38, 1, 0, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="B44" s="4">
@@ -12689,13 +15286,13 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 72, 38, 1, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="B45" s="4">
@@ -12715,13 +15312,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 72, 351, 2, 2, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="B46" s="4">
@@ -12741,13 +15338,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 72, 351, 1, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="B47" s="3">
@@ -12767,13 +15364,13 @@
         <v>2</v>
       </c>
       <c r="G47" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 73, 54, 11, 2, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="B48" s="3">
@@ -12793,13 +15390,13 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 73, 54, 4, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="B49" s="3">
@@ -12819,13 +15416,13 @@
         <v>2</v>
       </c>
       <c r="G49" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 73, 1, 2, 0, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="B50" s="3">
@@ -12845,13 +15442,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 73, 1, 0, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
       <c r="B51" s="4">
@@ -12871,13 +15468,13 @@
         <v>2</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 74, 34, 7, 2, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="B52" s="4">
@@ -12897,13 +15494,13 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 74, 34, 3, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>369</v>
       </c>
       <c r="B53" s="4">
@@ -12923,13 +15520,13 @@
         <v>2</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 74, 52, 1, 0, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="B54" s="4">
@@ -12949,13 +15546,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 74, 52, 0, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="B55" s="3">
@@ -12975,13 +15572,13 @@
         <v>2</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 75, 31, 0, 0, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="B56" s="3">
@@ -13001,13 +15598,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 75, 31, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="B57" s="3">
@@ -13027,13 +15624,13 @@
         <v>2</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 75, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="B58" s="3">
@@ -13053,13 +15650,13 @@
         <v>1</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 75, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="B59" s="4">
@@ -13079,13 +15676,13 @@
         <v>2</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 76, 39, 1, 0, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="B60" s="4">
@@ -13105,13 +15702,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 76, 39, 0, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>377</v>
       </c>
       <c r="B61" s="4">
@@ -13131,13 +15728,13 @@
         <v>2</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 76, 34, 1, 0, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="B62" s="4">
@@ -13157,13 +15754,13 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 76, 34, 1, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="B63" s="4">
@@ -13183,13 +15780,13 @@
         <v>4</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 76, 39, 1, 1, 4);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="B64" s="4">
@@ -13209,13 +15806,13 @@
         <v>3</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 76, 39, 1, 0, 3);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="B65" s="4">
@@ -13235,13 +15832,13 @@
         <v>4</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 76, 34, 1, 1, 4);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="B66" s="4">
@@ -13261,13 +15858,13 @@
         <v>3</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 76, 34, 1, 0, 3);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>383</v>
       </c>
       <c r="B67" s="3">
@@ -13287,13 +15884,13 @@
         <v>2</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 77, 54, 6, 2, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="B68" s="3">
@@ -13313,13 +15910,13 @@
         <v>1</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 77, 54, 3, 0, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>385</v>
       </c>
       <c r="B69" s="3">
@@ -13339,13 +15936,13 @@
         <v>2</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 77, 32, 3, 0, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
       <c r="B70" s="3">
@@ -13365,13 +15962,13 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 77, 32, 2, 0, 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="B71" s="4">
@@ -13391,13 +15988,13 @@
         <v>2</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 78, 49, 1, 0, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="B72" s="4">
@@ -13417,13 +16014,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 78, 49, 0, 0, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="B73" s="4">
@@ -13443,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 78, 598, 4, 2, 2);</v>
       </c>
     </row>
@@ -13469,13 +16066,13 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 78, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="B75" s="3">
@@ -13495,13 +16092,13 @@
         <v>2</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 79, 351, 1, 0, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="B76" s="3">
@@ -13521,13 +16118,13 @@
         <v>1</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 79, 351, 0, 0, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="B77" s="3">
@@ -13547,13 +16144,13 @@
         <v>2</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 79, 20, 2, 2, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="B78" s="3">
@@ -13573,13 +16170,13 @@
         <v>1</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 79, 20, 1, 0, 1);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="B79" s="4">
@@ -13599,13 +16196,13 @@
         <v>2</v>
       </c>
       <c r="G79" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 80, 39, 7, 2, 2);</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="B80" s="4">
@@ -13625,13 +16222,13 @@
         <v>1</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 80, 39, 4, 0, 1);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
       <c r="B81" s="4">
@@ -13651,13 +16248,13 @@
         <v>2</v>
       </c>
       <c r="G81" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 80, 34, 1, 0, 2);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
       <c r="B82" s="4">
@@ -13677,13 +16274,13 @@
         <v>1</v>
       </c>
       <c r="G82" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 80, 34, 0, 0, 1);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
       <c r="B83" s="3">
@@ -13703,13 +16300,13 @@
         <v>2</v>
       </c>
       <c r="G83" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 81, 54, 6, 2, 2);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="B84" s="3">
@@ -13729,13 +16326,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 81, 54, 3, 0, 1);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
       <c r="B85" s="3">
@@ -13755,13 +16352,13 @@
         <v>2</v>
       </c>
       <c r="G85" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 81, 20, 0, 0, 2);</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="B86" s="3">
@@ -13781,13 +16378,13 @@
         <v>1</v>
       </c>
       <c r="G86" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 81, 20, 0, 0, 1);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="B87" s="4">
@@ -13807,13 +16404,13 @@
         <v>2</v>
       </c>
       <c r="G87" s="4" t="str">
-        <f t="shared" ref="G87:G106" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A87 &amp; ", " &amp; B87 &amp; ", " &amp; C87 &amp; ", " &amp; D87 &amp; ", " &amp; E87 &amp; ", " &amp; F87 &amp; ");"</f>
+        <f t="shared" ref="G87:G106" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A87 &amp; ", " &amp; B87 &amp; ", " &amp; C87 &amp; ", " &amp; D87 &amp; ", " &amp; E87 &amp; ", " &amp; F87 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 82, 39, 2, 0, 2);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
       <c r="B88" s="4">
@@ -13833,13 +16430,13 @@
         <v>1</v>
       </c>
       <c r="G88" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 82, 39, 1, 0, 1);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <f t="shared" ref="A89:A106" si="7">A88+1</f>
+        <f t="shared" ref="A89:A106" si="8">A88+1</f>
         <v>405</v>
       </c>
       <c r="B89" s="4">
@@ -13859,13 +16456,13 @@
         <v>2</v>
       </c>
       <c r="G89" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 82, 598, 3, 2, 2);</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>406</v>
       </c>
       <c r="B90" s="4">
@@ -13885,13 +16482,13 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 82, 598, 3, 0, 1);</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>407</v>
       </c>
       <c r="B91" s="3">
@@ -13911,13 +16508,13 @@
         <v>2</v>
       </c>
       <c r="G91" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 83, 39, 11, 2, 2);</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>408</v>
       </c>
       <c r="B92" s="3">
@@ -13937,13 +16534,13 @@
         <v>1</v>
       </c>
       <c r="G92" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 83, 39, 6, 0, 1);</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>409</v>
       </c>
       <c r="B93" s="3">
@@ -13963,13 +16560,13 @@
         <v>2</v>
       </c>
       <c r="G93" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 83, 20, 3, 0, 2);</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="B94" s="3">
@@ -13989,13 +16586,13 @@
         <v>1</v>
       </c>
       <c r="G94" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 83, 20, 2, 0, 1);</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>411</v>
       </c>
       <c r="B95" s="4">
@@ -14015,13 +16612,13 @@
         <v>2</v>
       </c>
       <c r="G95" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 84, 598, 1, 0, 2);</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>412</v>
       </c>
       <c r="B96" s="4">
@@ -14041,13 +16638,13 @@
         <v>1</v>
       </c>
       <c r="G96" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 84, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>413</v>
       </c>
       <c r="B97" s="4">
@@ -14067,13 +16664,13 @@
         <v>2</v>
       </c>
       <c r="G97" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 84, 54, 1, 0, 2);</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <f>A97+1</f>
+        <f t="shared" ref="A98:A103" si="9">A97+1</f>
         <v>414</v>
       </c>
       <c r="B98" s="4">
@@ -14093,13 +16690,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 84, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <f>A98+1</f>
+        <f t="shared" si="9"/>
         <v>415</v>
       </c>
       <c r="B99" s="4">
@@ -14119,13 +16716,13 @@
         <v>4</v>
       </c>
       <c r="G99" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 84, 598, 1, 1, 4);</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <f>A99+1</f>
+        <f t="shared" si="9"/>
         <v>416</v>
       </c>
       <c r="B100" s="4">
@@ -14145,13 +16742,13 @@
         <v>3</v>
       </c>
       <c r="G100" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 84, 598, 1, 0, 3);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <f>A100+1</f>
+        <f t="shared" si="9"/>
         <v>417</v>
       </c>
       <c r="B101" s="4">
@@ -14171,13 +16768,13 @@
         <v>4</v>
       </c>
       <c r="G101" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 84, 54, 1, 1, 4);</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <f>A101+1</f>
+        <f t="shared" si="9"/>
         <v>418</v>
       </c>
       <c r="B102" s="4">
@@ -14197,13 +16794,13 @@
         <v>3</v>
       </c>
       <c r="G102" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 84, 54, 1, 0, 3);</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <f>A102+1</f>
+        <f t="shared" si="9"/>
         <v>419</v>
       </c>
       <c r="B103" s="3">
@@ -14223,13 +16820,13 @@
         <v>2</v>
       </c>
       <c r="G103" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 85, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="B104" s="3">
@@ -14249,13 +16846,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 85, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>421</v>
       </c>
       <c r="B105" s="3">
@@ -14275,13 +16872,13 @@
         <v>2</v>
       </c>
       <c r="G105" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 85, 54, 1, 0, 2);</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>422</v>
       </c>
       <c r="B106" s="3">
@@ -14301,7 +16898,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 85, 54, 1, 0, 1);</v>
       </c>
     </row>
@@ -14421,7 +17018,7 @@
         <v>5</v>
       </c>
       <c r="G113" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A113 &amp; ", " &amp; B113 &amp; ", " &amp; C113 &amp; ", " &amp; D113 &amp; ", " &amp; E113 &amp; ", " &amp; F113 &amp; ");"</f>
+        <f t="shared" ref="G113:G129" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A113 &amp; ", " &amp; B113 &amp; ", " &amp; C113 &amp; ", " &amp; D113 &amp; ", " &amp; E113 &amp; ", " &amp; F113 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
@@ -14447,13 +17044,13 @@
         <v>2</v>
       </c>
       <c r="G114" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A114 &amp; ", " &amp; B114 &amp; ", " &amp; C114 &amp; ", " &amp; D114 &amp; ", " &amp; E114 &amp; ", " &amp; F114 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 86, 31, 3, 2, 2);</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <f>A114+1</f>
+        <f t="shared" ref="A115:A129" si="11">A114+1</f>
         <v>424</v>
       </c>
       <c r="B115" s="3">
@@ -14473,13 +17070,13 @@
         <v>1</v>
       </c>
       <c r="G115" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A115 &amp; ", " &amp; B115 &amp; ", " &amp; C115 &amp; ", " &amp; D115 &amp; ", " &amp; E115 &amp; ", " &amp; F115 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 86, 31, 2, 0, 1);</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <f>A115+1</f>
+        <f t="shared" si="11"/>
         <v>425</v>
       </c>
       <c r="B116" s="3">
@@ -14499,13 +17096,13 @@
         <v>2</v>
       </c>
       <c r="G116" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A116 &amp; ", " &amp; B116 &amp; ", " &amp; C116 &amp; ", " &amp; D116 &amp; ", " &amp; E116 &amp; ", " &amp; F116 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 86, 32, 1, 0, 2);</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <f>A116+1</f>
+        <f t="shared" si="11"/>
         <v>426</v>
       </c>
       <c r="B117" s="3">
@@ -14525,13 +17122,13 @@
         <v>1</v>
       </c>
       <c r="G117" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A117 &amp; ", " &amp; B117 &amp; ", " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 86, 32, 0, 0, 1);</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <f>A117+1</f>
+        <f t="shared" si="11"/>
         <v>427</v>
       </c>
       <c r="B118" s="4">
@@ -14551,13 +17148,13 @@
         <v>2</v>
       </c>
       <c r="G118" s="4" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A118 &amp; ", " &amp; B118 &amp; ", " &amp; C118 &amp; ", " &amp; D118 &amp; ", " &amp; E118 &amp; ", " &amp; F118 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 87, 56, 3, 2, 2);</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <f>A118+1</f>
+        <f t="shared" si="11"/>
         <v>428</v>
       </c>
       <c r="B119" s="4">
@@ -14577,13 +17174,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="4" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A119 &amp; ", " &amp; B119 &amp; ", " &amp; C119 &amp; ", " &amp; D119 &amp; ", " &amp; E119 &amp; ", " &amp; F119 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 87, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <f>A119+1</f>
+        <f t="shared" si="11"/>
         <v>429</v>
       </c>
       <c r="B120" s="4">
@@ -14603,13 +17200,13 @@
         <v>2</v>
       </c>
       <c r="G120" s="4" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A120 &amp; ", " &amp; B120 &amp; ", " &amp; C120 &amp; ", " &amp; D120 &amp; ", " &amp; E120 &amp; ", " &amp; F120 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 87, 52, 1, 0, 2);</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <f>A120+1</f>
+        <f t="shared" si="11"/>
         <v>430</v>
       </c>
       <c r="B121" s="4">
@@ -14629,13 +17226,13 @@
         <v>1</v>
       </c>
       <c r="G121" s="4" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A121 &amp; ", " &amp; B121 &amp; ", " &amp; C121 &amp; ", " &amp; D121 &amp; ", " &amp; E121 &amp; ", " &amp; F121 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 87, 52, 1, 0, 1);</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <f>A121+1</f>
+        <f t="shared" si="11"/>
         <v>431</v>
       </c>
       <c r="B122" s="3">
@@ -14655,13 +17252,13 @@
         <v>2</v>
       </c>
       <c r="G122" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A122 &amp; ", " &amp; B122 &amp; ", " &amp; C122 &amp; ", " &amp; D122 &amp; ", " &amp; E122 &amp; ", " &amp; F122 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 88, 31, 2, 0, 2);</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <f>A122+1</f>
+        <f t="shared" si="11"/>
         <v>432</v>
       </c>
       <c r="B123" s="3">
@@ -14681,13 +17278,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A123 &amp; ", " &amp; B123 &amp; ", " &amp; C123 &amp; ", " &amp; D123 &amp; ", " &amp; E123 &amp; ", " &amp; F123 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 88, 31, 0, 0, 1);</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <f>A123+1</f>
+        <f t="shared" si="11"/>
         <v>433</v>
       </c>
       <c r="B124" s="3">
@@ -14707,13 +17304,13 @@
         <v>2</v>
       </c>
       <c r="G124" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A124 &amp; ", " &amp; B124 &amp; ", " &amp; C124 &amp; ", " &amp; D124 &amp; ", " &amp; E124 &amp; ", " &amp; F124 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 88, 56, 2, 0, 2);</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <f>A124+1</f>
+        <f t="shared" si="11"/>
         <v>434</v>
       </c>
       <c r="B125" s="3">
@@ -14733,13 +17330,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A125 &amp; ", " &amp; B125 &amp; ", " &amp; C125 &amp; ", " &amp; D125 &amp; ", " &amp; E125 &amp; ", " &amp; F125 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 88, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <f>A125+1</f>
+        <f t="shared" si="11"/>
         <v>435</v>
       </c>
       <c r="B126" s="3">
@@ -14759,13 +17356,13 @@
         <v>4</v>
       </c>
       <c r="G126" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A126 &amp; ", " &amp; B126 &amp; ", " &amp; C126 &amp; ", " &amp; D126 &amp; ", " &amp; E126 &amp; ", " &amp; F126 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 88, 31, 2, 1, 4);</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <f>A126+1</f>
+        <f t="shared" si="11"/>
         <v>436</v>
       </c>
       <c r="B127" s="3">
@@ -14785,13 +17382,13 @@
         <v>3</v>
       </c>
       <c r="G127" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A127 &amp; ", " &amp; B127 &amp; ", " &amp; C127 &amp; ", " &amp; D127 &amp; ", " &amp; E127 &amp; ", " &amp; F127 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 88, 31, 2, 0, 3);</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <f>A127+1</f>
+        <f t="shared" si="11"/>
         <v>437</v>
       </c>
       <c r="B128" s="3">
@@ -14811,13 +17408,13 @@
         <v>4</v>
       </c>
       <c r="G128" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A128 &amp; ", " &amp; B128 &amp; ", " &amp; C128 &amp; ", " &amp; D128 &amp; ", " &amp; E128 &amp; ", " &amp; F128 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 88, 56, 2, 1, 4);</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <f>A128+1</f>
+        <f t="shared" si="11"/>
         <v>438</v>
       </c>
       <c r="B129" s="3">
@@ -14837,8 +17434,2449 @@
         <v>3</v>
       </c>
       <c r="G129" s="3" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A129 &amp; ", " &amp; B129 &amp; ", " &amp; C129 &amp; ", " &amp; D129 &amp; ", " &amp; E129 &amp; ", " &amp; F129 &amp; ");"</f>
+        <f t="shared" si="10"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 88, 56, 2, 0, 3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1928'!A111+1</f>
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1936-08-03"</f>
+        <v>1936-08-03</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G17" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (89, '1936-08-03', 9, 49);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1936-08-03"</f>
+        <v>1936-08-03</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (90, '1936-08-03', 9, 49);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A17" si="1">A3+1</f>
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1936-08-04"</f>
+        <v>1936-08-04</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D17" si="2">D3</f>
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="3">E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (91, '1936-08-04', 9, 49);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1936-08-04"</f>
+        <v>1936-08-04</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (92, '1936-08-04', 9, 49);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1936-08-05"</f>
+        <v>1936-08-05</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (93, '1936-08-05', 9, 49);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1936-08-05"</f>
+        <v>1936-08-05</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (94, '1936-08-05', 9, 49);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1936-08-06"</f>
+        <v>1936-08-06</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (95, '1936-08-06', 9, 49);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1936-08-06"</f>
+        <v>1936-08-06</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (96, '1936-08-06', 9, 49);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1936-08-07"</f>
+        <v>1936-08-07</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (97, '1936-08-07', 3, 49);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1936-08-07"</f>
+        <v>1936-08-07</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (98, '1936-08-07', 3, 49);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1936-08-08"</f>
+        <v>1936-08-08</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (99, '1936-08-08', 3, 49);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1936-08-08"</f>
+        <v>1936-08-08</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (100, '1936-08-08', 3, 49);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1936-08-10"</f>
+        <v>1936-08-10</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (101, '1936-08-10', 4, 49);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1936-08-11"</f>
+        <v>1936-08-11</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (102, '1936-08-11', 4, 49);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1936-08-13"</f>
+        <v>1936-08-13</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (103, '1936-08-13', 13, 49);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1936-08-15"</f>
+        <v>1936-08-15</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (104, '1936-08-15', 14, 49);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f>'1928'!A129+ 1</f>
+        <v>439</v>
+      </c>
+      <c r="B20" s="3">
+        <f>A2</f>
+        <v>89</v>
+      </c>
+      <c r="C20" s="3">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" ref="G20:G87" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A20 &amp; ", " &amp; B20 &amp; ", " &amp; C20 &amp; ", " &amp; D20 &amp; ", " &amp; E20 &amp; ", " &amp; F20 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (439, 89, 90, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f>A20+1</f>
+        <v>440</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B20</f>
+        <v>89</v>
+      </c>
+      <c r="C21" s="3">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (440, 89, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:A89" si="5">A21+1</f>
+        <v>441</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B20</f>
+        <v>89</v>
+      </c>
+      <c r="C22" s="3">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (441, 89, 47, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B20</f>
+        <v>89</v>
+      </c>
+      <c r="C23" s="3">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (442, 89, 47, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="5"/>
+        <v>443</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B20+1</f>
+        <v>90</v>
+      </c>
+      <c r="C24" s="4">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (443, 90, 39, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="5"/>
+        <v>444</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B24</f>
+        <v>90</v>
+      </c>
+      <c r="C25" s="4">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (444, 90, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="5"/>
+        <v>445</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B24</f>
+        <v>90</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (445, 90, 1, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="5"/>
+        <v>446</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B24</f>
+        <v>90</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (446, 90, 1, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="5"/>
+        <v>447</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B24+1</f>
+        <v>91</v>
+      </c>
+      <c r="C28" s="3">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (447, 91, 49, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="5"/>
+        <v>448</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B28</f>
+        <v>91</v>
+      </c>
+      <c r="C29" s="3">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (448, 91, 49, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="5"/>
+        <v>449</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B28</f>
+        <v>91</v>
+      </c>
+      <c r="C30" s="3">
+        <v>352</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (449, 91, 352, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B28</f>
+        <v>91</v>
+      </c>
+      <c r="C31" s="3">
+        <v>352</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (450, 91, 352, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="5"/>
+        <v>451</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B28+1</f>
+        <v>92</v>
+      </c>
+      <c r="C32" s="4">
+        <v>81</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (451, 92, 81, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="5"/>
+        <v>452</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32</f>
+        <v>92</v>
+      </c>
+      <c r="C33" s="4">
+        <v>81</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (452, 92, 81, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="5"/>
+        <v>453</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B32</f>
+        <v>92</v>
+      </c>
+      <c r="C34" s="4">
+        <v>46</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (453, 92, 46, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="5"/>
+        <v>454</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B32</f>
+        <v>92</v>
+      </c>
+      <c r="C35" s="4">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (454, 92, 46, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="5"/>
+        <v>455</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B32+1</f>
+        <v>93</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (455, 93, 43, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="5"/>
+        <v>456</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B36</f>
+        <v>93</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (456, 93, 43, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="5"/>
+        <v>457</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B36</f>
+        <v>93</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (457, 93, 20, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="5"/>
+        <v>458</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B36</f>
+        <v>93</v>
+      </c>
+      <c r="C39" s="3">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (458, 93, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="5"/>
+        <v>459</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B36+1</f>
+        <v>94</v>
+      </c>
+      <c r="C40" s="4">
+        <v>48</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (459, 94, 48, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B40</f>
+        <v>94</v>
+      </c>
+      <c r="C41" s="4">
+        <v>48</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (460, 94, 48, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="5"/>
+        <v>461</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B40</f>
+        <v>94</v>
+      </c>
+      <c r="C42" s="4">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (461, 94, 36, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="5"/>
+        <v>462</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B40</f>
+        <v>94</v>
+      </c>
+      <c r="C43" s="4">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (462, 94, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="5"/>
+        <v>463</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B40+1</f>
+        <v>95</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (463, 95, 44, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="5"/>
+        <v>464</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B44</f>
+        <v>95</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (464, 95, 44, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="5"/>
+        <v>465</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44</f>
+        <v>95</v>
+      </c>
+      <c r="C46" s="3">
+        <v>86</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (465, 95, 86, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="5"/>
+        <v>466</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B44</f>
+        <v>95</v>
+      </c>
+      <c r="C47" s="3">
+        <v>86</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (466, 95, 86, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="5"/>
+        <v>467</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B44+1</f>
+        <v>96</v>
+      </c>
+      <c r="C48" s="6">
+        <v>51</v>
+      </c>
+      <c r="D48" s="6">
+        <v>7</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (467, 96, 51, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="5"/>
+        <v>468</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B48</f>
+        <v>96</v>
+      </c>
+      <c r="C49" s="6">
+        <v>51</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (468, 96, 51, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="5"/>
+        <v>469</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B48</f>
+        <v>96</v>
+      </c>
+      <c r="C50" s="6">
+        <v>358</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (469, 96, 358, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="5"/>
+        <v>470</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B48</f>
+        <v>96</v>
+      </c>
+      <c r="C51" s="6">
+        <v>358</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (470, 96, 358, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="5"/>
+        <v>471</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B48+1</f>
+        <v>97</v>
+      </c>
+      <c r="C52" s="3">
+        <v>39</v>
+      </c>
+      <c r="D52" s="5">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (471, 97, 39, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="5"/>
+        <v>472</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B52</f>
+        <v>97</v>
+      </c>
+      <c r="C53" s="3">
+        <v>39</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (472, 97, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="5"/>
+        <v>473</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B52</f>
+        <v>97</v>
+      </c>
+      <c r="C54" s="3">
+        <v>81</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (473, 97, 81, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="5"/>
+        <v>474</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B52</f>
+        <v>97</v>
+      </c>
+      <c r="C55" s="3">
+        <v>81</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (474, 97, 81, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="5"/>
+        <v>475</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B52+1</f>
+        <v>98</v>
+      </c>
+      <c r="C56" s="4">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (475, 98, 49, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="5"/>
+        <v>476</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B56</f>
+        <v>98</v>
+      </c>
+      <c r="C57" s="4">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (476, 98, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="5"/>
+        <v>477</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B56</f>
+        <v>98</v>
+      </c>
+      <c r="C58" s="4">
+        <v>47</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (477, 98, 47, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="5"/>
+        <v>478</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B56</f>
+        <v>98</v>
+      </c>
+      <c r="C59" s="4">
+        <v>47</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (478, 98, 47, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="5"/>
+        <v>479</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B56+1</f>
+        <v>99</v>
+      </c>
+      <c r="C60" s="3">
+        <v>51</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (479, 99, 51, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B60</f>
+        <v>99</v>
+      </c>
+      <c r="C61" s="3">
+        <v>51</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (480, 99, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="5"/>
+        <v>481</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B60</f>
+        <v>99</v>
+      </c>
+      <c r="C62" s="3">
+        <v>43</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (481, 99, 43, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="5"/>
+        <v>482</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B60</f>
+        <v>99</v>
+      </c>
+      <c r="C63" s="3">
+        <v>43</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (482, 99, 43, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="5"/>
+        <v>483</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B62</f>
+        <v>99</v>
+      </c>
+      <c r="C64" s="3">
+        <v>51</v>
+      </c>
+      <c r="D64" s="5">
+        <v>4</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>4</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (483, 99, 51, 4, 2, 4);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="5"/>
+        <v>484</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B62</f>
+        <v>99</v>
+      </c>
+      <c r="C65" s="3">
+        <v>51</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (484, 99, 51, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="5"/>
+        <v>485</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B64</f>
+        <v>99</v>
+      </c>
+      <c r="C66" s="3">
+        <v>43</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (485, 99, 43, 2, 0, 4);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="5"/>
+        <v>486</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B64</f>
+        <v>99</v>
+      </c>
+      <c r="C67" s="3">
+        <v>43</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (486, 99, 43, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="5"/>
+        <v>487</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B60+1</f>
+        <v>100</v>
+      </c>
+      <c r="C68" s="4">
+        <v>48</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (487, 100, 48, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="5"/>
+        <v>488</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B68</f>
+        <v>100</v>
+      </c>
+      <c r="C69" s="4">
+        <v>48</v>
+      </c>
+      <c r="D69" s="6">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (488, 100, 48, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="5"/>
+        <v>489</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B68</f>
+        <v>100</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44</v>
+      </c>
+      <c r="D70" s="6">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (489, 100, 44, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f>A70+1</f>
+        <v>490</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B68</f>
+        <v>100</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (490, 100, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="5"/>
+        <v>491</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B68+1</f>
+        <v>101</v>
+      </c>
+      <c r="C72" s="3">
+        <v>39</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (491, 101, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="5"/>
+        <v>492</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B72</f>
+        <v>101</v>
+      </c>
+      <c r="C73" s="3">
+        <v>39</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (492, 101, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="5"/>
+        <v>493</v>
+      </c>
+      <c r="B74" s="3">
+        <f>B72</f>
+        <v>101</v>
+      </c>
+      <c r="C74" s="3">
+        <v>47</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (493, 101, 47, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="5"/>
+        <v>494</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B72</f>
+        <v>101</v>
+      </c>
+      <c r="C75" s="3">
+        <v>47</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (494, 101, 47, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="5"/>
+        <v>495</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B73</f>
+        <v>101</v>
+      </c>
+      <c r="C76" s="3">
+        <v>39</v>
+      </c>
+      <c r="D76" s="5">
+        <v>2</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (495, 101, 39, 2, 2, 4);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="5"/>
+        <v>496</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B74</f>
+        <v>101</v>
+      </c>
+      <c r="C77" s="3">
+        <v>39</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>3</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (496, 101, 39, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="5"/>
+        <v>497</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B75</f>
+        <v>101</v>
+      </c>
+      <c r="C78" s="3">
+        <v>47</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (497, 101, 47, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="5"/>
+        <v>498</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B76</f>
+        <v>101</v>
+      </c>
+      <c r="C79" s="3">
+        <v>47</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (498, 101, 47, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="5"/>
+        <v>499</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B72+1</f>
+        <v>102</v>
+      </c>
+      <c r="C80" s="4">
+        <v>48</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (499, 102, 48, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B80</f>
+        <v>102</v>
+      </c>
+      <c r="C81" s="4">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (500, 102, 49, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="5"/>
+        <v>501</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B80</f>
+        <v>102</v>
+      </c>
+      <c r="C82" s="4">
+        <v>43</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3</v>
+      </c>
+      <c r="E82" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (501, 102, 43, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="5"/>
+        <v>502</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B80</f>
+        <v>102</v>
+      </c>
+      <c r="C83" s="4">
+        <v>43</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (502, 102, 43, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="5"/>
+        <v>503</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B80+1</f>
+        <v>103</v>
+      </c>
+      <c r="C84" s="3">
+        <v>47</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (503, 103, 47, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="5"/>
+        <v>504</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B84</f>
+        <v>103</v>
+      </c>
+      <c r="C85" s="3">
+        <v>47</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (504, 103, 47, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="5"/>
+        <v>505</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B84</f>
+        <v>103</v>
+      </c>
+      <c r="C86" s="3">
+        <v>48</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (505, 103, 48, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="5"/>
+        <v>506</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B84</f>
+        <v>103</v>
+      </c>
+      <c r="C87" s="3">
+        <v>48</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (506, 103, 48, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="5"/>
+        <v>507</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B84+1</f>
+        <v>104</v>
+      </c>
+      <c r="C88" s="4">
+        <v>39</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" ref="G88:G91" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A88 &amp; ", " &amp; B88 &amp; ", " &amp; C88 &amp; ", " &amp; D88 &amp; ", " &amp; E88 &amp; ", " &amp; F88 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (507, 104, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="5"/>
+        <v>508</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B88</f>
+        <v>104</v>
+      </c>
+      <c r="C89" s="4">
+        <v>39</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (508, 104, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" ref="A90:A95" si="7">A89+1</f>
+        <v>509</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B88</f>
+        <v>104</v>
+      </c>
+      <c r="C90" s="4">
+        <v>43</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (509, 104, 43, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="7"/>
+        <v>510</v>
+      </c>
+      <c r="B91" s="4">
+        <f>B88</f>
+        <v>104</v>
+      </c>
+      <c r="C91" s="4">
+        <v>43</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (510, 104, 43, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="7"/>
+        <v>511</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B90</f>
+        <v>104</v>
+      </c>
+      <c r="C92" s="4">
+        <v>39</v>
+      </c>
+      <c r="D92" s="6">
+        <v>2</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4">
+        <v>4</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" ref="G92:G95" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A92 &amp; ", " &amp; B92 &amp; ", " &amp; C92 &amp; ", " &amp; D92 &amp; ", " &amp; E92 &amp; ", " &amp; F92 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (511, 104, 39, 2, 2, 4);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B90</f>
+        <v>104</v>
+      </c>
+      <c r="C93" s="4">
+        <v>39</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>3</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (512, 104, 39, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="7"/>
+        <v>513</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B92</f>
+        <v>104</v>
+      </c>
+      <c r="C94" s="4">
+        <v>43</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>4</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (513, 104, 43, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="7"/>
+        <v>514</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B92</f>
+        <v>104</v>
+      </c>
+      <c r="C95" s="4">
+        <v>43</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>3</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (514, 104, 43, 1, 0, 3);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/olympics/olympics.xlsx
+++ b/Scripts/olympics/olympics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1900" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="1928" sheetId="68" r:id="rId8"/>
     <sheet name="1936" sheetId="69" r:id="rId9"/>
     <sheet name="1948" sheetId="70" r:id="rId10"/>
+    <sheet name="1952" sheetId="71" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,6 +746,2601 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1936'!A17+1</f>
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1948-07-26"</f>
+        <v>1948-07-26</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G19" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (105, '1948-07-26', 22, 44);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1948-07-26"</f>
+        <v>1948-07-26</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (106, '1948-07-26', 22, 44);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1948-07-31"</f>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f>E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (107, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" ref="B5:B7" si="1">"1948-07-31"</f>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f>D4</f>
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <f>E4+1</f>
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (108, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f>D3</f>
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <f>E5+1</f>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (109, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ref="A7:A19" si="2">A6+1</f>
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1948-07-31</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D19" si="3">D6</f>
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E19" si="4">E6+1</f>
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (110, '1948-07-31', 9, 44);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (111, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (112, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (113, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1948-08-02"</f>
+        <v>1948-08-02</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (114, '1948-08-02', 9, 44);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (115, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (116, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (117, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1948-08-05"</f>
+        <v>1948-08-05</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (118, '1948-08-05', 3, 44);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1948-08-10"</f>
+        <v>1948-08-10</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (119, '1948-08-10', 4, 44);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1948-08-11"</f>
+        <v>1948-08-11</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (120, '1948-08-11', 4, 44);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1948-08-13"</f>
+        <v>1948-08-13</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (121, '1948-08-13', 13, 44);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1948-08-13"</f>
+        <v>1948-08-13</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (122, '1948-08-13', 14, 44);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A21 &amp; ", " &amp; B21 &amp; ", " &amp; C21 &amp; ", " &amp; D21 &amp; ", " &amp; E21 &amp; ", " &amp; F21 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f>'1936'!A95+ 1</f>
+        <v>515</v>
+      </c>
+      <c r="B22" s="3">
+        <f>A2</f>
+        <v>105</v>
+      </c>
+      <c r="C22" s="3">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G89" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A22 &amp; ", " &amp; B22 &amp; ", " &amp; C22 &amp; ", " &amp; D22 &amp; ", " &amp; E22 &amp; ", " &amp; F22 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 105, 31, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>A22+1</f>
+        <v>516</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B22</f>
+        <v>105</v>
+      </c>
+      <c r="C23" s="3">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 105, 31, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" ref="A24:A87" si="6">A23+1</f>
+        <v>517</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B22</f>
+        <v>105</v>
+      </c>
+      <c r="C24" s="3">
+        <v>353</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 105, 353, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="6"/>
+        <v>518</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B22</f>
+        <v>105</v>
+      </c>
+      <c r="C25" s="3">
+        <v>353</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 105, 353, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B22+1</f>
+        <v>106</v>
+      </c>
+      <c r="C26" s="4">
+        <v>352</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 106, 352, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B26</f>
+        <v>106</v>
+      </c>
+      <c r="C27" s="4">
+        <v>352</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 106, 352, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="6"/>
+        <v>521</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B26</f>
+        <v>106</v>
+      </c>
+      <c r="C28" s="4">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 106, 93, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="6"/>
+        <v>522</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B26</f>
+        <v>106</v>
+      </c>
+      <c r="C29" s="4">
+        <v>93</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 106, 93, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B26+1</f>
+        <v>107</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 107, 45, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="6"/>
+        <v>524</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B30</f>
+        <v>107</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 107, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B30</f>
+        <v>107</v>
+      </c>
+      <c r="C32" s="3">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 107, 20, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="6"/>
+        <v>526</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B30</f>
+        <v>107</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 107, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="6"/>
+        <v>527</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B30+1</f>
+        <v>108</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (527, 108, 45, 3, 2, 4);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="6"/>
+        <v>528</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B34</f>
+        <v>108</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (528, 108, 45, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="6"/>
+        <v>529</v>
+      </c>
+      <c r="B36" s="3">
+        <f>B34</f>
+        <v>108</v>
+      </c>
+      <c r="C36" s="3">
+        <v>20</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (529, 108, 20, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B34</f>
+        <v>108</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (530, 108, 20, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="6"/>
+        <v>531</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B30+1</f>
+        <v>108</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 108, 44, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="6"/>
+        <v>532</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B38</f>
+        <v>108</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 108, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="6"/>
+        <v>533</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B38</f>
+        <v>108</v>
+      </c>
+      <c r="C40" s="4">
+        <v>31</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 108, 31, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="6"/>
+        <v>534</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B38</f>
+        <v>108</v>
+      </c>
+      <c r="C41" s="4">
+        <v>31</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 108, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="6"/>
+        <v>535</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B39</f>
+        <v>108</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (535, 108, 44, 4, 2, 4);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="6"/>
+        <v>536</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B40</f>
+        <v>108</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (536, 108, 44, 3, 0, 3);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="6"/>
+        <v>537</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B41</f>
+        <v>108</v>
+      </c>
+      <c r="C44" s="4">
+        <v>31</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (537, 108, 31, 3, 0, 4);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="6"/>
+        <v>538</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B42</f>
+        <v>108</v>
+      </c>
+      <c r="C45" s="4">
+        <v>31</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (538, 108, 31, 3, 0, 3);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="6"/>
+        <v>539</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B38+1</f>
+        <v>109</v>
+      </c>
+      <c r="C46" s="3">
+        <v>33</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 109, 33, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B46</f>
+        <v>109</v>
+      </c>
+      <c r="C47" s="3">
+        <v>33</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 109, 33, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="6"/>
+        <v>541</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B46</f>
+        <v>109</v>
+      </c>
+      <c r="C48" s="3">
+        <v>91</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 109, 91, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="6"/>
+        <v>542</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B46</f>
+        <v>109</v>
+      </c>
+      <c r="C49" s="3">
+        <v>91</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 109, 91, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="6"/>
+        <v>543</v>
+      </c>
+      <c r="B50" s="4">
+        <f>B46+1</f>
+        <v>110</v>
+      </c>
+      <c r="C50" s="4">
+        <v>38</v>
+      </c>
+      <c r="D50" s="6">
+        <v>8</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (543, 110, 38, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="6"/>
+        <v>544</v>
+      </c>
+      <c r="B51" s="4">
+        <f>B50</f>
+        <v>110</v>
+      </c>
+      <c r="C51" s="4">
+        <v>39</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (544, 110, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="6"/>
+        <v>545</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B50</f>
+        <v>110</v>
+      </c>
+      <c r="C52" s="4">
+        <v>352</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (545, 110, 352, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B50</f>
+        <v>110</v>
+      </c>
+      <c r="C53" s="4">
+        <v>352</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (546, 110, 352, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="6"/>
+        <v>547</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B50+1</f>
+        <v>111</v>
+      </c>
+      <c r="C54" s="3">
+        <v>90</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 111, 90, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="6"/>
+        <v>548</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B54</f>
+        <v>111</v>
+      </c>
+      <c r="C55" s="3">
+        <v>90</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 111, 90, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="6"/>
+        <v>549</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B54</f>
+        <v>111</v>
+      </c>
+      <c r="C56" s="3">
+        <v>86</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 111, 86, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B54</f>
+        <v>111</v>
+      </c>
+      <c r="C57" s="3">
+        <v>86</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 111, 86, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
+        <v>551</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B54+1</f>
+        <v>112</v>
+      </c>
+      <c r="C58" s="6">
+        <v>46</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (551, 112, 46, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="6"/>
+        <v>552</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B58</f>
+        <v>112</v>
+      </c>
+      <c r="C59" s="6">
+        <v>46</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (552, 112, 46, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="6"/>
+        <v>553</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B58</f>
+        <v>112</v>
+      </c>
+      <c r="C60" s="6">
+        <v>43</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (553, 112, 43, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="6"/>
+        <v>554</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B58</f>
+        <v>112</v>
+      </c>
+      <c r="C61" s="6">
+        <v>43</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (554, 112, 43, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B58+1</f>
+        <v>113</v>
+      </c>
+      <c r="C62" s="3">
+        <v>52</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 113, 52, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="6"/>
+        <v>556</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B62</f>
+        <v>113</v>
+      </c>
+      <c r="C63" s="3">
+        <v>52</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 113, 52, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="6"/>
+        <v>557</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B62</f>
+        <v>113</v>
+      </c>
+      <c r="C64" s="3">
+        <v>82</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 113, 82, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="6"/>
+        <v>558</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B62</f>
+        <v>113</v>
+      </c>
+      <c r="C65" s="3">
+        <v>82</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 113, 82, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
+        <v>559</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B62+1</f>
+        <v>114</v>
+      </c>
+      <c r="C66" s="4">
+        <v>39</v>
+      </c>
+      <c r="D66" s="6">
+        <v>9</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (559, 114, 39, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B66</f>
+        <v>114</v>
+      </c>
+      <c r="C67" s="4">
+        <v>39</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (560, 114, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="6"/>
+        <v>561</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B66</f>
+        <v>114</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (561, 114, 1, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="6"/>
+        <v>562</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B66</f>
+        <v>114</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (562, 114, 1, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="6"/>
+        <v>563</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B66+1</f>
+        <v>115</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 115, 44, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="6"/>
+        <v>564</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B70</f>
+        <v>115</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 115, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="6"/>
+        <v>565</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B70</f>
+        <v>115</v>
+      </c>
+      <c r="C72" s="3">
+        <v>33</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 115, 33, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="6"/>
+        <v>566</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B70</f>
+        <v>115</v>
+      </c>
+      <c r="C73" s="3">
+        <v>33</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 115, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="B74" s="4">
+        <f>B70+1</f>
+        <v>116</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45</v>
+      </c>
+      <c r="D74" s="6">
+        <v>5</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (567, 116, 45, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="6"/>
+        <v>568</v>
+      </c>
+      <c r="B75" s="4">
+        <f>B74</f>
+        <v>116</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (568, 116, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="6"/>
+        <v>569</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B74</f>
+        <v>116</v>
+      </c>
+      <c r="C76" s="4">
+        <v>39</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (569, 116, 39, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f>A76+1</f>
+        <v>570</v>
+      </c>
+      <c r="B77" s="4">
+        <f>B74</f>
+        <v>116</v>
+      </c>
+      <c r="C77" s="4">
+        <v>39</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (570, 116, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="6"/>
+        <v>571</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B74+1</f>
+        <v>117</v>
+      </c>
+      <c r="C78" s="3">
+        <v>46</v>
+      </c>
+      <c r="D78" s="5">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 117, 46, 12, 2, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="6"/>
+        <v>572</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B78</f>
+        <v>117</v>
+      </c>
+      <c r="C79" s="3">
+        <v>46</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 117, 46, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="6"/>
+        <v>573</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B78</f>
+        <v>117</v>
+      </c>
+      <c r="C80" s="3">
+        <v>82</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 117, 82, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="6"/>
+        <v>574</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B78</f>
+        <v>117</v>
+      </c>
+      <c r="C81" s="3">
+        <v>82</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 117, 82, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="B82" s="4">
+        <f>B78+1</f>
+        <v>118</v>
+      </c>
+      <c r="C82" s="4">
+        <v>90</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (575, 118, 90, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="6"/>
+        <v>576</v>
+      </c>
+      <c r="B83" s="4">
+        <f>B82</f>
+        <v>118</v>
+      </c>
+      <c r="C83" s="4">
+        <v>90</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (576, 118, 90, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>577</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B82</f>
+        <v>118</v>
+      </c>
+      <c r="C84" s="4">
+        <v>38</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (577, 118, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="6"/>
+        <v>578</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B82</f>
+        <v>118</v>
+      </c>
+      <c r="C85" s="4">
+        <v>38</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (578, 118, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="6"/>
+        <v>579</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B82+1</f>
+        <v>119</v>
+      </c>
+      <c r="C86" s="3">
+        <v>45</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 119, 45, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="6"/>
+        <v>580</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B86</f>
+        <v>119</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 119, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" ref="A88:A101" si="7">A87+1</f>
+        <v>581</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B86</f>
+        <v>119</v>
+      </c>
+      <c r="C88" s="3">
+        <v>46</v>
+      </c>
+      <c r="D88" s="5">
+        <v>4</v>
+      </c>
+      <c r="E88" s="5">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 119, 46, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="7"/>
+        <v>582</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B86</f>
+        <v>119</v>
+      </c>
+      <c r="C89" s="3">
+        <v>46</v>
+      </c>
+      <c r="D89" s="5">
+        <v>4</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 119, 46, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="7"/>
+        <v>583</v>
+      </c>
+      <c r="B90" s="4">
+        <f>B86+1</f>
+        <v>120</v>
+      </c>
+      <c r="C90" s="4">
+        <v>44</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" ref="G90:G97" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A90 &amp; ", " &amp; B90 &amp; ", " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (583, 120, 44, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="7"/>
+        <v>584</v>
+      </c>
+      <c r="B91" s="4">
+        <f>B90</f>
+        <v>120</v>
+      </c>
+      <c r="C91" s="4">
+        <v>44</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (584, 120, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="7"/>
+        <v>585</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B90</f>
+        <v>120</v>
+      </c>
+      <c r="C92" s="4">
+        <v>38</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (585, 120, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="7"/>
+        <v>586</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B90</f>
+        <v>120</v>
+      </c>
+      <c r="C93" s="4">
+        <v>38</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (586, 120, 38, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="7"/>
+        <v>587</v>
+      </c>
+      <c r="B94" s="3">
+        <f>B90+1</f>
+        <v>121</v>
+      </c>
+      <c r="C94" s="3">
+        <v>45</v>
+      </c>
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+      <c r="E94" s="5">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 121, 45, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="7"/>
+        <v>588</v>
+      </c>
+      <c r="B95" s="3">
+        <f>B94</f>
+        <v>121</v>
+      </c>
+      <c r="C95" s="3">
+        <v>45</v>
+      </c>
+      <c r="D95" s="5">
+        <v>3</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 121, 45, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="7"/>
+        <v>589</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B94</f>
+        <v>121</v>
+      </c>
+      <c r="C96" s="3">
+        <v>44</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 121, 44, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="7"/>
+        <v>590</v>
+      </c>
+      <c r="B97" s="3">
+        <f>B94</f>
+        <v>121</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 121, 44, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <f t="shared" si="7"/>
+        <v>591</v>
+      </c>
+      <c r="B98" s="4">
+        <f>B94+1</f>
+        <v>122</v>
+      </c>
+      <c r="C98" s="4">
+        <v>38</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" ref="G98:G101" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A98 &amp; ", " &amp; B98 &amp; ", " &amp; C98 &amp; ", " &amp; D98 &amp; ", " &amp; E98 &amp; ", " &amp; F98 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (591, 122, 38, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <f t="shared" si="7"/>
+        <v>592</v>
+      </c>
+      <c r="B99" s="4">
+        <f>B98</f>
+        <v>122</v>
+      </c>
+      <c r="C99" s="4">
+        <v>38</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (592, 122, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="7"/>
+        <v>593</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B98</f>
+        <v>122</v>
+      </c>
+      <c r="C100" s="4">
+        <v>46</v>
+      </c>
+      <c r="D100" s="6">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (593, 122, 46, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f t="shared" si="7"/>
+        <v>594</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B98</f>
+        <v>122</v>
+      </c>
+      <c r="C101" s="4">
+        <v>46</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (594, 122, 46, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G149"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +3355,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -777,42 +3377,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'1936'!A17+1</f>
-        <v>105</v>
+        <f>'1948'!A19+1</f>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1948-07-26"</f>
-        <v>1948-07-26</v>
+        <f>"1952-07-15"</f>
+        <v>1952-07-15</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G19" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
-        <v>insert into game (matchid, matchdate, game_type, country) values (105, '1948-07-26', 22, 44);</v>
+        <f t="shared" ref="G2:G27" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (123, '1952-07-15', 22, 358);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
-        <v>106</v>
+        <f t="shared" ref="A3:A13" si="1">A2+1</f>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1948-07-26"</f>
-        <v>1948-07-26</v>
+        <f>"1952-07-15"</f>
+        <v>1952-07-15</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3">
-        <f>D2</f>
-        <v>44</v>
+        <f t="shared" ref="D3:D12" si="2">D2</f>
+        <v>358</v>
       </c>
       <c r="E3">
         <f>E2+1</f>
@@ -820,681 +3420,673 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (106, '1948-07-26', 22, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (124, '1952-07-15', 22, 358);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1948-07-31"</f>
-        <v>1948-07-31</v>
+        <f>"1952-07-15"</f>
+        <v>1952-07-15</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <f>D3</f>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>358</v>
       </c>
       <c r="E4">
-        <f>E3+1</f>
+        <f t="shared" ref="E4:E26" si="3">E3+1</f>
         <v>3</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (107, '1948-07-31', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (125, '1952-07-15', 22, 358);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+1</f>
-        <v>108</v>
+        <f t="shared" si="1"/>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B7" si="1">"1948-07-31"</f>
-        <v>1948-07-31</v>
+        <f>"1952-07-15"</f>
+        <v>1952-07-15</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <f>D4</f>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>358</v>
       </c>
       <c r="E5">
-        <f>E4+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (108, '1948-07-31', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (126, '1952-07-15', 22, 358);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+1</f>
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1948-07-31</v>
+        <f>"1952-07-15"</f>
+        <v>1952-07-15</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <f>D3</f>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>358</v>
       </c>
       <c r="E6">
-        <f>E5+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (109, '1948-07-31', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (127, '1952-07-15', 22, 358);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A19" si="2">A6+1</f>
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1948-07-31</v>
+        <f>"1952-07-16"</f>
+        <v>1952-07-16</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D19" si="3">D6</f>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>358</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E19" si="4">E6+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (110, '1948-07-31', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (128, '1952-07-16', 22, 358);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1952-07-16"</f>
+        <v>1952-07-16</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>"1948-08-02"</f>
-        <v>1948-08-02</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
+        <v>358</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (111, '1948-08-02', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (129, '1952-07-16', 22, 358);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1952-07-16"</f>
+        <v>1952-07-16</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>"1948-08-02"</f>
-        <v>1948-08-02</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
+        <v>358</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (112, '1948-08-02', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (130, '1952-07-16', 22, 358);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1952-07-16"</f>
+        <v>1952-07-16</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>"1948-08-02"</f>
-        <v>1948-08-02</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
+        <v>358</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (113, '1948-08-02', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (131, '1952-07-16', 22, 358);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
-        <v>114</v>
+        <f t="shared" si="1"/>
+        <v>132</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1948-08-02"</f>
-        <v>1948-08-02</v>
+        <f>"1952-07-19"</f>
+        <v>1952-07-19</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>358</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (114, '1948-08-02', 9, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (132, '1952-07-19', 9, 358);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1952-07-20"</f>
+        <v>1952-07-20</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>"1948-08-05"</f>
-        <v>1948-08-05</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
+        <v>358</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (115, '1948-08-05', 3, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (133, '1952-07-20', 9, 358);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
-        <v>116</v>
+        <f t="shared" si="1"/>
+        <v>134</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1948-08-05"</f>
-        <v>1948-08-05</v>
+        <f>"1952-07-20"</f>
+        <v>1952-07-20</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13">
+        <f>D10</f>
+        <v>358</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (116, '1948-08-05', 3, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (134, '1952-07-20', 9, 358);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
-        <v>117</v>
+        <f t="shared" ref="A14:A27" si="4">A13+1</f>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1948-08-05"</f>
-        <v>1948-08-05</v>
+        <f>"1952-07-20"</f>
+        <v>1952-07-20</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14">
+        <f t="shared" ref="D14:D27" si="5">D13</f>
+        <v>358</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (117, '1948-08-05', 3, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (135, '1952-07-20', 9, 358);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
-        <v>118</v>
+        <f t="shared" si="4"/>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1948-08-05"</f>
-        <v>1948-08-05</v>
+        <f>"1952-07-21"</f>
+        <v>1952-07-21</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (118, '1948-08-05', 3, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (136, '1952-07-21', 9, 358);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
-        <v>119</v>
+        <f t="shared" si="4"/>
+        <v>137</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1948-08-10"</f>
-        <v>1948-08-10</v>
+        <f>"1952-07-21"</f>
+        <v>1952-07-21</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (119, '1948-08-10', 4, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (137, '1952-07-21', 9, 358);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>"1948-08-11"</f>
-        <v>1948-08-11</v>
+        <f>"1952-07-21"</f>
+        <v>1952-07-21</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (120, '1948-08-11', 4, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (138, '1952-07-21', 9, 358);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
-        <v>121</v>
+        <f t="shared" si="4"/>
+        <v>139</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>"1948-08-13"</f>
-        <v>1948-08-13</v>
+        <f>"1952-07-21"</f>
+        <v>1952-07-21</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (121, '1948-08-13', 13, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (139, '1952-07-21', 9, 358);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
-        <v>122</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>"1948-08-13"</f>
-        <v>1948-08-13</v>
+        <f>"1952-07-22"</f>
+        <v>1952-07-22</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type, country) values (122, '1948-08-13', 14, 44);</v>
+        <v>insert into game (matchid, matchdate, game_type, country) values (140, '1952-07-22', 9, 358);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1952-07-23"</f>
+        <v>1952-07-23</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (141, '1952-07-23', 3, 358);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1952-07-24"</f>
+        <v>1952-07-24</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (142, '1952-07-24', 3, 358);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1952-07-24"</f>
+        <v>1952-07-24</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (143, '1952-07-24', 3, 358);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1952-07-25"</f>
+        <v>1952-07-25</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (144, '1952-07-25', 3, 358);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1952-07-28"</f>
+        <v>1952-07-28</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (145, '1952-07-28', 4, 358);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1952-07-29"</f>
+        <v>1952-07-29</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (146, '1952-07-29', 4, 358);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1952-08-01"</f>
+        <v>1952-08-01</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (147, '1952-08-01', 13, 358);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"1952-08-02"</f>
+        <v>1952-08-02</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="6">E26+1</f>
+        <v>26</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (148, '1952-08-02', 14, 358);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G21" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A21 &amp; ", " &amp; B21 &amp; ", " &amp; C21 &amp; ", " &amp; D21 &amp; ", " &amp; E21 &amp; ", " &amp; F21 &amp; ");"</f>
+      <c r="G29" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f>'1936'!A95+ 1</f>
-        <v>515</v>
-      </c>
-      <c r="B22" s="3">
-        <f>A2</f>
-        <v>105</v>
-      </c>
-      <c r="C22" s="3">
-        <v>31</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22:G89" si="5">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A22 &amp; ", " &amp; B22 &amp; ", " &amp; C22 &amp; ", " &amp; D22 &amp; ", " &amp; E22 &amp; ", " &amp; F22 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 105, 31, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <f>A22+1</f>
-        <v>516</v>
-      </c>
-      <c r="B23" s="3">
-        <f>B22</f>
-        <v>105</v>
-      </c>
-      <c r="C23" s="3">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 105, 31, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <f t="shared" ref="A24:A87" si="6">A23+1</f>
-        <v>517</v>
-      </c>
-      <c r="B24" s="3">
-        <f>B22</f>
-        <v>105</v>
-      </c>
-      <c r="C24" s="3">
-        <v>353</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 105, 353, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <f t="shared" si="6"/>
-        <v>518</v>
-      </c>
-      <c r="B25" s="3">
-        <f>B22</f>
-        <v>105</v>
-      </c>
-      <c r="C25" s="3">
-        <v>353</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 105, 353, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f t="shared" si="6"/>
-        <v>519</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B22+1</f>
-        <v>106</v>
-      </c>
-      <c r="C26" s="4">
-        <v>352</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 106, 352, 6, 2, 2);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <f t="shared" si="6"/>
-        <v>520</v>
-      </c>
-      <c r="B27" s="4">
-        <f>B26</f>
-        <v>106</v>
-      </c>
-      <c r="C27" s="4">
-        <v>352</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 106, 352, 3, 0, 1);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <f t="shared" si="6"/>
-        <v>521</v>
-      </c>
-      <c r="B28" s="4">
-        <f>B26</f>
-        <v>106</v>
-      </c>
-      <c r="C28" s="4">
-        <v>93</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 106, 93, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <f t="shared" si="6"/>
-        <v>522</v>
-      </c>
-      <c r="B29" s="4">
-        <f>B26</f>
-        <v>106</v>
-      </c>
-      <c r="C29" s="4">
-        <v>93</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 106, 93, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="6"/>
-        <v>523</v>
+        <f>'1948'!A101+ 1</f>
+        <v>595</v>
       </c>
       <c r="B30" s="3">
-        <f>B26+1</f>
-        <v>107</v>
+        <f>A2</f>
+        <v>123</v>
       </c>
       <c r="C30" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 107, 45, 1, 0, 2);</v>
+        <f t="shared" ref="G30:G101" si="7">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A30 &amp; ", " &amp; B30 &amp; ", " &amp; C30 &amp; ", " &amp; D30 &amp; ", " &amp; E30 &amp; ", " &amp; F30 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (595, 123, 38, 10, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="6"/>
-        <v>524</v>
+        <f>A30+1</f>
+        <v>596</v>
       </c>
       <c r="B31" s="3">
         <f>B30</f>
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -1503,21 +4095,21 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 107, 45, 0, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (596, 123, 38, 5, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="6"/>
-        <v>525</v>
+        <f t="shared" ref="A32:A99" si="8">A31+1</f>
+        <v>597</v>
       </c>
       <c r="B32" s="3">
         <f>B30</f>
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1529,21 +4121,21 @@
         <v>2</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 107, 20, 1, 0, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (597, 123, 91, 1, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="6"/>
-        <v>526</v>
+        <f t="shared" si="8"/>
+        <v>598</v>
       </c>
       <c r="B33" s="3">
         <f>B30</f>
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C33" s="3">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -1555,1090 +4147,1090 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 107, 20, 0, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (598, 123, 91, 0, 0, 1);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <f t="shared" si="6"/>
-        <v>527</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="4">
+        <f t="shared" si="8"/>
+        <v>599</v>
+      </c>
+      <c r="B34" s="4">
         <f>B30+1</f>
-        <v>108</v>
-      </c>
-      <c r="C34" s="3">
-        <v>45</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
-      </c>
-      <c r="G34" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (527, 108, 45, 3, 2, 4);</v>
+        <v>124</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (599, 124, 7097, 0, 0, 2);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <f t="shared" si="6"/>
-        <v>528</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="4">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="B35" s="4">
         <f>B34</f>
-        <v>108</v>
-      </c>
-      <c r="C35" s="3">
-        <v>45</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (528, 108, 45, 2, 0, 3);</v>
+        <v>124</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (600, 124, 7097, 0, 0, 1);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <f t="shared" si="6"/>
-        <v>529</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="4">
+        <f t="shared" si="8"/>
+        <v>601</v>
+      </c>
+      <c r="B36" s="4">
         <f>B34</f>
-        <v>108</v>
-      </c>
-      <c r="C36" s="3">
-        <v>20</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>4</v>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (529, 108, 20, 1, 0, 4);</v>
+        <v>124</v>
+      </c>
+      <c r="C36" s="4">
+        <v>359</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (601, 124, 359, 0, 0, 2);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <f t="shared" si="6"/>
-        <v>530</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="A37" s="4">
+        <f t="shared" si="8"/>
+        <v>602</v>
+      </c>
+      <c r="B37" s="4">
         <f>B34</f>
-        <v>108</v>
-      </c>
-      <c r="C37" s="3">
-        <v>20</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>3</v>
-      </c>
-      <c r="G37" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (530, 108, 20, 1, 0, 3);</v>
+        <v>124</v>
+      </c>
+      <c r="C37" s="4">
+        <v>359</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (602, 124, 359, 0, 0, 1);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="6"/>
-        <v>531</v>
+        <f t="shared" si="8"/>
+        <v>603</v>
       </c>
       <c r="B38" s="4">
-        <f>B30+1</f>
-        <v>108</v>
+        <f>B36</f>
+        <v>124</v>
       </c>
       <c r="C38" s="4">
-        <v>44</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
+        <v>7097</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
       </c>
       <c r="F38" s="4">
         <v>2</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 108, 44, 3, 0, 2);</v>
+        <f t="shared" ref="G38:G41" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A38 &amp; ", " &amp; B38 &amp; ", " &amp; C38 &amp; ", " &amp; D38 &amp; ", " &amp; E38 &amp; ", " &amp; F38 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 124, 7097, 2, 2, 2);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="6"/>
-        <v>532</v>
+        <f t="shared" si="8"/>
+        <v>604</v>
       </c>
       <c r="B39" s="4">
-        <f>B38</f>
-        <v>108</v>
+        <f>B36</f>
+        <v>124</v>
       </c>
       <c r="C39" s="4">
-        <v>44</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
+        <v>7097</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
         <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 108, 44, 1, 0, 1);</v>
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 124, 7097, 2, 0, 1);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="6"/>
-        <v>533</v>
+        <f t="shared" si="8"/>
+        <v>605</v>
       </c>
       <c r="B40" s="4">
         <f>B38</f>
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4">
-        <v>31</v>
-      </c>
-      <c r="D40" s="6">
-        <v>3</v>
-      </c>
-      <c r="E40" s="6">
+        <v>359</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
         <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>2</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 108, 31, 3, 0, 2);</v>
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 124, 359, 1, 0, 2);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="6"/>
-        <v>534</v>
+        <f t="shared" si="8"/>
+        <v>606</v>
       </c>
       <c r="B41" s="4">
         <f>B38</f>
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C41" s="4">
+        <v>359</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 124, 359, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="8"/>
+        <v>607</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B34+1</f>
+        <v>125</v>
+      </c>
+      <c r="C42" s="3">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (607, 125, 40, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="8"/>
+        <v>608</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B42</f>
+        <v>125</v>
+      </c>
+      <c r="C43" s="3">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (608, 125, 40, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="8"/>
+        <v>609</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B42</f>
+        <v>125</v>
+      </c>
+      <c r="C44" s="3">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (609, 125, 36, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="8"/>
+        <v>610</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B42</f>
+        <v>125</v>
+      </c>
+      <c r="C45" s="3">
+        <v>36</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (610, 125, 36, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="8"/>
+        <v>611</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B42+1</f>
+        <v>126</v>
+      </c>
+      <c r="C46" s="4">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (611, 126, 45, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="8"/>
+        <v>612</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B46</f>
+        <v>126</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (612, 126, 45, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="8"/>
+        <v>613</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B46</f>
+        <v>126</v>
+      </c>
+      <c r="C48" s="4">
+        <v>30</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (613, 126, 30, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="8"/>
+        <v>614</v>
+      </c>
+      <c r="B49" s="4">
+        <f>B46</f>
+        <v>126</v>
+      </c>
+      <c r="C49" s="4">
+        <v>30</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (614, 126, 30, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="8"/>
+        <v>615</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B46+1</f>
+        <v>127</v>
+      </c>
+      <c r="C50" s="3">
+        <v>48</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (615, 127, 48, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="8"/>
+        <v>616</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B50</f>
+        <v>127</v>
+      </c>
+      <c r="C51" s="3">
+        <v>48</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (616, 127, 48, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="8"/>
+        <v>617</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B50</f>
+        <v>127</v>
+      </c>
+      <c r="C52" s="3">
+        <v>33</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (617, 127, 33, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="8"/>
+        <v>618</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B50</f>
+        <v>127</v>
+      </c>
+      <c r="C53" s="3">
+        <v>33</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (618, 127, 33, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="8"/>
+        <v>619</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B50+1</f>
+        <v>128</v>
+      </c>
+      <c r="C54" s="4">
+        <v>20</v>
+      </c>
+      <c r="D54" s="6">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (619, 128, 20, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="8"/>
+        <v>620</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B54</f>
+        <v>128</v>
+      </c>
+      <c r="C55" s="4">
+        <v>20</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (620, 128, 20, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="8"/>
+        <v>621</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B54</f>
+        <v>128</v>
+      </c>
+      <c r="C56" s="4">
+        <v>56</v>
+      </c>
+      <c r="D56" s="6">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (621, 128, 56, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="8"/>
+        <v>622</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B54</f>
+        <v>128</v>
+      </c>
+      <c r="C57" s="4">
+        <v>56</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (622, 128, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="8"/>
+        <v>623</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B54+1</f>
+        <v>129</v>
+      </c>
+      <c r="C58" s="3">
         <v>31</v>
       </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 108, 31, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <f t="shared" si="6"/>
-        <v>535</v>
-      </c>
-      <c r="B42" s="4">
-        <f>B39</f>
-        <v>108</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (623, 129, 31, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="8"/>
+        <v>624</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B58</f>
+        <v>129</v>
+      </c>
+      <c r="C59" s="3">
+        <v>31</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (624, 129, 31, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="8"/>
+        <v>625</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B58</f>
+        <v>129</v>
+      </c>
+      <c r="C60" s="3">
+        <v>55</v>
+      </c>
+      <c r="D60" s="5">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (625, 129, 55, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="8"/>
+        <v>626</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B58</f>
+        <v>129</v>
+      </c>
+      <c r="C61" s="3">
+        <v>55</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (626, 129, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="8"/>
+        <v>627</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B58+1</f>
+        <v>130</v>
+      </c>
+      <c r="C62" s="6">
+        <v>39</v>
+      </c>
+      <c r="D62" s="6">
+        <v>8</v>
+      </c>
+      <c r="E62" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (627, 130, 39, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="8"/>
+        <v>628</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B62</f>
+        <v>130</v>
+      </c>
+      <c r="C63" s="6">
+        <v>39</v>
+      </c>
+      <c r="D63" s="6">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (628, 130, 39, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="8"/>
+        <v>629</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B62</f>
+        <v>130</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (629, 130, 1, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="8"/>
+        <v>630</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B62</f>
+        <v>130</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (630, 130, 1, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="8"/>
+        <v>631</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B62+1</f>
+        <v>131</v>
+      </c>
+      <c r="C66" s="3">
+        <v>352</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (631, 131, 352, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="8"/>
+        <v>632</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B66</f>
+        <v>131</v>
+      </c>
+      <c r="C67" s="3">
+        <v>352</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (632, 131, 352, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="8"/>
+        <v>633</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B66</f>
+        <v>131</v>
+      </c>
+      <c r="C68" s="3">
         <v>44</v>
       </c>
-      <c r="D42" s="6">
-        <v>4</v>
-      </c>
-      <c r="E42" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4">
-        <v>4</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (535, 108, 44, 4, 2, 4);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <f t="shared" si="6"/>
-        <v>536</v>
-      </c>
-      <c r="B43" s="4">
-        <f>B40</f>
-        <v>108</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (633, 131, 44, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="8"/>
+        <v>634</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B66</f>
+        <v>131</v>
+      </c>
+      <c r="C69" s="3">
         <v>44</v>
       </c>
-      <c r="D43" s="6">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>3</v>
-      </c>
-      <c r="G43" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (536, 108, 44, 3, 0, 3);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <f t="shared" si="6"/>
-        <v>537</v>
-      </c>
-      <c r="B44" s="4">
-        <f>B41</f>
-        <v>108</v>
-      </c>
-      <c r="C44" s="4">
-        <v>31</v>
-      </c>
-      <c r="D44" s="6">
-        <v>3</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>4</v>
-      </c>
-      <c r="G44" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (537, 108, 31, 3, 0, 4);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <f t="shared" si="6"/>
-        <v>538</v>
-      </c>
-      <c r="B45" s="4">
-        <f>B42</f>
-        <v>108</v>
-      </c>
-      <c r="C45" s="4">
-        <v>31</v>
-      </c>
-      <c r="D45" s="6">
-        <v>3</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>3</v>
-      </c>
-      <c r="G45" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (538, 108, 31, 3, 0, 3);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f t="shared" si="6"/>
-        <v>539</v>
-      </c>
-      <c r="B46" s="3">
-        <f>B38+1</f>
-        <v>109</v>
-      </c>
-      <c r="C46" s="3">
-        <v>33</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 109, 33, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <f t="shared" si="6"/>
-        <v>540</v>
-      </c>
-      <c r="B47" s="3">
-        <f>B46</f>
-        <v>109</v>
-      </c>
-      <c r="C47" s="3">
-        <v>33</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 109, 33, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <f t="shared" si="6"/>
-        <v>541</v>
-      </c>
-      <c r="B48" s="3">
-        <f>B46</f>
-        <v>109</v>
-      </c>
-      <c r="C48" s="3">
-        <v>91</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 109, 91, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <f t="shared" si="6"/>
-        <v>542</v>
-      </c>
-      <c r="B49" s="3">
-        <f>B46</f>
-        <v>109</v>
-      </c>
-      <c r="C49" s="3">
-        <v>91</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 109, 91, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <f t="shared" si="6"/>
-        <v>543</v>
-      </c>
-      <c r="B50" s="4">
-        <f>B46+1</f>
-        <v>110</v>
-      </c>
-      <c r="C50" s="4">
-        <v>38</v>
-      </c>
-      <c r="D50" s="6">
-        <v>8</v>
-      </c>
-      <c r="E50" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (543, 110, 38, 8, 2, 2);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <f t="shared" si="6"/>
-        <v>544</v>
-      </c>
-      <c r="B51" s="4">
-        <f>B50</f>
-        <v>110</v>
-      </c>
-      <c r="C51" s="4">
-        <v>39</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (544, 110, 39, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <f t="shared" si="6"/>
-        <v>545</v>
-      </c>
-      <c r="B52" s="4">
-        <f>B50</f>
-        <v>110</v>
-      </c>
-      <c r="C52" s="4">
-        <v>352</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2</v>
-      </c>
-      <c r="G52" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (545, 110, 352, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <f t="shared" si="6"/>
-        <v>546</v>
-      </c>
-      <c r="B53" s="4">
-        <f>B50</f>
-        <v>110</v>
-      </c>
-      <c r="C53" s="4">
-        <v>352</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (546, 110, 352, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <f t="shared" si="6"/>
-        <v>547</v>
-      </c>
-      <c r="B54" s="3">
-        <f>B50+1</f>
-        <v>111</v>
-      </c>
-      <c r="C54" s="3">
-        <v>90</v>
-      </c>
-      <c r="D54" s="5">
-        <v>4</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2</v>
-      </c>
-      <c r="G54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 111, 90, 4, 2, 2);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f t="shared" si="6"/>
-        <v>548</v>
-      </c>
-      <c r="B55" s="3">
-        <f>B54</f>
-        <v>111</v>
-      </c>
-      <c r="C55" s="3">
-        <v>90</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 111, 90, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <f t="shared" si="6"/>
-        <v>549</v>
-      </c>
-      <c r="B56" s="3">
-        <f>B54</f>
-        <v>111</v>
-      </c>
-      <c r="C56" s="3">
-        <v>86</v>
-      </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>2</v>
-      </c>
-      <c r="G56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 111, 86, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <f t="shared" si="6"/>
-        <v>550</v>
-      </c>
-      <c r="B57" s="3">
-        <f>B54</f>
-        <v>111</v>
-      </c>
-      <c r="C57" s="3">
-        <v>86</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 111, 86, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <f t="shared" si="6"/>
-        <v>551</v>
-      </c>
-      <c r="B58" s="4">
-        <f>B54+1</f>
-        <v>112</v>
-      </c>
-      <c r="C58" s="6">
-        <v>46</v>
-      </c>
-      <c r="D58" s="6">
-        <v>3</v>
-      </c>
-      <c r="E58" s="6">
-        <v>2</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (551, 112, 46, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <f t="shared" si="6"/>
-        <v>552</v>
-      </c>
-      <c r="B59" s="4">
-        <f>B58</f>
-        <v>112</v>
-      </c>
-      <c r="C59" s="6">
-        <v>46</v>
-      </c>
-      <c r="D59" s="6">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (552, 112, 46, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <f t="shared" si="6"/>
-        <v>553</v>
-      </c>
-      <c r="B60" s="4">
-        <f>B58</f>
-        <v>112</v>
-      </c>
-      <c r="C60" s="6">
-        <v>43</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>2</v>
-      </c>
-      <c r="G60" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (553, 112, 43, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <f t="shared" si="6"/>
-        <v>554</v>
-      </c>
-      <c r="B61" s="4">
-        <f>B58</f>
-        <v>112</v>
-      </c>
-      <c r="C61" s="6">
-        <v>43</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (554, 112, 43, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <f t="shared" si="6"/>
-        <v>555</v>
-      </c>
-      <c r="B62" s="3">
-        <f>B58+1</f>
-        <v>113</v>
-      </c>
-      <c r="C62" s="3">
-        <v>52</v>
-      </c>
-      <c r="D62" s="5">
-        <v>3</v>
-      </c>
-      <c r="E62" s="5">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2</v>
-      </c>
-      <c r="G62" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 113, 52, 3, 0, 2);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <f t="shared" si="6"/>
-        <v>556</v>
-      </c>
-      <c r="B63" s="3">
-        <f>B62</f>
-        <v>113</v>
-      </c>
-      <c r="C63" s="3">
-        <v>52</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 113, 52, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <f t="shared" si="6"/>
-        <v>557</v>
-      </c>
-      <c r="B64" s="3">
-        <f>B62</f>
-        <v>113</v>
-      </c>
-      <c r="C64" s="3">
-        <v>82</v>
-      </c>
-      <c r="D64" s="5">
-        <v>5</v>
-      </c>
-      <c r="E64" s="5">
-        <v>2</v>
-      </c>
-      <c r="F64" s="3">
-        <v>2</v>
-      </c>
-      <c r="G64" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 113, 82, 5, 2, 2);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <f t="shared" si="6"/>
-        <v>558</v>
-      </c>
-      <c r="B65" s="3">
-        <f>B62</f>
-        <v>113</v>
-      </c>
-      <c r="C65" s="3">
-        <v>82</v>
-      </c>
-      <c r="D65" s="5">
-        <v>2</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 113, 82, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <f t="shared" si="6"/>
-        <v>559</v>
-      </c>
-      <c r="B66" s="4">
-        <f>B62+1</f>
-        <v>114</v>
-      </c>
-      <c r="C66" s="4">
-        <v>39</v>
-      </c>
-      <c r="D66" s="6">
-        <v>9</v>
-      </c>
-      <c r="E66" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" s="4">
-        <v>2</v>
-      </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (559, 114, 39, 9, 2, 2);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <f t="shared" si="6"/>
-        <v>560</v>
-      </c>
-      <c r="B67" s="4">
-        <f>B66</f>
-        <v>114</v>
-      </c>
-      <c r="C67" s="4">
-        <v>39</v>
-      </c>
-      <c r="D67" s="6">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (560, 114, 39, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <f t="shared" si="6"/>
-        <v>561</v>
-      </c>
-      <c r="B68" s="4">
-        <f>B66</f>
-        <v>114</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6">
-        <v>0</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>2</v>
-      </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (561, 114, 1, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <f t="shared" si="6"/>
-        <v>562</v>
-      </c>
-      <c r="B69" s="4">
-        <f>B66</f>
-        <v>114</v>
-      </c>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (562, 114, 1, 0, 0, 1);</v>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (634, 131, 44, 1, 0, 1);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f t="shared" si="6"/>
-        <v>563</v>
+        <f t="shared" si="8"/>
+        <v>635</v>
       </c>
       <c r="B70" s="3">
-        <f>B66+1</f>
-        <v>115</v>
+        <f>B67</f>
+        <v>131</v>
       </c>
       <c r="C70" s="3">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E70" s="5">
         <v>2</v>
       </c>
       <c r="F70" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 115, 44, 1, 2, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (635, 131, 352, 5, 2, 4);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <f t="shared" si="6"/>
-        <v>564</v>
+        <f t="shared" si="8"/>
+        <v>636</v>
       </c>
       <c r="B71" s="3">
-        <f>B70</f>
-        <v>115</v>
+        <f>B68</f>
+        <v>131</v>
       </c>
       <c r="C71" s="3">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="D71" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
       </c>
       <c r="F71" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 115, 44, 1, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (636, 131, 352, 5, 0, 3);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <f t="shared" si="6"/>
-        <v>565</v>
+        <f t="shared" si="8"/>
+        <v>637</v>
       </c>
       <c r="B72" s="3">
-        <f>B70</f>
-        <v>115</v>
+        <f>B69</f>
+        <v>131</v>
       </c>
       <c r="C72" s="3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D72" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
       </c>
       <c r="F72" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 115, 33, 0, 0, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (637, 131, 44, 3, 0, 4);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <f t="shared" si="6"/>
-        <v>566</v>
+        <f t="shared" si="8"/>
+        <v>638</v>
       </c>
       <c r="B73" s="3">
         <f>B70</f>
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C73" s="3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D73" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
       </c>
       <c r="F73" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 115, 33, 0, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (638, 131, 44, 2, 0, 3);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f t="shared" si="6"/>
-        <v>567</v>
+        <f t="shared" si="8"/>
+        <v>639</v>
       </c>
       <c r="B74" s="4">
-        <f>B70+1</f>
-        <v>116</v>
+        <f>B66+1</f>
+        <v>132</v>
       </c>
       <c r="C74" s="4">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="D74" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (567, 116, 45, 5, 2, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (639, 132, 358, 3, 0, 2);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <f t="shared" si="6"/>
-        <v>568</v>
+        <f t="shared" si="8"/>
+        <v>640</v>
       </c>
       <c r="B75" s="4">
         <f>B74</f>
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="D75" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
@@ -2647,50 +5239,50 @@
         <v>1</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (568, 116, 45, 1, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (640, 132, 358, 3, 0, 1);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <f t="shared" si="6"/>
-        <v>569</v>
+        <f t="shared" si="8"/>
+        <v>641</v>
       </c>
       <c r="B76" s="4">
         <f>B74</f>
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C76" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D76" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (569, 116, 39, 3, 0, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (641, 132, 43, 4, 2, 2);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f>A76+1</f>
-        <v>570</v>
+        <f t="shared" si="8"/>
+        <v>642</v>
       </c>
       <c r="B77" s="4">
         <f>B74</f>
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C77" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D77" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
@@ -2699,24 +5291,24 @@
         <v>1</v>
       </c>
       <c r="G77" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (570, 116, 39, 0, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (642, 132, 43, 2, 0, 1);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f t="shared" si="6"/>
-        <v>571</v>
+        <f t="shared" si="8"/>
+        <v>643</v>
       </c>
       <c r="B78" s="3">
         <f>B74+1</f>
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C78" s="3">
-        <v>46</v>
+        <v>49228</v>
       </c>
       <c r="D78" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E78" s="5">
         <v>2</v>
@@ -2725,24 +5317,24 @@
         <v>2</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 117, 46, 12, 2, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (643, 133, 49228, 3, 2, 2);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <f t="shared" si="6"/>
-        <v>572</v>
+        <f t="shared" si="8"/>
+        <v>644</v>
       </c>
       <c r="B79" s="3">
         <f>B78</f>
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C79" s="3">
-        <v>46</v>
+        <v>49228</v>
       </c>
       <c r="D79" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -2751,24 +5343,24 @@
         <v>1</v>
       </c>
       <c r="G79" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 117, 46, 4, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (644, 133, 49228, 2, 0, 1);</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <f t="shared" si="6"/>
-        <v>573</v>
+        <f t="shared" si="8"/>
+        <v>645</v>
       </c>
       <c r="B80" s="3">
         <f>B78</f>
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C80" s="3">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -2777,21 +5369,21 @@
         <v>2</v>
       </c>
       <c r="G80" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 117, 82, 0, 0, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (645, 133, 20, 1, 0, 2);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <f t="shared" si="6"/>
-        <v>574</v>
+        <f t="shared" si="8"/>
+        <v>646</v>
       </c>
       <c r="B81" s="3">
         <f>B78</f>
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C81" s="3">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
@@ -2803,24 +5395,24 @@
         <v>1</v>
       </c>
       <c r="G81" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 117, 82, 0, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (646, 133, 20, 0, 0, 1);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f t="shared" si="6"/>
-        <v>575</v>
+        <f t="shared" si="8"/>
+        <v>647</v>
       </c>
       <c r="B82" s="4">
         <f>B78+1</f>
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C82" s="4">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D82" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
@@ -2829,24 +5421,24 @@
         <v>2</v>
       </c>
       <c r="G82" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (575, 118, 90, 1, 0, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (647, 134, 38, 5, 0, 2);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <f t="shared" si="6"/>
-        <v>576</v>
+        <f t="shared" si="8"/>
+        <v>648</v>
       </c>
       <c r="B83" s="4">
         <f>B82</f>
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C83" s="4">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D83" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
@@ -2855,476 +5447,1724 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (576, 118, 90, 1, 0, 1);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (648, 134, 38, 3, 0, 1);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <f t="shared" si="6"/>
-        <v>577</v>
+        <f t="shared" si="8"/>
+        <v>649</v>
       </c>
       <c r="B84" s="4">
         <f>B82</f>
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C84" s="4">
-        <v>38</v>
+        <v>7097</v>
       </c>
       <c r="D84" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E84" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4">
         <v>2</v>
       </c>
       <c r="G84" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (577, 118, 38, 3, 2, 2);</v>
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (649, 134, 7097, 5, 0, 2);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <f t="shared" si="6"/>
-        <v>578</v>
+        <f t="shared" ref="A85:A90" si="10">A84+1</f>
+        <v>650</v>
       </c>
       <c r="B85" s="4">
         <f>B82</f>
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (650, 134, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="10"/>
+        <v>651</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B83</f>
+        <v>134</v>
+      </c>
+      <c r="C86" s="4">
         <v>38</v>
       </c>
-      <c r="D85" s="6">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4">
-        <v>1</v>
-      </c>
-      <c r="G85" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (578, 118, 38, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <f t="shared" si="6"/>
-        <v>579</v>
-      </c>
-      <c r="B86" s="3">
+      <c r="D86" s="6">
+        <v>5</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <v>4</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (651, 134, 38, 5, 1, 4);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="10"/>
+        <v>652</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B84</f>
+        <v>134</v>
+      </c>
+      <c r="C87" s="4">
+        <v>38</v>
+      </c>
+      <c r="D87" s="6">
+        <v>5</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6">
+        <v>3</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (652, 134, 38, 5, 0, 3);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="10"/>
+        <v>653</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B85</f>
+        <v>134</v>
+      </c>
+      <c r="C88" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D88" s="6">
+        <v>5</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
+        <v>4</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (653, 134, 7097, 5, 1, 4);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="10"/>
+        <v>654</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B86</f>
+        <v>134</v>
+      </c>
+      <c r="C89" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D89" s="6">
+        <v>5</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
+        <v>3</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (654, 134, 7097, 5, 0, 3);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="10"/>
+        <v>655</v>
+      </c>
+      <c r="B90" s="3">
         <f>B82+1</f>
-        <v>119</v>
-      </c>
-      <c r="C86" s="3">
+        <v>135</v>
+      </c>
+      <c r="C90" s="3">
+        <v>55</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (655, 135, 55, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="8"/>
+        <v>656</v>
+      </c>
+      <c r="B91" s="3">
+        <f>B90</f>
+        <v>135</v>
+      </c>
+      <c r="C91" s="3">
+        <v>55</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (656, 135, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="8"/>
+        <v>657</v>
+      </c>
+      <c r="B92" s="3">
+        <f>B90</f>
+        <v>135</v>
+      </c>
+      <c r="C92" s="3">
+        <v>352</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (657, 135, 352, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="8"/>
+        <v>658</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B90</f>
+        <v>135</v>
+      </c>
+      <c r="C93" s="3">
+        <v>352</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (658, 135, 352, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="8"/>
+        <v>659</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B90+1</f>
+        <v>136</v>
+      </c>
+      <c r="C94" s="4">
+        <v>36</v>
+      </c>
+      <c r="D94" s="6">
+        <v>3</v>
+      </c>
+      <c r="E94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="4">
+        <v>2</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (659, 136, 36, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="8"/>
+        <v>660</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B94</f>
+        <v>136</v>
+      </c>
+      <c r="C95" s="4">
+        <v>36</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (660, 136, 36, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="8"/>
+        <v>661</v>
+      </c>
+      <c r="B96" s="4">
+        <f>B94</f>
+        <v>136</v>
+      </c>
+      <c r="C96" s="4">
+        <v>39</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>2</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (661, 136, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="8"/>
+        <v>662</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B94</f>
+        <v>136</v>
+      </c>
+      <c r="C97" s="4">
+        <v>39</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (662, 136, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" si="8"/>
+        <v>663</v>
+      </c>
+      <c r="B98" s="3">
+        <f>B94+1</f>
+        <v>137</v>
+      </c>
+      <c r="C98" s="3">
         <v>45</v>
       </c>
-      <c r="D86" s="5">
-        <v>2</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>2</v>
-      </c>
-      <c r="G86" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 119, 45, 2, 0, 2);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <f t="shared" si="6"/>
-        <v>580</v>
-      </c>
-      <c r="B87" s="3">
-        <f>B86</f>
-        <v>119</v>
-      </c>
-      <c r="C87" s="3">
+      <c r="D98" s="5">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5">
+        <v>2</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (663, 137, 45, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f t="shared" si="8"/>
+        <v>664</v>
+      </c>
+      <c r="B99" s="3">
+        <f>B98</f>
+        <v>137</v>
+      </c>
+      <c r="C99" s="3">
         <v>45</v>
       </c>
-      <c r="D87" s="5">
-        <v>1</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 119, 45, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <f t="shared" ref="A88:A101" si="7">A87+1</f>
-        <v>581</v>
-      </c>
-      <c r="B88" s="3">
-        <f>B86</f>
-        <v>119</v>
-      </c>
-      <c r="C88" s="3">
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (664, 137, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f t="shared" ref="A100:A149" si="11">A99+1</f>
+        <v>665</v>
+      </c>
+      <c r="B100" s="3">
+        <f>B98</f>
+        <v>137</v>
+      </c>
+      <c r="C100" s="3">
+        <v>48</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (665, 137, 48, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f t="shared" si="11"/>
+        <v>666</v>
+      </c>
+      <c r="B101" s="3">
+        <f>B98</f>
+        <v>137</v>
+      </c>
+      <c r="C101" s="3">
+        <v>48</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (666, 137, 48, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f t="shared" si="11"/>
+        <v>667</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B98+1</f>
+        <v>138</v>
+      </c>
+      <c r="C102" s="4">
         <v>46</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D102" s="6">
         <v>4</v>
       </c>
-      <c r="E88" s="5">
-        <v>2</v>
-      </c>
-      <c r="F88" s="3">
-        <v>2</v>
-      </c>
-      <c r="G88" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 119, 46, 4, 2, 2);</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <f t="shared" si="7"/>
-        <v>582</v>
-      </c>
-      <c r="B89" s="3">
-        <f>B86</f>
-        <v>119</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="E102" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" ref="G102:G137" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A102 &amp; ", " &amp; B102 &amp; ", " &amp; C102 &amp; ", " &amp; D102 &amp; ", " &amp; E102 &amp; ", " &amp; F102 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (667, 138, 46, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f t="shared" si="11"/>
+        <v>668</v>
+      </c>
+      <c r="B103" s="4">
+        <f>B102</f>
+        <v>138</v>
+      </c>
+      <c r="C103" s="4">
         <v>46</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D103" s="6">
+        <v>2</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (668, 138, 46, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <f t="shared" si="11"/>
+        <v>669</v>
+      </c>
+      <c r="B104" s="4">
+        <f>B102</f>
+        <v>138</v>
+      </c>
+      <c r="C104" s="4">
+        <v>47</v>
+      </c>
+      <c r="D104" s="6">
+        <v>1</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>2</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (669, 138, 47, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <f t="shared" si="11"/>
+        <v>670</v>
+      </c>
+      <c r="B105" s="4">
+        <f>B102</f>
+        <v>138</v>
+      </c>
+      <c r="C105" s="4">
+        <v>47</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (670, 138, 47, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f t="shared" si="11"/>
+        <v>671</v>
+      </c>
+      <c r="B106" s="3">
+        <f>B102+1</f>
+        <v>139</v>
+      </c>
+      <c r="C106" s="3">
+        <v>90</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2</v>
+      </c>
+      <c r="E106" s="5">
+        <v>2</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2</v>
+      </c>
+      <c r="G106" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (671, 139, 90, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f t="shared" si="11"/>
+        <v>672</v>
+      </c>
+      <c r="B107" s="3">
+        <f>B106</f>
+        <v>139</v>
+      </c>
+      <c r="C107" s="3">
+        <v>90</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (672, 139, 90, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f t="shared" si="11"/>
+        <v>673</v>
+      </c>
+      <c r="B108" s="3">
+        <f>B106</f>
+        <v>139</v>
+      </c>
+      <c r="C108" s="3">
+        <v>599</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2</v>
+      </c>
+      <c r="G108" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (673, 139, 599, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f t="shared" si="11"/>
+        <v>674</v>
+      </c>
+      <c r="B109" s="3">
+        <f>B106</f>
+        <v>139</v>
+      </c>
+      <c r="C109" s="3">
+        <v>599</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (674, 139, 599, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <f t="shared" si="11"/>
+        <v>675</v>
+      </c>
+      <c r="B110" s="4">
+        <f>B106+1</f>
+        <v>140</v>
+      </c>
+      <c r="C110" s="4">
+        <v>38</v>
+      </c>
+      <c r="D110" s="6">
+        <v>3</v>
+      </c>
+      <c r="E110" s="6">
+        <v>2</v>
+      </c>
+      <c r="F110" s="4">
+        <v>2</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (675, 140, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <f t="shared" si="11"/>
+        <v>676</v>
+      </c>
+      <c r="B111" s="4">
+        <f>B110</f>
+        <v>140</v>
+      </c>
+      <c r="C111" s="4">
+        <v>39</v>
+      </c>
+      <c r="D111" s="6">
+        <v>2</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (676, 140, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <f t="shared" si="11"/>
+        <v>677</v>
+      </c>
+      <c r="B112" s="4">
+        <f>B110</f>
+        <v>140</v>
+      </c>
+      <c r="C112" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (677, 140, 7097, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <f t="shared" si="11"/>
+        <v>678</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B110</f>
+        <v>140</v>
+      </c>
+      <c r="C113" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (678, 140, 7097, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f t="shared" si="11"/>
+        <v>679</v>
+      </c>
+      <c r="B114" s="3">
+        <f>B110+1</f>
+        <v>141</v>
+      </c>
+      <c r="C114" s="3">
+        <v>46</v>
+      </c>
+      <c r="D114" s="5">
+        <v>3</v>
+      </c>
+      <c r="E114" s="5">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (679, 141, 46, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f t="shared" si="11"/>
+        <v>680</v>
+      </c>
+      <c r="B115" s="3">
+        <f>B114</f>
+        <v>141</v>
+      </c>
+      <c r="C115" s="3">
+        <v>46</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (680, 141, 46, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f t="shared" si="11"/>
+        <v>681</v>
+      </c>
+      <c r="B116" s="3">
+        <f>B114</f>
+        <v>141</v>
+      </c>
+      <c r="C116" s="3">
+        <v>43</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2</v>
+      </c>
+      <c r="G116" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (681, 141, 43, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f t="shared" si="11"/>
+        <v>682</v>
+      </c>
+      <c r="B117" s="3">
+        <f>B114</f>
+        <v>141</v>
+      </c>
+      <c r="C117" s="3">
+        <v>43</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (682, 141, 43, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <f t="shared" si="11"/>
+        <v>683</v>
+      </c>
+      <c r="B118" s="4">
+        <f>B114+1</f>
+        <v>142</v>
+      </c>
+      <c r="C118" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D118" s="6">
+        <v>2</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>2</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (683, 142, 49228, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <f t="shared" si="11"/>
+        <v>684</v>
+      </c>
+      <c r="B119" s="4">
+        <f>B118</f>
+        <v>142</v>
+      </c>
+      <c r="C119" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (684, 142, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <f t="shared" si="11"/>
+        <v>685</v>
+      </c>
+      <c r="B120" s="4">
+        <f>B118</f>
+        <v>142</v>
+      </c>
+      <c r="C120" s="4">
+        <v>55</v>
+      </c>
+      <c r="D120" s="6">
+        <v>2</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>2</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (685, 142, 55, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f t="shared" ref="A121:A126" si="13">A120+1</f>
+        <v>686</v>
+      </c>
+      <c r="B121" s="4">
+        <f>B118</f>
+        <v>142</v>
+      </c>
+      <c r="C121" s="4">
+        <v>55</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (686, 142, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <f t="shared" si="13"/>
+        <v>687</v>
+      </c>
+      <c r="B122" s="4">
+        <f>B119</f>
+        <v>142</v>
+      </c>
+      <c r="C122" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D122" s="6">
         <v>4</v>
       </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 119, 46, 4, 0, 1);</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <f t="shared" si="7"/>
-        <v>583</v>
-      </c>
-      <c r="B90" s="4">
-        <f>B86+1</f>
-        <v>120</v>
-      </c>
-      <c r="C90" s="4">
-        <v>44</v>
-      </c>
-      <c r="D90" s="6">
-        <v>1</v>
-      </c>
-      <c r="E90" s="6">
-        <v>0</v>
-      </c>
-      <c r="F90" s="4">
-        <v>2</v>
-      </c>
-      <c r="G90" s="4" t="str">
-        <f t="shared" ref="G90:G97" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A90 &amp; ", " &amp; B90 &amp; ", " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (583, 120, 44, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <f t="shared" si="7"/>
-        <v>584</v>
-      </c>
-      <c r="B91" s="4">
-        <f>B90</f>
-        <v>120</v>
-      </c>
-      <c r="C91" s="4">
-        <v>44</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1</v>
-      </c>
-      <c r="E91" s="6">
-        <v>0</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1</v>
-      </c>
-      <c r="G91" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (584, 120, 44, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <f t="shared" si="7"/>
-        <v>585</v>
-      </c>
-      <c r="B92" s="4">
-        <f>B90</f>
-        <v>120</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="E122" s="6">
+        <v>2</v>
+      </c>
+      <c r="F122" s="4">
+        <v>4</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (687, 142, 49228, 4, 2, 4);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <f t="shared" si="13"/>
+        <v>688</v>
+      </c>
+      <c r="B123" s="4">
+        <f>B120</f>
+        <v>142</v>
+      </c>
+      <c r="C123" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D123" s="6">
+        <v>3</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="4">
+        <v>3</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (688, 142, 49228, 3, 0, 3);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <f t="shared" si="13"/>
+        <v>689</v>
+      </c>
+      <c r="B124" s="4">
+        <f>B121</f>
+        <v>142</v>
+      </c>
+      <c r="C124" s="4">
+        <v>55</v>
+      </c>
+      <c r="D124" s="6">
+        <v>2</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>4</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 142, 55, 2, 0, 4);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <f t="shared" si="13"/>
+        <v>690</v>
+      </c>
+      <c r="B125" s="4">
+        <f>B122</f>
+        <v>142</v>
+      </c>
+      <c r="C125" s="4">
+        <v>55</v>
+      </c>
+      <c r="D125" s="6">
+        <v>2</v>
+      </c>
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>3</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 142, 55, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f t="shared" si="13"/>
+        <v>691</v>
+      </c>
+      <c r="B126" s="3">
+        <f>B118+1</f>
+        <v>143</v>
+      </c>
+      <c r="C126" s="3">
+        <v>36</v>
+      </c>
+      <c r="D126" s="5">
+        <v>7</v>
+      </c>
+      <c r="E126" s="5">
+        <v>2</v>
+      </c>
+      <c r="F126" s="3">
+        <v>2</v>
+      </c>
+      <c r="G126" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 143, 36, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f t="shared" si="11"/>
+        <v>692</v>
+      </c>
+      <c r="B127" s="3">
+        <f>B126</f>
+        <v>143</v>
+      </c>
+      <c r="C127" s="3">
+        <v>36</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 143, 36, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f t="shared" si="11"/>
+        <v>693</v>
+      </c>
+      <c r="B128" s="3">
+        <f>B126</f>
+        <v>143</v>
+      </c>
+      <c r="C128" s="3">
+        <v>90</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 143, 90, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f t="shared" si="11"/>
+        <v>694</v>
+      </c>
+      <c r="B129" s="3">
+        <f>B126</f>
+        <v>143</v>
+      </c>
+      <c r="C129" s="3">
+        <v>90</v>
+      </c>
+      <c r="D129" s="5">
+        <v>0</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 143, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <f t="shared" si="11"/>
+        <v>695</v>
+      </c>
+      <c r="B130" s="4">
+        <f>B126+1</f>
+        <v>144</v>
+      </c>
+      <c r="C130" s="4">
         <v>38</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D130" s="6">
+        <v>5</v>
+      </c>
+      <c r="E130" s="6">
+        <v>2</v>
+      </c>
+      <c r="F130" s="4">
+        <v>2</v>
+      </c>
+      <c r="G130" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 144, 38, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <f t="shared" si="11"/>
+        <v>696</v>
+      </c>
+      <c r="B131" s="4">
+        <f>B130</f>
+        <v>144</v>
+      </c>
+      <c r="C131" s="4">
+        <v>38</v>
+      </c>
+      <c r="D131" s="6">
         <v>3</v>
       </c>
-      <c r="E92" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" s="4">
-        <v>2</v>
-      </c>
-      <c r="G92" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (585, 120, 38, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <f t="shared" si="7"/>
-        <v>586</v>
-      </c>
-      <c r="B93" s="4">
-        <f>B90</f>
-        <v>120</v>
-      </c>
-      <c r="C93" s="4">
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="4">
+        <v>1</v>
+      </c>
+      <c r="G131" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 144, 38, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <f t="shared" si="11"/>
+        <v>697</v>
+      </c>
+      <c r="B132" s="4">
+        <f>B130</f>
+        <v>144</v>
+      </c>
+      <c r="C132" s="4">
+        <v>45</v>
+      </c>
+      <c r="D132" s="6">
+        <v>3</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>2</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 144, 45, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <f t="shared" si="11"/>
+        <v>698</v>
+      </c>
+      <c r="B133" s="4">
+        <f>B130</f>
+        <v>144</v>
+      </c>
+      <c r="C133" s="4">
+        <v>45</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 144, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <f t="shared" si="11"/>
+        <v>699</v>
+      </c>
+      <c r="B134" s="3">
+        <f>B130+1</f>
+        <v>145</v>
+      </c>
+      <c r="C134" s="3">
+        <v>36</v>
+      </c>
+      <c r="D134" s="5">
+        <v>6</v>
+      </c>
+      <c r="E134" s="5">
+        <v>2</v>
+      </c>
+      <c r="F134" s="3">
+        <v>2</v>
+      </c>
+      <c r="G134" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 145, 36, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="B135" s="3">
+        <f>B134</f>
+        <v>145</v>
+      </c>
+      <c r="C135" s="3">
+        <v>36</v>
+      </c>
+      <c r="D135" s="5">
+        <v>3</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 145, 36, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f t="shared" si="11"/>
+        <v>701</v>
+      </c>
+      <c r="B136" s="3">
+        <f>B134</f>
+        <v>145</v>
+      </c>
+      <c r="C136" s="3">
+        <v>46</v>
+      </c>
+      <c r="D136" s="5">
+        <v>0</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>2</v>
+      </c>
+      <c r="G136" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (701, 145, 46, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <f t="shared" si="11"/>
+        <v>702</v>
+      </c>
+      <c r="B137" s="3">
+        <f>B134</f>
+        <v>145</v>
+      </c>
+      <c r="C137" s="3">
+        <v>46</v>
+      </c>
+      <c r="D137" s="5">
+        <v>0</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (702, 145, 46, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <f t="shared" si="11"/>
+        <v>703</v>
+      </c>
+      <c r="B138" s="4">
+        <f>B134+1</f>
+        <v>146</v>
+      </c>
+      <c r="C138" s="4">
         <v>38</v>
       </c>
-      <c r="D93" s="6">
-        <v>2</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1</v>
-      </c>
-      <c r="G93" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (586, 120, 38, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <f t="shared" si="7"/>
-        <v>587</v>
-      </c>
-      <c r="B94" s="3">
-        <f>B90+1</f>
-        <v>121</v>
-      </c>
-      <c r="C94" s="3">
-        <v>45</v>
-      </c>
-      <c r="D94" s="5">
-        <v>5</v>
-      </c>
-      <c r="E94" s="5">
-        <v>2</v>
-      </c>
-      <c r="F94" s="3">
-        <v>2</v>
-      </c>
-      <c r="G94" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 121, 45, 5, 2, 2);</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <f t="shared" si="7"/>
-        <v>588</v>
-      </c>
-      <c r="B95" s="3">
-        <f>B94</f>
-        <v>121</v>
-      </c>
-      <c r="C95" s="3">
-        <v>45</v>
-      </c>
-      <c r="D95" s="5">
+      <c r="D138" s="6">
         <v>3</v>
       </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 121, 45, 3, 0, 1);</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <f t="shared" si="7"/>
-        <v>589</v>
-      </c>
-      <c r="B96" s="3">
-        <f>B94</f>
-        <v>121</v>
-      </c>
-      <c r="C96" s="3">
-        <v>44</v>
-      </c>
-      <c r="D96" s="5">
+      <c r="E138" s="6">
+        <v>2</v>
+      </c>
+      <c r="F138" s="4">
+        <v>2</v>
+      </c>
+      <c r="G138" s="4" t="str">
+        <f t="shared" ref="G138:G149" si="14">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A138 &amp; ", " &amp; B138 &amp; ", " &amp; C138 &amp; ", " &amp; D138 &amp; ", " &amp; E138 &amp; ", " &amp; F138 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (703, 146, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <f t="shared" si="11"/>
+        <v>704</v>
+      </c>
+      <c r="B139" s="4">
+        <f>B138</f>
+        <v>146</v>
+      </c>
+      <c r="C139" s="4">
+        <v>38</v>
+      </c>
+      <c r="D139" s="6">
         <v>3</v>
       </c>
-      <c r="E96" s="5">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>2</v>
-      </c>
-      <c r="G96" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 121, 44, 3, 0, 2);</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <f t="shared" si="7"/>
-        <v>590</v>
-      </c>
-      <c r="B97" s="3">
-        <f>B94</f>
-        <v>121</v>
-      </c>
-      <c r="C97" s="3">
-        <v>44</v>
-      </c>
-      <c r="D97" s="5">
-        <v>2</v>
-      </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 121, 44, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <f t="shared" si="7"/>
-        <v>591</v>
-      </c>
-      <c r="B98" s="4">
-        <f>B94+1</f>
-        <v>122</v>
-      </c>
-      <c r="C98" s="4">
+      <c r="E139" s="6">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (704, 146, 38, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <f t="shared" si="11"/>
+        <v>705</v>
+      </c>
+      <c r="B140" s="4">
+        <f>B138</f>
+        <v>146</v>
+      </c>
+      <c r="C140" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D140" s="6">
+        <v>1</v>
+      </c>
+      <c r="E140" s="6">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>2</v>
+      </c>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (705, 146, 49228, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <f t="shared" si="11"/>
+        <v>706</v>
+      </c>
+      <c r="B141" s="4">
+        <f>B138</f>
+        <v>146</v>
+      </c>
+      <c r="C141" s="4">
+        <v>49228</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (706, 146, 49228, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <f t="shared" si="11"/>
+        <v>707</v>
+      </c>
+      <c r="B142" s="3">
+        <f>B138+1</f>
+        <v>147</v>
+      </c>
+      <c r="C142" s="3">
+        <v>46</v>
+      </c>
+      <c r="D142" s="5">
+        <v>2</v>
+      </c>
+      <c r="E142" s="5">
+        <v>2</v>
+      </c>
+      <c r="F142" s="3">
+        <v>2</v>
+      </c>
+      <c r="G142" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (707, 147, 46, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <f t="shared" si="11"/>
+        <v>708</v>
+      </c>
+      <c r="B143" s="3">
+        <f>B142</f>
+        <v>147</v>
+      </c>
+      <c r="C143" s="3">
+        <v>46</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (708, 147, 46, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <f t="shared" si="11"/>
+        <v>709</v>
+      </c>
+      <c r="B144" s="3">
+        <f>B142</f>
+        <v>147</v>
+      </c>
+      <c r="C144" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D144" s="5">
+        <v>0</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>2</v>
+      </c>
+      <c r="G144" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (709, 147, 49228, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <f t="shared" si="11"/>
+        <v>710</v>
+      </c>
+      <c r="B145" s="3">
+        <f>B142</f>
+        <v>147</v>
+      </c>
+      <c r="C145" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D145" s="5">
+        <v>0</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (710, 147, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <f t="shared" si="11"/>
+        <v>711</v>
+      </c>
+      <c r="B146" s="4">
+        <f>B142+1</f>
+        <v>148</v>
+      </c>
+      <c r="C146" s="4">
         <v>38</v>
       </c>
-      <c r="D98" s="6">
-        <v>1</v>
-      </c>
-      <c r="E98" s="6">
-        <v>0</v>
-      </c>
-      <c r="F98" s="4">
-        <v>2</v>
-      </c>
-      <c r="G98" s="4" t="str">
-        <f t="shared" ref="G98:G101" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A98 &amp; ", " &amp; B98 &amp; ", " &amp; C98 &amp; ", " &amp; D98 &amp; ", " &amp; E98 &amp; ", " &amp; F98 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (591, 122, 38, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <f t="shared" si="7"/>
-        <v>592</v>
-      </c>
-      <c r="B99" s="4">
-        <f>B98</f>
-        <v>122</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="D146" s="6">
+        <v>0</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>2</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (711, 148, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <f t="shared" si="11"/>
+        <v>712</v>
+      </c>
+      <c r="B147" s="4">
+        <f>B146</f>
+        <v>148</v>
+      </c>
+      <c r="C147" s="4">
         <v>38</v>
       </c>
-      <c r="D99" s="6">
-        <v>1</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="4">
-        <v>1</v>
-      </c>
-      <c r="G99" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (592, 122, 38, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <f t="shared" si="7"/>
-        <v>593</v>
-      </c>
-      <c r="B100" s="4">
-        <f>B98</f>
-        <v>122</v>
-      </c>
-      <c r="C100" s="4">
-        <v>46</v>
-      </c>
-      <c r="D100" s="6">
-        <v>3</v>
-      </c>
-      <c r="E100" s="6">
-        <v>2</v>
-      </c>
-      <c r="F100" s="4">
-        <v>2</v>
-      </c>
-      <c r="G100" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (593, 122, 46, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <f t="shared" si="7"/>
-        <v>594</v>
-      </c>
-      <c r="B101" s="4">
-        <f>B98</f>
-        <v>122</v>
-      </c>
-      <c r="C101" s="4">
-        <v>46</v>
-      </c>
-      <c r="D101" s="6">
-        <v>1</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
-        <v>1</v>
-      </c>
-      <c r="G101" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (594, 122, 46, 1, 0, 1);</v>
+      <c r="D147" s="6">
+        <v>0</v>
+      </c>
+      <c r="E147" s="6">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>1</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (712, 148, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <f t="shared" si="11"/>
+        <v>713</v>
+      </c>
+      <c r="B148" s="4">
+        <f>B146</f>
+        <v>148</v>
+      </c>
+      <c r="C148" s="4">
+        <v>36</v>
+      </c>
+      <c r="D148" s="6">
+        <v>2</v>
+      </c>
+      <c r="E148" s="6">
+        <v>2</v>
+      </c>
+      <c r="F148" s="4">
+        <v>2</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (713, 148, 36, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <f t="shared" si="11"/>
+        <v>714</v>
+      </c>
+      <c r="B149" s="4">
+        <f>B146</f>
+        <v>148</v>
+      </c>
+      <c r="C149" s="4">
+        <v>36</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (714, 148, 36, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/olympics/olympics.xlsx
+++ b/Scripts/olympics/olympics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1900" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="1936" sheetId="69" r:id="rId9"/>
     <sheet name="1948" sheetId="70" r:id="rId10"/>
     <sheet name="1952" sheetId="71" r:id="rId11"/>
+    <sheet name="1956" sheetId="72" r:id="rId12"/>
+    <sheet name="1960" sheetId="73" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +62,12 @@
   </si>
   <si>
     <t>match_number</t>
+  </si>
+  <si>
+    <t>tournament</t>
+  </si>
+  <si>
+    <t>group_code</t>
   </si>
 </sst>
 </file>
@@ -3341,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4274,11 +4282,11 @@
         <v>2</v>
       </c>
       <c r="F38" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" ref="G38:G41" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A38 &amp; ", " &amp; B38 &amp; ", " &amp; C38 &amp; ", " &amp; D38 &amp; ", " &amp; E38 &amp; ", " &amp; F38 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 124, 7097, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 124, 7097, 2, 2, 4);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4300,11 +4308,11 @@
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 124, 7097, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 124, 7097, 2, 0, 3);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4326,11 +4334,11 @@
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 124, 359, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 124, 359, 1, 0, 4);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4352,11 +4360,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 124, 359, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 124, 359, 1, 0, 3);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -7165,6 +7173,5828 @@
       <c r="G149" s="4" t="str">
         <f t="shared" si="14"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (714, 148, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1952'!A27+1</f>
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1956-11-24"</f>
+        <v>1956-11-24</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G13" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (149, '1956-11-24', 15, 61);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A13" si="1">A2+1</f>
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1956-11-26"</f>
+        <v>1956-11-26</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="2">D2</f>
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (150, '1956-11-26', 15, 61);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1956-11-27"</f>
+        <v>1956-11-27</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E13" si="3">E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (151, '1956-11-27', 15, 61);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1956-11-28"</f>
+        <v>1956-11-28</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (152, '1956-11-28', 3, 61);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1956-11-29"</f>
+        <v>1956-11-29</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (153, '1956-11-29', 3, 61);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1956-11-30"</f>
+        <v>1956-11-30</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (154, '1956-11-30', 3, 61);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1956-12-01"</f>
+        <v>1956-12-01</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (155, '1956-12-01', 3, 61);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1956-12-01"</f>
+        <v>1956-12-01</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (156, '1956-12-01', 3, 61);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1956-12-04"</f>
+        <v>1956-12-04</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (157, '1956-12-04', 4, 61);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1956-12-05"</f>
+        <v>1956-12-05</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (158, '1956-12-05', 4, 61);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1956-12-07"</f>
+        <v>1956-12-07</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (159, '1956-12-07', 13, 61);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1956-12-08"</f>
+        <v>1956-12-08</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <f>D10</f>
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (160, '1956-12-08', 14, 61);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f>'1952'!A149+ 1</f>
+        <v>715</v>
+      </c>
+      <c r="B16" s="3">
+        <f>A2</f>
+        <v>149</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" ref="G16:G67" si="4">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A16 &amp; ", " &amp; B16 &amp; ", " &amp; C16 &amp; ", " &amp; D16 &amp; ", " &amp; E16 &amp; ", " &amp; F16 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (715, 149, 7097, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>A16+1</f>
+        <v>716</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B16</f>
+        <v>149</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (716, 149, 7097, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" ref="A18:A67" si="5">A17+1</f>
+        <v>717</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B16</f>
+        <v>149</v>
+      </c>
+      <c r="C18" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (717, 149, 49228, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="5"/>
+        <v>718</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B16</f>
+        <v>149</v>
+      </c>
+      <c r="C19" s="3">
+        <v>49228</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (718, 149, 49228, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="5"/>
+        <v>719</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B16+1</f>
+        <v>150</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (719, 150, 44, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B20</f>
+        <v>150</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (720, 150, 44, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="5"/>
+        <v>721</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B20</f>
+        <v>150</v>
+      </c>
+      <c r="C22" s="4">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (721, 150, 66, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="5"/>
+        <v>722</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B20</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="4">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (722, 150, 66, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="5"/>
+        <v>723</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B20+1</f>
+        <v>151</v>
+      </c>
+      <c r="C24" s="3">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (723, 151, 61, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="5"/>
+        <v>724</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B24</f>
+        <v>151</v>
+      </c>
+      <c r="C25" s="3">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (724, 151, 61, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="5"/>
+        <v>725</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B24</f>
+        <v>151</v>
+      </c>
+      <c r="C26" s="3">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (725, 151, 81, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="5"/>
+        <v>726</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B24</f>
+        <v>151</v>
+      </c>
+      <c r="C27" s="3">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (726, 151, 81, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="5"/>
+        <v>727</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B24+1</f>
+        <v>152</v>
+      </c>
+      <c r="C28" s="4">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (727, 152, 38, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="5"/>
+        <v>728</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B28</f>
+        <v>152</v>
+      </c>
+      <c r="C29" s="4">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (728, 152, 38, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B28</f>
+        <v>152</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (729, 152, 1, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="5"/>
+        <v>730</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B28</f>
+        <v>152</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (730, 152, 1, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="5"/>
+        <v>731</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B28+1</f>
+        <v>153</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (731, 153, 7097, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="5"/>
+        <v>732</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B32</f>
+        <v>153</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 153, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="5"/>
+        <v>733</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B32</f>
+        <v>153</v>
+      </c>
+      <c r="C34" s="3">
+        <v>62</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 153, 62, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="5"/>
+        <v>734</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B32</f>
+        <v>153</v>
+      </c>
+      <c r="C35" s="3">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 153, 62, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="5"/>
+        <v>735</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B32+1</f>
+        <v>154</v>
+      </c>
+      <c r="C36" s="4">
+        <v>359</v>
+      </c>
+      <c r="D36" s="6">
+        <v>6</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 154, 359, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="5"/>
+        <v>736</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B36</f>
+        <v>154</v>
+      </c>
+      <c r="C37" s="4">
+        <v>359</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 154, 359, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="5"/>
+        <v>737</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B36</f>
+        <v>154</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 154, 44, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="5"/>
+        <v>738</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B36</f>
+        <v>154</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 154, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="5"/>
+        <v>739</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B36+1</f>
+        <v>155</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 155, 7097, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B40</f>
+        <v>155</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7097</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 155, 7097, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="5"/>
+        <v>741</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B40</f>
+        <v>155</v>
+      </c>
+      <c r="C42" s="3">
+        <v>62</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 155, 62, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="5"/>
+        <v>742</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B40</f>
+        <v>155</v>
+      </c>
+      <c r="C43" s="3">
+        <v>62</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 155, 62, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="5"/>
+        <v>743</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B40+1</f>
+        <v>156</v>
+      </c>
+      <c r="C44" s="6">
+        <v>61</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 156, 61, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="5"/>
+        <v>744</v>
+      </c>
+      <c r="B45" s="4">
+        <f>B44</f>
+        <v>156</v>
+      </c>
+      <c r="C45" s="6">
+        <v>61</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 156, 61, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B44</f>
+        <v>156</v>
+      </c>
+      <c r="C46" s="6">
+        <v>91</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 156, 91, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="5"/>
+        <v>746</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B44</f>
+        <v>156</v>
+      </c>
+      <c r="C47" s="6">
+        <v>91</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 156, 91, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="5"/>
+        <v>747</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B44+1</f>
+        <v>157</v>
+      </c>
+      <c r="C48" s="3">
+        <v>38</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 157, 38, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="5"/>
+        <v>748</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B48</f>
+        <v>157</v>
+      </c>
+      <c r="C49" s="3">
+        <v>38</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (748, 157, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="5"/>
+        <v>749</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B48</f>
+        <v>157</v>
+      </c>
+      <c r="C50" s="3">
+        <v>91</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (749, 157, 91, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B48</f>
+        <v>157</v>
+      </c>
+      <c r="C51" s="3">
+        <v>91</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (750, 157, 91, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="5"/>
+        <v>751</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B48+1</f>
+        <v>158</v>
+      </c>
+      <c r="C52" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (751, 158, 7097, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="5"/>
+        <v>752</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B52</f>
+        <v>158</v>
+      </c>
+      <c r="C53" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (752, 158, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="5"/>
+        <v>753</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B52</f>
+        <v>158</v>
+      </c>
+      <c r="C54" s="4">
+        <v>359</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (753, 158, 359, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="5"/>
+        <v>754</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B52</f>
+        <v>158</v>
+      </c>
+      <c r="C55" s="4">
+        <v>359</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (754, 158, 359, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="5"/>
+        <v>755</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B53</f>
+        <v>158</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (755, 158, 7097, 2, 2, 4);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="5"/>
+        <v>756</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B54</f>
+        <v>158</v>
+      </c>
+      <c r="C57" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (756, 158, 7097, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="5"/>
+        <v>757</v>
+      </c>
+      <c r="B58" s="4">
+        <f>B55</f>
+        <v>158</v>
+      </c>
+      <c r="C58" s="4">
+        <v>359</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (757, 158, 359, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="5"/>
+        <v>758</v>
+      </c>
+      <c r="B59" s="4">
+        <f>B56</f>
+        <v>158</v>
+      </c>
+      <c r="C59" s="4">
+        <v>359</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (758, 158, 359, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="5"/>
+        <v>759</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B52+1</f>
+        <v>159</v>
+      </c>
+      <c r="C60" s="3">
+        <v>359</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (759, 159, 359, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="5"/>
+        <v>760</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B60</f>
+        <v>159</v>
+      </c>
+      <c r="C61" s="3">
+        <v>359</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (760, 159, 359, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="5"/>
+        <v>761</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B60</f>
+        <v>159</v>
+      </c>
+      <c r="C62" s="3">
+        <v>91</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (761, 159, 91, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B60</f>
+        <v>159</v>
+      </c>
+      <c r="C63" s="3">
+        <v>91</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (762, 159, 91, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="5"/>
+        <v>763</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B60+1</f>
+        <v>160</v>
+      </c>
+      <c r="C64" s="4">
+        <v>38</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (763, 160, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="5"/>
+        <v>764</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B64</f>
+        <v>160</v>
+      </c>
+      <c r="C65" s="4">
+        <v>38</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (764, 160, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="5"/>
+        <v>765</v>
+      </c>
+      <c r="B66" s="4">
+        <f>B64</f>
+        <v>160</v>
+      </c>
+      <c r="C66" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (765, 160, 7097, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="5"/>
+        <v>766</v>
+      </c>
+      <c r="B67" s="4">
+        <f>B64</f>
+        <v>160</v>
+      </c>
+      <c r="C67" s="4">
+        <v>7097</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (766, 160, 7097, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1960</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G17" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (1, 1960, '1', 38);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1960</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>359</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (2, 1960, '1', 359);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A17" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B17" si="2">B3</f>
+        <v>1960</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (3, 1960, '1', 20);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (4, 1960, '1', 90);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (5, 1960, '2', 39);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>54</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (6, 1960, '2', 54);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (7, 1960, '2', 44);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>886</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (8, 1960, '2', 886);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (9, 1960, '3', 48);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>216</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (10, 1960, '3', 216);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (11, 1960, '3', 45);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>54</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (12, 1960, '3', 54);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (13, 1960, '4', 36);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>91</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (14, 1960, '4', 91);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (15, 1960, '4', 33);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>51</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (16, 1960, '4', 51);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A19 &amp; ", '" &amp; B19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>'1956'!A13+1</f>
+        <v>161</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G47" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A20 &amp; ", '" &amp; B20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (161, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A47" si="4">A20+1</f>
+        <v>162</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>D20</f>
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (162, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D47" si="5">D21</f>
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (163, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (164, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (165, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (166, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (167, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (168, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (169, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (170, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (171, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>22</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (172, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (173, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (174, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (175, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (176, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (177, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <v>23</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (178, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (179, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>"1960-08-26"</f>
+        <v>1960-08-26</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (180, '1960-08-26', 2, 39);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (181, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>"1960-08-29"</f>
+        <v>1960-08-29</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>16</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (182, '1960-08-29', 2, 39);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (183, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>"1960-09-01"</f>
+        <v>1960-09-01</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (184, '1960-09-01', 2, 39);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>"1960-09-05"</f>
+        <v>1960-09-05</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (185, '1960-09-05', 4, 39);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f>"1960-09-06"</f>
+        <v>1960-09-06</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (186, '1960-09-06', 4, 39);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>"1960-09-09"</f>
+        <v>1960-09-09</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (187, '1960-09-09', 13, 39);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>"1960-09-10"</f>
+        <v>1960-09-10</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (188, '1960-09-10', 14, 39);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A49 &amp; ", " &amp; B49 &amp; ", " &amp; C49 &amp; ", " &amp; D49 &amp; ", " &amp; E49 &amp; ", " &amp; F49 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f>'1956'!A67+ 1</f>
+        <v>767</v>
+      </c>
+      <c r="B50" s="3">
+        <f>A20</f>
+        <v>161</v>
+      </c>
+      <c r="C50" s="3">
+        <v>359</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" ref="G50:G65" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A50 &amp; ", " &amp; B50 &amp; ", " &amp; C50 &amp; ", " &amp; D50 &amp; ", " &amp; E50 &amp; ", " &amp; F50 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (767, 161, 359, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f>A50+1</f>
+        <v>768</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B50</f>
+        <v>161</v>
+      </c>
+      <c r="C51" s="3">
+        <v>359</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (768, 161, 359, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" ref="A52:A115" si="7">A51+1</f>
+        <v>769</v>
+      </c>
+      <c r="B52" s="3">
+        <f>B50</f>
+        <v>161</v>
+      </c>
+      <c r="C52" s="3">
+        <v>90</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (769, 161, 90, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="7"/>
+        <v>770</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B50</f>
+        <v>161</v>
+      </c>
+      <c r="C53" s="3">
+        <v>90</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (770, 161, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="7"/>
+        <v>771</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B50+1</f>
+        <v>162</v>
+      </c>
+      <c r="C54" s="4">
+        <v>38</v>
+      </c>
+      <c r="D54" s="4">
+        <v>6</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (771, 162, 38, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="7"/>
+        <v>772</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B54</f>
+        <v>162</v>
+      </c>
+      <c r="C55" s="4">
+        <v>38</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (772, 162, 38, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="7"/>
+        <v>773</v>
+      </c>
+      <c r="B56" s="4">
+        <f>B54</f>
+        <v>162</v>
+      </c>
+      <c r="C56" s="4">
+        <v>20</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (773, 162, 20, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="7"/>
+        <v>774</v>
+      </c>
+      <c r="B57" s="4">
+        <f>B54</f>
+        <v>162</v>
+      </c>
+      <c r="C57" s="4">
+        <v>20</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (774, 162, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="7"/>
+        <v>775</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B54+1</f>
+        <v>163</v>
+      </c>
+      <c r="C58" s="3">
+        <v>359</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (775, 163, 359, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="7"/>
+        <v>776</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B58</f>
+        <v>163</v>
+      </c>
+      <c r="C59" s="3">
+        <v>359</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (776, 163, 359, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="7"/>
+        <v>777</v>
+      </c>
+      <c r="B60" s="3">
+        <f>B58</f>
+        <v>163</v>
+      </c>
+      <c r="C60" s="3">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (777, 163, 20, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="7"/>
+        <v>778</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B58</f>
+        <v>163</v>
+      </c>
+      <c r="C61" s="3">
+        <v>20</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (778, 163, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="7"/>
+        <v>779</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B58+1</f>
+        <v>164</v>
+      </c>
+      <c r="C62" s="4">
+        <v>38</v>
+      </c>
+      <c r="D62" s="6">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (779, 164, 38, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="7"/>
+        <v>780</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B62</f>
+        <v>164</v>
+      </c>
+      <c r="C63" s="4">
+        <v>38</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (780, 164, 38, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="7"/>
+        <v>781</v>
+      </c>
+      <c r="B64" s="4">
+        <f>B62</f>
+        <v>164</v>
+      </c>
+      <c r="C64" s="4">
+        <v>90</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (781, 164, 90, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="7"/>
+        <v>782</v>
+      </c>
+      <c r="B65" s="4">
+        <f>B62</f>
+        <v>164</v>
+      </c>
+      <c r="C65" s="4">
+        <v>90</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (782, 164, 90, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="7"/>
+        <v>783</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B62+1</f>
+        <v>165</v>
+      </c>
+      <c r="C66" s="3">
+        <v>38</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" ref="G66:G89" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A66 &amp; ", " &amp; B66 &amp; ", " &amp; C66 &amp; ", " &amp; D66 &amp; ", " &amp; E66 &amp; ", " &amp; F66 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (783, 165, 38, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="7"/>
+        <v>784</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B66</f>
+        <v>165</v>
+      </c>
+      <c r="C67" s="3">
+        <v>38</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (784, 165, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="7"/>
+        <v>785</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B66</f>
+        <v>165</v>
+      </c>
+      <c r="C68" s="3">
+        <v>359</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (785, 165, 359, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="7"/>
+        <v>786</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B66</f>
+        <v>165</v>
+      </c>
+      <c r="C69" s="3">
+        <v>359</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (786, 165, 359, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="7"/>
+        <v>787</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B66+1</f>
+        <v>166</v>
+      </c>
+      <c r="C70" s="4">
+        <v>20</v>
+      </c>
+      <c r="D70" s="6">
+        <v>3</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (787, 166, 20, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="7"/>
+        <v>788</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B70</f>
+        <v>166</v>
+      </c>
+      <c r="C71" s="4">
+        <v>20</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (788, 166, 20, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="7"/>
+        <v>789</v>
+      </c>
+      <c r="B72" s="4">
+        <f>B70</f>
+        <v>166</v>
+      </c>
+      <c r="C72" s="4">
+        <v>90</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (789, 166, 90, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="7"/>
+        <v>790</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B70</f>
+        <v>166</v>
+      </c>
+      <c r="C73" s="4">
+        <v>90</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (790, 166, 90, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="7"/>
+        <v>791</v>
+      </c>
+      <c r="B74" s="3">
+        <f>B70+1</f>
+        <v>167</v>
+      </c>
+      <c r="C74" s="3">
+        <v>39</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (791, 167, 39, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="7"/>
+        <v>792</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B74</f>
+        <v>167</v>
+      </c>
+      <c r="C75" s="3">
+        <v>39</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (792, 167, 39, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="7"/>
+        <v>793</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B74</f>
+        <v>167</v>
+      </c>
+      <c r="C76" s="3">
+        <v>886</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (793, 167, 886, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="7"/>
+        <v>794</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B74</f>
+        <v>167</v>
+      </c>
+      <c r="C77" s="3">
+        <v>886</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (794, 167, 886, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="7"/>
+        <v>795</v>
+      </c>
+      <c r="B78" s="4">
+        <f>B74+1</f>
+        <v>168</v>
+      </c>
+      <c r="C78" s="4">
+        <v>55</v>
+      </c>
+      <c r="D78" s="6">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (795, 168, 55, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="7"/>
+        <v>796</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B78</f>
+        <v>168</v>
+      </c>
+      <c r="C79" s="4">
+        <v>55</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (796, 168, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="7"/>
+        <v>797</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B78</f>
+        <v>168</v>
+      </c>
+      <c r="C80" s="4">
+        <v>44</v>
+      </c>
+      <c r="D80" s="6">
+        <v>3</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (797, 168, 44, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="7"/>
+        <v>798</v>
+      </c>
+      <c r="B81" s="4">
+        <f>B78</f>
+        <v>168</v>
+      </c>
+      <c r="C81" s="4">
+        <v>44</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (798, 168, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="7"/>
+        <v>799</v>
+      </c>
+      <c r="B82" s="3">
+        <f>B78+1</f>
+        <v>169</v>
+      </c>
+      <c r="C82" s="3">
+        <v>55</v>
+      </c>
+      <c r="D82" s="5">
+        <v>5</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (799, 169, 55, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B82</f>
+        <v>169</v>
+      </c>
+      <c r="C83" s="3">
+        <v>55</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (800, 169, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="7"/>
+        <v>801</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B82</f>
+        <v>169</v>
+      </c>
+      <c r="C84" s="3">
+        <v>886</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (801, 169, 886, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="7"/>
+        <v>802</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B82</f>
+        <v>169</v>
+      </c>
+      <c r="C85" s="3">
+        <v>886</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (802, 169, 886, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="7"/>
+        <v>803</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B82+1</f>
+        <v>170</v>
+      </c>
+      <c r="C86" s="4">
+        <v>39</v>
+      </c>
+      <c r="D86" s="6">
+        <v>2</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (803, 170, 39, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="7"/>
+        <v>804</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B86</f>
+        <v>170</v>
+      </c>
+      <c r="C87" s="4">
+        <v>39</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (804, 170, 39, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="7"/>
+        <v>805</v>
+      </c>
+      <c r="B88" s="4">
+        <f>B86</f>
+        <v>170</v>
+      </c>
+      <c r="C88" s="4">
+        <v>44</v>
+      </c>
+      <c r="D88" s="6">
+        <v>2</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (805, 170, 44, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="7"/>
+        <v>806</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B86</f>
+        <v>170</v>
+      </c>
+      <c r="C89" s="4">
+        <v>44</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (806, 170, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="7"/>
+        <v>807</v>
+      </c>
+      <c r="B90" s="3">
+        <f>B86+1</f>
+        <v>171</v>
+      </c>
+      <c r="C90" s="3">
+        <v>39</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3</v>
+      </c>
+      <c r="E90" s="5">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" ref="G90:G157" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A90 &amp; ", " &amp; B90 &amp; ", " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (807, 171, 39, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="7"/>
+        <v>808</v>
+      </c>
+      <c r="B91" s="3">
+        <f>B90</f>
+        <v>171</v>
+      </c>
+      <c r="C91" s="3">
+        <v>39</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (808, 171, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="7"/>
+        <v>809</v>
+      </c>
+      <c r="B92" s="3">
+        <f>B90</f>
+        <v>171</v>
+      </c>
+      <c r="C92" s="3">
+        <v>55</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (809, 171, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="7"/>
+        <v>810</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B90</f>
+        <v>171</v>
+      </c>
+      <c r="C93" s="3">
+        <v>55</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (810, 171, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="7"/>
+        <v>811</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B90+1</f>
+        <v>172</v>
+      </c>
+      <c r="C94" s="4">
+        <v>44</v>
+      </c>
+      <c r="D94" s="6">
+        <v>3</v>
+      </c>
+      <c r="E94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="4">
+        <v>2</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (811, 172, 44, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="7"/>
+        <v>812</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B94</f>
+        <v>172</v>
+      </c>
+      <c r="C95" s="4">
+        <v>44</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (812, 172, 44, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="7"/>
+        <v>813</v>
+      </c>
+      <c r="B96" s="4">
+        <f>B94</f>
+        <v>172</v>
+      </c>
+      <c r="C96" s="4">
+        <v>886</v>
+      </c>
+      <c r="D96" s="6">
+        <v>2</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>2</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (813, 172, 886, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="7"/>
+        <v>814</v>
+      </c>
+      <c r="B97" s="4">
+        <f>B94</f>
+        <v>172</v>
+      </c>
+      <c r="C97" s="4">
+        <v>886</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (814, 172, 886, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" si="7"/>
+        <v>815</v>
+      </c>
+      <c r="B98" s="3">
+        <f>B94+1</f>
+        <v>173</v>
+      </c>
+      <c r="C98" s="3">
+        <v>48</v>
+      </c>
+      <c r="D98" s="5">
+        <v>6</v>
+      </c>
+      <c r="E98" s="5">
+        <v>2</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (815, 173, 48, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f t="shared" si="7"/>
+        <v>816</v>
+      </c>
+      <c r="B99" s="3">
+        <f>B98</f>
+        <v>173</v>
+      </c>
+      <c r="C99" s="3">
+        <v>48</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (816, 173, 48, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f t="shared" si="7"/>
+        <v>817</v>
+      </c>
+      <c r="B100" s="3">
+        <f>B98</f>
+        <v>173</v>
+      </c>
+      <c r="C100" s="3">
+        <v>216</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (817, 173, 216, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f t="shared" si="7"/>
+        <v>818</v>
+      </c>
+      <c r="B101" s="3">
+        <f>B98</f>
+        <v>173</v>
+      </c>
+      <c r="C101" s="3">
+        <v>216</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (818, 173, 216, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f t="shared" si="7"/>
+        <v>819</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B98+1</f>
+        <v>174</v>
+      </c>
+      <c r="C102" s="4">
+        <v>45</v>
+      </c>
+      <c r="D102" s="6">
+        <v>3</v>
+      </c>
+      <c r="E102" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (819, 174, 45, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f t="shared" si="7"/>
+        <v>820</v>
+      </c>
+      <c r="B103" s="4">
+        <f>B102</f>
+        <v>174</v>
+      </c>
+      <c r="C103" s="4">
+        <v>45</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (820, 174, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <f t="shared" si="7"/>
+        <v>821</v>
+      </c>
+      <c r="B104" s="4">
+        <f>B102</f>
+        <v>174</v>
+      </c>
+      <c r="C104" s="4">
+        <v>54</v>
+      </c>
+      <c r="D104" s="6">
+        <v>2</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>2</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (821, 174, 54, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <f t="shared" si="7"/>
+        <v>822</v>
+      </c>
+      <c r="B105" s="4">
+        <f>B102</f>
+        <v>174</v>
+      </c>
+      <c r="C105" s="4">
+        <v>54</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (822, 174, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f t="shared" si="7"/>
+        <v>823</v>
+      </c>
+      <c r="B106" s="3">
+        <f>B102+1</f>
+        <v>175</v>
+      </c>
+      <c r="C106" s="3">
+        <v>216</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2</v>
+      </c>
+      <c r="G106" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (823, 175, 216, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f t="shared" si="7"/>
+        <v>824</v>
+      </c>
+      <c r="B107" s="3">
+        <f>B106</f>
+        <v>175</v>
+      </c>
+      <c r="C107" s="3">
+        <v>216</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (824, 175, 216, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B108" s="3">
+        <f>B106</f>
+        <v>175</v>
+      </c>
+      <c r="C108" s="3">
+        <v>54</v>
+      </c>
+      <c r="D108" s="5">
+        <v>2</v>
+      </c>
+      <c r="E108" s="5">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2</v>
+      </c>
+      <c r="G108" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (825, 175, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f t="shared" si="7"/>
+        <v>826</v>
+      </c>
+      <c r="B109" s="3">
+        <f>B106</f>
+        <v>175</v>
+      </c>
+      <c r="C109" s="3">
+        <v>54</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (826, 175, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <f t="shared" si="7"/>
+        <v>827</v>
+      </c>
+      <c r="B110" s="4">
+        <f>B106+1</f>
+        <v>176</v>
+      </c>
+      <c r="C110" s="4">
+        <v>45</v>
+      </c>
+      <c r="D110" s="6">
+        <v>2</v>
+      </c>
+      <c r="E110" s="6">
+        <v>2</v>
+      </c>
+      <c r="F110" s="4">
+        <v>2</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (827, 176, 45, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <f t="shared" si="7"/>
+        <v>828</v>
+      </c>
+      <c r="B111" s="4">
+        <f>B110</f>
+        <v>176</v>
+      </c>
+      <c r="C111" s="4">
+        <v>45</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (828, 176, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <f t="shared" si="7"/>
+        <v>829</v>
+      </c>
+      <c r="B112" s="4">
+        <f>B110</f>
+        <v>176</v>
+      </c>
+      <c r="C112" s="4">
+        <v>48</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (829, 176, 48, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <f t="shared" si="7"/>
+        <v>830</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B110</f>
+        <v>176</v>
+      </c>
+      <c r="C113" s="4">
+        <v>48</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (830, 176, 48, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f t="shared" si="7"/>
+        <v>831</v>
+      </c>
+      <c r="B114" s="3">
+        <f>B110+1</f>
+        <v>177</v>
+      </c>
+      <c r="C114" s="3">
+        <v>45</v>
+      </c>
+      <c r="D114" s="5">
+        <v>3</v>
+      </c>
+      <c r="E114" s="5">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (831, 177, 45, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f t="shared" si="7"/>
+        <v>832</v>
+      </c>
+      <c r="B115" s="3">
+        <f>B114</f>
+        <v>177</v>
+      </c>
+      <c r="C115" s="3">
+        <v>45</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (832, 177, 45, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f t="shared" ref="A116:A165" si="10">A115+1</f>
+        <v>833</v>
+      </c>
+      <c r="B116" s="3">
+        <f>B114</f>
+        <v>177</v>
+      </c>
+      <c r="C116" s="3">
+        <v>216</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2</v>
+      </c>
+      <c r="G116" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (833, 177, 216, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f t="shared" si="10"/>
+        <v>834</v>
+      </c>
+      <c r="B117" s="3">
+        <f>B114</f>
+        <v>177</v>
+      </c>
+      <c r="C117" s="3">
+        <v>216</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (834, 177, 216, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <f t="shared" si="10"/>
+        <v>835</v>
+      </c>
+      <c r="B118" s="4">
+        <f>B114+1</f>
+        <v>178</v>
+      </c>
+      <c r="C118" s="4">
+        <v>54</v>
+      </c>
+      <c r="D118" s="6">
+        <v>2</v>
+      </c>
+      <c r="E118" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118" s="4">
+        <v>2</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (835, 178, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <f t="shared" si="10"/>
+        <v>836</v>
+      </c>
+      <c r="B119" s="4">
+        <f>B118</f>
+        <v>178</v>
+      </c>
+      <c r="C119" s="4">
+        <v>54</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (836, 178, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <f t="shared" si="10"/>
+        <v>837</v>
+      </c>
+      <c r="B120" s="4">
+        <f>B118</f>
+        <v>178</v>
+      </c>
+      <c r="C120" s="4">
+        <v>48</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>2</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (837, 178, 48, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f t="shared" si="10"/>
+        <v>838</v>
+      </c>
+      <c r="B121" s="4">
+        <f>B118</f>
+        <v>178</v>
+      </c>
+      <c r="C121" s="4">
+        <v>48</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (838, 178, 48, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f t="shared" si="10"/>
+        <v>839</v>
+      </c>
+      <c r="B122" s="3">
+        <f>B118+1</f>
+        <v>179</v>
+      </c>
+      <c r="C122" s="3">
+        <v>36</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2</v>
+      </c>
+      <c r="G122" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (839, 179, 36, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f t="shared" si="10"/>
+        <v>840</v>
+      </c>
+      <c r="B123" s="3">
+        <f>B122</f>
+        <v>179</v>
+      </c>
+      <c r="C123" s="3">
+        <v>36</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (840, 179, 36, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <f t="shared" si="10"/>
+        <v>841</v>
+      </c>
+      <c r="B124" s="3">
+        <f>B122</f>
+        <v>179</v>
+      </c>
+      <c r="C124" s="3">
+        <v>91</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>2</v>
+      </c>
+      <c r="G124" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (841, 179, 91, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f t="shared" si="10"/>
+        <v>842</v>
+      </c>
+      <c r="B125" s="3">
+        <f>B122</f>
+        <v>179</v>
+      </c>
+      <c r="C125" s="3">
+        <v>91</v>
+      </c>
+      <c r="D125" s="5">
+        <v>0</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (842, 179, 91, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <f t="shared" si="10"/>
+        <v>843</v>
+      </c>
+      <c r="B126" s="4">
+        <f>B122+1</f>
+        <v>180</v>
+      </c>
+      <c r="C126" s="4">
+        <v>33</v>
+      </c>
+      <c r="D126" s="6">
+        <v>2</v>
+      </c>
+      <c r="E126" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" s="4">
+        <v>2</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (843, 180, 33, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <f t="shared" si="10"/>
+        <v>844</v>
+      </c>
+      <c r="B127" s="4">
+        <f>B126</f>
+        <v>180</v>
+      </c>
+      <c r="C127" s="4">
+        <v>33</v>
+      </c>
+      <c r="D127" s="6">
+        <v>0</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (844, 180, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <f t="shared" si="10"/>
+        <v>845</v>
+      </c>
+      <c r="B128" s="4">
+        <f>B126</f>
+        <v>180</v>
+      </c>
+      <c r="C128" s="4">
+        <v>51</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+      <c r="E128" s="6">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>2</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (845, 180, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <f t="shared" si="10"/>
+        <v>846</v>
+      </c>
+      <c r="B129" s="4">
+        <f>B126</f>
+        <v>180</v>
+      </c>
+      <c r="C129" s="4">
+        <v>51</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (846, 180, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f t="shared" si="10"/>
+        <v>847</v>
+      </c>
+      <c r="B130" s="3">
+        <f>B126+1</f>
+        <v>181</v>
+      </c>
+      <c r="C130" s="3">
+        <v>33</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>2</v>
+      </c>
+      <c r="G130" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (847, 181, 33, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f t="shared" si="10"/>
+        <v>848</v>
+      </c>
+      <c r="B131" s="3">
+        <f>B130</f>
+        <v>181</v>
+      </c>
+      <c r="C131" s="3">
+        <v>33</v>
+      </c>
+      <c r="D131" s="5">
+        <v>0</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (848, 181, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <f t="shared" si="10"/>
+        <v>849</v>
+      </c>
+      <c r="B132" s="3">
+        <f>B130</f>
+        <v>181</v>
+      </c>
+      <c r="C132" s="3">
+        <v>91</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2</v>
+      </c>
+      <c r="G132" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (849, 181, 91, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <f t="shared" si="10"/>
+        <v>850</v>
+      </c>
+      <c r="B133" s="3">
+        <f>B130</f>
+        <v>181</v>
+      </c>
+      <c r="C133" s="3">
+        <v>91</v>
+      </c>
+      <c r="D133" s="5">
+        <v>0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (850, 181, 91, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <f t="shared" si="10"/>
+        <v>851</v>
+      </c>
+      <c r="B134" s="4">
+        <f>B130+1</f>
+        <v>182</v>
+      </c>
+      <c r="C134" s="4">
+        <v>36</v>
+      </c>
+      <c r="D134" s="6">
+        <v>6</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2</v>
+      </c>
+      <c r="F134" s="4">
+        <v>2</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (851, 182, 36, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <f t="shared" si="10"/>
+        <v>852</v>
+      </c>
+      <c r="B135" s="4">
+        <f>B134</f>
+        <v>182</v>
+      </c>
+      <c r="C135" s="4">
+        <v>36</v>
+      </c>
+      <c r="D135" s="6">
+        <v>3</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (852, 182, 36, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <f t="shared" si="10"/>
+        <v>853</v>
+      </c>
+      <c r="B136" s="4">
+        <f>B134</f>
+        <v>182</v>
+      </c>
+      <c r="C136" s="4">
+        <v>51</v>
+      </c>
+      <c r="D136" s="6">
+        <v>2</v>
+      </c>
+      <c r="E136" s="6">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>2</v>
+      </c>
+      <c r="G136" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (853, 182, 51, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <f t="shared" si="10"/>
+        <v>854</v>
+      </c>
+      <c r="B137" s="4">
+        <f>B134</f>
+        <v>182</v>
+      </c>
+      <c r="C137" s="4">
+        <v>51</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+      <c r="E137" s="6">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>1</v>
+      </c>
+      <c r="G137" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (854, 182, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <f t="shared" si="10"/>
+        <v>855</v>
+      </c>
+      <c r="B138" s="3">
+        <f>B134+1</f>
+        <v>183</v>
+      </c>
+      <c r="C138" s="3">
+        <v>36</v>
+      </c>
+      <c r="D138" s="5">
+        <v>7</v>
+      </c>
+      <c r="E138" s="5">
+        <v>2</v>
+      </c>
+      <c r="F138" s="3">
+        <v>2</v>
+      </c>
+      <c r="G138" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (855, 183, 36, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <f t="shared" si="10"/>
+        <v>856</v>
+      </c>
+      <c r="B139" s="3">
+        <f>B138</f>
+        <v>183</v>
+      </c>
+      <c r="C139" s="3">
+        <v>36</v>
+      </c>
+      <c r="D139" s="5">
+        <v>3</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (856, 183, 36, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <f t="shared" si="10"/>
+        <v>857</v>
+      </c>
+      <c r="B140" s="3">
+        <f>B138</f>
+        <v>183</v>
+      </c>
+      <c r="C140" s="3">
+        <v>33</v>
+      </c>
+      <c r="D140" s="5">
+        <v>0</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>2</v>
+      </c>
+      <c r="G140" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (857, 183, 33, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <f t="shared" si="10"/>
+        <v>858</v>
+      </c>
+      <c r="B141" s="3">
+        <f>B138</f>
+        <v>183</v>
+      </c>
+      <c r="C141" s="3">
+        <v>33</v>
+      </c>
+      <c r="D141" s="5">
+        <v>0</v>
+      </c>
+      <c r="E141" s="5">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (858, 183, 33, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <f t="shared" si="10"/>
+        <v>859</v>
+      </c>
+      <c r="B142" s="4">
+        <f>B138+1</f>
+        <v>184</v>
+      </c>
+      <c r="C142" s="4">
+        <v>51</v>
+      </c>
+      <c r="D142" s="6">
+        <v>3</v>
+      </c>
+      <c r="E142" s="6">
+        <v>2</v>
+      </c>
+      <c r="F142" s="4">
+        <v>2</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (859, 184, 51, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <f t="shared" si="10"/>
+        <v>860</v>
+      </c>
+      <c r="B143" s="4">
+        <f>B142</f>
+        <v>184</v>
+      </c>
+      <c r="C143" s="4">
+        <v>51</v>
+      </c>
+      <c r="D143" s="6">
+        <v>1</v>
+      </c>
+      <c r="E143" s="6">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (860, 184, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <f t="shared" si="10"/>
+        <v>861</v>
+      </c>
+      <c r="B144" s="4">
+        <f>B142</f>
+        <v>184</v>
+      </c>
+      <c r="C144" s="4">
+        <v>91</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="6">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>2</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (861, 184, 91, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <f t="shared" si="10"/>
+        <v>862</v>
+      </c>
+      <c r="B145" s="4">
+        <f>B142</f>
+        <v>184</v>
+      </c>
+      <c r="C145" s="4">
+        <v>91</v>
+      </c>
+      <c r="D145" s="6">
+        <v>0</v>
+      </c>
+      <c r="E145" s="6">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>1</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (862, 184, 91, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <f t="shared" si="10"/>
+        <v>863</v>
+      </c>
+      <c r="B146" s="3">
+        <f>B142+1</f>
+        <v>185</v>
+      </c>
+      <c r="C146" s="3">
+        <v>39</v>
+      </c>
+      <c r="D146" s="5">
+        <v>0</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3">
+        <v>2</v>
+      </c>
+      <c r="G146" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (863, 185, 39, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <f t="shared" si="10"/>
+        <v>864</v>
+      </c>
+      <c r="B147" s="3">
+        <f>B146</f>
+        <v>185</v>
+      </c>
+      <c r="C147" s="3">
+        <v>39</v>
+      </c>
+      <c r="D147" s="5">
+        <v>0</v>
+      </c>
+      <c r="E147" s="5">
+        <v>0</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (864, 185, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <f t="shared" si="10"/>
+        <v>865</v>
+      </c>
+      <c r="B148" s="3">
+        <f>B146</f>
+        <v>185</v>
+      </c>
+      <c r="C148" s="3">
+        <v>38</v>
+      </c>
+      <c r="D148" s="5">
+        <v>0</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0</v>
+      </c>
+      <c r="F148" s="3">
+        <v>2</v>
+      </c>
+      <c r="G148" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (865, 185, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <f t="shared" si="10"/>
+        <v>866</v>
+      </c>
+      <c r="B149" s="3">
+        <f>B146</f>
+        <v>185</v>
+      </c>
+      <c r="C149" s="3">
+        <v>38</v>
+      </c>
+      <c r="D149" s="5">
+        <v>0</v>
+      </c>
+      <c r="E149" s="5">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (866, 185, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <f t="shared" si="10"/>
+        <v>867</v>
+      </c>
+      <c r="B150" s="3">
+        <f>B147</f>
+        <v>185</v>
+      </c>
+      <c r="C150" s="3">
+        <v>39</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1</v>
+      </c>
+      <c r="E150" s="5">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
+        <v>4</v>
+      </c>
+      <c r="G150" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (867, 185, 39, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <f t="shared" si="10"/>
+        <v>868</v>
+      </c>
+      <c r="B151" s="3">
+        <f>B148</f>
+        <v>185</v>
+      </c>
+      <c r="C151" s="3">
+        <v>39</v>
+      </c>
+      <c r="D151" s="5">
+        <v>0</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>3</v>
+      </c>
+      <c r="G151" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (868, 185, 39, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <f t="shared" si="10"/>
+        <v>869</v>
+      </c>
+      <c r="B152" s="3">
+        <f>B149</f>
+        <v>185</v>
+      </c>
+      <c r="C152" s="3">
+        <v>38</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1</v>
+      </c>
+      <c r="E152" s="5">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3">
+        <v>4</v>
+      </c>
+      <c r="G152" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (869, 185, 38, 1, 1, 4);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <f t="shared" si="10"/>
+        <v>870</v>
+      </c>
+      <c r="B153" s="3">
+        <f>B150</f>
+        <v>185</v>
+      </c>
+      <c r="C153" s="3">
+        <v>38</v>
+      </c>
+      <c r="D153" s="5">
+        <v>0</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0</v>
+      </c>
+      <c r="F153" s="3">
+        <v>3</v>
+      </c>
+      <c r="G153" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (870, 185, 38, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <f t="shared" si="10"/>
+        <v>871</v>
+      </c>
+      <c r="B154" s="4">
+        <f>B146+1</f>
+        <v>186</v>
+      </c>
+      <c r="C154" s="4">
+        <v>45</v>
+      </c>
+      <c r="D154" s="6">
+        <v>2</v>
+      </c>
+      <c r="E154" s="6">
+        <v>2</v>
+      </c>
+      <c r="F154" s="4">
+        <v>2</v>
+      </c>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (871, 186, 45, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <f t="shared" si="10"/>
+        <v>872</v>
+      </c>
+      <c r="B155" s="4">
+        <f>B154</f>
+        <v>186</v>
+      </c>
+      <c r="C155" s="4">
+        <v>45</v>
+      </c>
+      <c r="D155" s="6">
+        <v>1</v>
+      </c>
+      <c r="E155" s="6">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
+        <v>1</v>
+      </c>
+      <c r="G155" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (872, 186, 45, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <f t="shared" si="10"/>
+        <v>873</v>
+      </c>
+      <c r="B156" s="4">
+        <f>B154</f>
+        <v>186</v>
+      </c>
+      <c r="C156" s="4">
+        <v>36</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4">
+        <v>2</v>
+      </c>
+      <c r="G156" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (873, 186, 36, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <f t="shared" si="10"/>
+        <v>874</v>
+      </c>
+      <c r="B157" s="4">
+        <f>B154</f>
+        <v>186</v>
+      </c>
+      <c r="C157" s="4">
+        <v>36</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0</v>
+      </c>
+      <c r="E157" s="6">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
+      <c r="G157" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (874, 186, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <f t="shared" si="10"/>
+        <v>875</v>
+      </c>
+      <c r="B158" s="3">
+        <f>B154+1</f>
+        <v>187</v>
+      </c>
+      <c r="C158" s="3">
+        <v>36</v>
+      </c>
+      <c r="D158" s="5">
+        <v>2</v>
+      </c>
+      <c r="E158" s="5">
+        <v>2</v>
+      </c>
+      <c r="F158" s="3">
+        <v>2</v>
+      </c>
+      <c r="G158" s="3" t="str">
+        <f t="shared" ref="G158:G161" si="11">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A158 &amp; ", " &amp; B158 &amp; ", " &amp; C158 &amp; ", " &amp; D158 &amp; ", " &amp; E158 &amp; ", " &amp; F158 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (875, 187, 36, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <f t="shared" si="10"/>
+        <v>876</v>
+      </c>
+      <c r="B159" s="3">
+        <f>B158</f>
+        <v>187</v>
+      </c>
+      <c r="C159" s="3">
+        <v>36</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (876, 187, 36, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <f t="shared" si="10"/>
+        <v>877</v>
+      </c>
+      <c r="B160" s="3">
+        <f>B158</f>
+        <v>187</v>
+      </c>
+      <c r="C160" s="3">
+        <v>39</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>2</v>
+      </c>
+      <c r="G160" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (877, 187, 39, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <f t="shared" si="10"/>
+        <v>878</v>
+      </c>
+      <c r="B161" s="3">
+        <f>B158</f>
+        <v>187</v>
+      </c>
+      <c r="C161" s="3">
+        <v>39</v>
+      </c>
+      <c r="D161" s="5">
+        <v>0</v>
+      </c>
+      <c r="E161" s="5">
+        <v>0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (878, 187, 39, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <f t="shared" si="10"/>
+        <v>879</v>
+      </c>
+      <c r="B162" s="4">
+        <f>B158+1</f>
+        <v>188</v>
+      </c>
+      <c r="C162" s="4">
+        <v>38</v>
+      </c>
+      <c r="D162" s="6">
+        <v>3</v>
+      </c>
+      <c r="E162" s="6">
+        <v>2</v>
+      </c>
+      <c r="F162" s="4">
+        <v>2</v>
+      </c>
+      <c r="G162" s="4" t="str">
+        <f t="shared" ref="G162:G165" si="12">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A162 &amp; ", " &amp; B162 &amp; ", " &amp; C162 &amp; ", " &amp; D162 &amp; ", " &amp; E162 &amp; ", " &amp; F162 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (879, 188, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <f t="shared" si="10"/>
+        <v>880</v>
+      </c>
+      <c r="B163" s="4">
+        <f>B162</f>
+        <v>188</v>
+      </c>
+      <c r="C163" s="4">
+        <v>38</v>
+      </c>
+      <c r="D163" s="6">
+        <v>2</v>
+      </c>
+      <c r="E163" s="6">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>1</v>
+      </c>
+      <c r="G163" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (880, 188, 38, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <f t="shared" si="10"/>
+        <v>881</v>
+      </c>
+      <c r="B164" s="4">
+        <f>B162</f>
+        <v>188</v>
+      </c>
+      <c r="C164" s="4">
+        <v>45</v>
+      </c>
+      <c r="D164" s="6">
+        <v>1</v>
+      </c>
+      <c r="E164" s="6">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>2</v>
+      </c>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (881, 188, 45, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <f t="shared" si="10"/>
+        <v>882</v>
+      </c>
+      <c r="B165" s="4">
+        <f>B162</f>
+        <v>188</v>
+      </c>
+      <c r="C165" s="4">
+        <v>45</v>
+      </c>
+      <c r="D165" s="6">
+        <v>0</v>
+      </c>
+      <c r="E165" s="6">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (882, 188, 45, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/olympics/olympics.xlsx
+++ b/Scripts/olympics/olympics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1900" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="1952" sheetId="71" r:id="rId11"/>
     <sheet name="1956" sheetId="72" r:id="rId12"/>
     <sheet name="1960" sheetId="73" r:id="rId13"/>
+    <sheet name="1964" sheetId="74" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +69,18 @@
   </si>
   <si>
     <t>group_code</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -8901,7 +8914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12995,6 +13008,4162 @@
       <c r="G165" s="4" t="str">
         <f t="shared" si="12"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (882, 188, 45, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1960'!A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1964</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>4930</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G17" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 1964, 'A', 4930);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>1964</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 1964, 'A', 98);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A17" si="1">A3+1</f>
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B17" si="2">B3</f>
+        <v>1964</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 1964, 'A', 40);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 1964, 'A', 52);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 1964, 'B', 36);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>212</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 1964, 'B', 212);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>38</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 1964, 'B', 38);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>850</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 1964, 'B', 850);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (25, 1964, 'C', 42);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>82</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (26, 1964, 'C', 82);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (27, 1964, 'C', 55);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (28, 1964, 'C', 20);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>54</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (29, 1964, 'D', 54);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>233</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (30, 1964, 'D', 233);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (31, 1964, 'D', 81);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (32, 1964, 'D', 39);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A19 &amp; ", '" &amp; B19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>'1960'!A47+1</f>
+        <v>189</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1964-10-11"</f>
+        <v>1964-10-11</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G45" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A20 &amp; ", '" &amp; B20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (189, '1964-10-11', 2, 81);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A45" si="4">A20+1</f>
+        <v>190</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1964-10-11"</f>
+        <v>1964-10-11</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>D20</f>
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (190, '1964-10-11', 2, 81);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1964-10-13"</f>
+        <v>1964-10-13</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D45" si="5">D21</f>
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (191, '1964-10-13', 2, 81);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1964-10-13"</f>
+        <v>1964-10-13</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (192, '1964-10-13', 2, 81);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1964-10-15"</f>
+        <v>1964-10-15</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (193, '1964-10-15', 2, 81);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1964-10-15"</f>
+        <v>1964-10-15</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (194, '1964-10-15', 2, 81);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1964-10-11"</f>
+        <v>1964-10-11</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (195, '1964-10-11', 2, 81);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"1964-10-13"</f>
+        <v>1964-10-13</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (196, '1964-10-13', 2, 81);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>"1964-10-15"</f>
+        <v>1964-10-15</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (197, '1964-10-15', 2, 81);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>"1964-10-12"</f>
+        <v>1964-10-12</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (198, '1964-10-12', 2, 81);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>"1964-10-12"</f>
+        <v>1964-10-12</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (199, '1964-10-12', 2, 81);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>"1964-10-14"</f>
+        <v>1964-10-14</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (200, '1964-10-14', 2, 81);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>201</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>"1964-10-14"</f>
+        <v>1964-10-14</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (201, '1964-10-14', 2, 81);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>"1964-10-16"</f>
+        <v>1964-10-16</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <v>21</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (202, '1964-10-16', 2, 81);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>"1964-10-16"</f>
+        <v>1964-10-16</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (203, '1964-10-16', 2, 81);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>"1964-10-12"</f>
+        <v>1964-10-12</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (204, '1964-10-12', 2, 81);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>"1964-10-14"</f>
+        <v>1964-10-14</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (205, '1964-10-14', 2, 81);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>"1964-10-16"</f>
+        <v>1964-10-16</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (206, '1964-10-16', 2, 81);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>"1964-10-18"</f>
+        <v>1964-10-18</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (207, '1964-10-18', 3, 81);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>"1964-10-18"</f>
+        <v>1964-10-18</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>26</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (208, '1964-10-18', 3, 81);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>"1964-10-18"</f>
+        <v>1964-10-18</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (209, '1964-10-18', 3, 81);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>"1964-10-18"</f>
+        <v>1964-10-18</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E41">
+        <v>28</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (210, '1964-10-18', 3, 81);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>"1964-10-20"</f>
+        <v>1964-10-20</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E42">
+        <v>29</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (211, '1964-10-20', 4, 81);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>"1964-10-20"</f>
+        <v>1964-10-20</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (212, '1964-10-20', 4, 81);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>"1964-10-23"</f>
+        <v>1964-10-23</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E44">
+        <v>31</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (213, '1964-10-23', 13, 81);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f>"1964-10-23"</f>
+        <v>1964-10-23</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (214, '1964-10-23', 14, 81);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A47 &amp; ", " &amp; B47 &amp; ", " &amp; C47 &amp; ", " &amp; D47 &amp; ", " &amp; E47 &amp; ", " &amp; F47 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f>'1960'!A165+ 1</f>
+        <v>883</v>
+      </c>
+      <c r="B48" s="3">
+        <f>A20</f>
+        <v>189</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" ref="G48:G111" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A48 &amp; ", " &amp; B48 &amp; ", " &amp; C48 &amp; ", " &amp; D48 &amp; ", " &amp; E48 &amp; ", " &amp; F48 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (883, 189, 4930, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f>A48+1</f>
+        <v>884</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B48</f>
+        <v>189</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (884, 189, 4930, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" ref="A50:A113" si="7">A49+1</f>
+        <v>885</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B48</f>
+        <v>189</v>
+      </c>
+      <c r="C50" s="3">
+        <v>98</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (885, 189, 98, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="7"/>
+        <v>886</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B48</f>
+        <v>189</v>
+      </c>
+      <c r="C51" s="3">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (886, 189, 98, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="7"/>
+        <v>887</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B48+1</f>
+        <v>190</v>
+      </c>
+      <c r="C52" s="4">
+        <v>40</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (887, 190, 40, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="7"/>
+        <v>888</v>
+      </c>
+      <c r="B53" s="4">
+        <f>B52</f>
+        <v>190</v>
+      </c>
+      <c r="C53" s="4">
+        <v>40</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (888, 190, 40, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="7"/>
+        <v>889</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B52</f>
+        <v>190</v>
+      </c>
+      <c r="C54" s="4">
+        <v>52</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (889, 190, 52, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="7"/>
+        <v>890</v>
+      </c>
+      <c r="B55" s="4">
+        <f>B52</f>
+        <v>190</v>
+      </c>
+      <c r="C55" s="4">
+        <v>52</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (890, 190, 52, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="7"/>
+        <v>891</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B52+1</f>
+        <v>191</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (891, 191, 4930, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="7"/>
+        <v>892</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B56</f>
+        <v>191</v>
+      </c>
+      <c r="C57" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (892, 191, 4930, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="7"/>
+        <v>893</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B56</f>
+        <v>191</v>
+      </c>
+      <c r="C58" s="3">
+        <v>40</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (893, 191, 40, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="7"/>
+        <v>894</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B56</f>
+        <v>191</v>
+      </c>
+      <c r="C59" s="3">
+        <v>40</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (894, 191, 40, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="7"/>
+        <v>895</v>
+      </c>
+      <c r="B60" s="4">
+        <f>B56+1</f>
+        <v>192</v>
+      </c>
+      <c r="C60" s="4">
+        <v>98</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (895, 192, 98, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="7"/>
+        <v>896</v>
+      </c>
+      <c r="B61" s="4">
+        <f>B60</f>
+        <v>192</v>
+      </c>
+      <c r="C61" s="4">
+        <v>98</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (896, 192, 98, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="7"/>
+        <v>897</v>
+      </c>
+      <c r="B62" s="4">
+        <f>B60</f>
+        <v>192</v>
+      </c>
+      <c r="C62" s="4">
+        <v>52</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (897, 192, 52, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="7"/>
+        <v>898</v>
+      </c>
+      <c r="B63" s="4">
+        <f>B60</f>
+        <v>192</v>
+      </c>
+      <c r="C63" s="4">
+        <v>52</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (898, 192, 52, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="7"/>
+        <v>899</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B60+1</f>
+        <v>193</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (899, 193, 4930, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B64</f>
+        <v>193</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (900, 193, 4930, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="7"/>
+        <v>901</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B64</f>
+        <v>193</v>
+      </c>
+      <c r="C66" s="3">
+        <v>52</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (901, 193, 52, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="7"/>
+        <v>902</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B64</f>
+        <v>193</v>
+      </c>
+      <c r="C67" s="3">
+        <v>52</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (902, 193, 52, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="7"/>
+        <v>903</v>
+      </c>
+      <c r="B68" s="4">
+        <f>B64+1</f>
+        <v>194</v>
+      </c>
+      <c r="C68" s="4">
+        <v>40</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (903, 194, 40, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="7"/>
+        <v>904</v>
+      </c>
+      <c r="B69" s="4">
+        <f>B68</f>
+        <v>194</v>
+      </c>
+      <c r="C69" s="4">
+        <v>40</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (904, 194, 40, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="7"/>
+        <v>905</v>
+      </c>
+      <c r="B70" s="4">
+        <f>B68</f>
+        <v>194</v>
+      </c>
+      <c r="C70" s="4">
+        <v>98</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (905, 194, 98, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="7"/>
+        <v>906</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B68</f>
+        <v>194</v>
+      </c>
+      <c r="C71" s="4">
+        <v>98</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (906, 194, 98, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="7"/>
+        <v>907</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B68+1</f>
+        <v>195</v>
+      </c>
+      <c r="C72" s="3">
+        <v>36</v>
+      </c>
+      <c r="D72" s="5">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (907, 195, 36, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="7"/>
+        <v>908</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B72</f>
+        <v>195</v>
+      </c>
+      <c r="C73" s="3">
+        <v>36</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (908, 195, 36, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="7"/>
+        <v>909</v>
+      </c>
+      <c r="B74" s="3">
+        <f>B72</f>
+        <v>195</v>
+      </c>
+      <c r="C74" s="3">
+        <v>212</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (909, 195, 212, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="7"/>
+        <v>910</v>
+      </c>
+      <c r="B75" s="3">
+        <f>B72</f>
+        <v>195</v>
+      </c>
+      <c r="C75" s="3">
+        <v>212</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (910, 195, 212, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="7"/>
+        <v>911</v>
+      </c>
+      <c r="B76" s="4">
+        <f>B72+1</f>
+        <v>196</v>
+      </c>
+      <c r="C76" s="4">
+        <v>38</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (911, 196, 38, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="7"/>
+        <v>912</v>
+      </c>
+      <c r="B77" s="4">
+        <f>B76</f>
+        <v>196</v>
+      </c>
+      <c r="C77" s="4">
+        <v>38</v>
+      </c>
+      <c r="D77" s="6">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (912, 196, 38, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="7"/>
+        <v>913</v>
+      </c>
+      <c r="B78" s="4">
+        <f>B76</f>
+        <v>196</v>
+      </c>
+      <c r="C78" s="4">
+        <v>212</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (913, 196, 212, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="7"/>
+        <v>914</v>
+      </c>
+      <c r="B79" s="4">
+        <f>B76</f>
+        <v>196</v>
+      </c>
+      <c r="C79" s="4">
+        <v>212</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (914, 196, 212, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="7"/>
+        <v>915</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B76+1</f>
+        <v>197</v>
+      </c>
+      <c r="C80" s="3">
+        <v>38</v>
+      </c>
+      <c r="D80" s="5">
+        <v>5</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (915, 197, 38, 5, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="7"/>
+        <v>916</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B80</f>
+        <v>197</v>
+      </c>
+      <c r="C81" s="3">
+        <v>38</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (916, 197, 38, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="7"/>
+        <v>917</v>
+      </c>
+      <c r="B82" s="3">
+        <f>B80</f>
+        <v>197</v>
+      </c>
+      <c r="C82" s="3">
+        <v>36</v>
+      </c>
+      <c r="D82" s="5">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (917, 197, 36, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="7"/>
+        <v>918</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B80</f>
+        <v>197</v>
+      </c>
+      <c r="C83" s="3">
+        <v>36</v>
+      </c>
+      <c r="D83" s="5">
+        <v>5</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (918, 197, 36, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="7"/>
+        <v>919</v>
+      </c>
+      <c r="B84" s="4">
+        <f>B80+1</f>
+        <v>198</v>
+      </c>
+      <c r="C84" s="4">
+        <v>42</v>
+      </c>
+      <c r="D84" s="6">
+        <v>6</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (919, 198, 42, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="7"/>
+        <v>920</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B84</f>
+        <v>198</v>
+      </c>
+      <c r="C85" s="4">
+        <v>42</v>
+      </c>
+      <c r="D85" s="6">
+        <v>4</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (920, 198, 42, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="7"/>
+        <v>921</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B84</f>
+        <v>198</v>
+      </c>
+      <c r="C86" s="4">
+        <v>82</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (921, 198, 82, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="7"/>
+        <v>922</v>
+      </c>
+      <c r="B87" s="4">
+        <f>B84</f>
+        <v>198</v>
+      </c>
+      <c r="C87" s="4">
+        <v>82</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (922, 198, 82, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="7"/>
+        <v>923</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B84+1</f>
+        <v>199</v>
+      </c>
+      <c r="C88" s="3">
+        <v>55</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (923, 199, 55, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="7"/>
+        <v>924</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B88</f>
+        <v>199</v>
+      </c>
+      <c r="C89" s="3">
+        <v>55</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (924, 199, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="7"/>
+        <v>925</v>
+      </c>
+      <c r="B90" s="3">
+        <f>B88</f>
+        <v>199</v>
+      </c>
+      <c r="C90" s="3">
+        <v>20</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (925, 199, 20, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="7"/>
+        <v>926</v>
+      </c>
+      <c r="B91" s="3">
+        <f>B88</f>
+        <v>199</v>
+      </c>
+      <c r="C91" s="3">
+        <v>20</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (926, 199, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="7"/>
+        <v>927</v>
+      </c>
+      <c r="B92" s="4">
+        <f>B88+1</f>
+        <v>200</v>
+      </c>
+      <c r="C92" s="4">
+        <v>42</v>
+      </c>
+      <c r="D92" s="6">
+        <v>5</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (927, 200, 42, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="7"/>
+        <v>928</v>
+      </c>
+      <c r="B93" s="4">
+        <f>B92</f>
+        <v>200</v>
+      </c>
+      <c r="C93" s="4">
+        <v>42</v>
+      </c>
+      <c r="D93" s="6">
+        <v>3</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (928, 200, 42, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="7"/>
+        <v>929</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B92</f>
+        <v>200</v>
+      </c>
+      <c r="C94" s="4">
+        <v>20</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>2</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (929, 200, 20, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="B95" s="4">
+        <f>B92</f>
+        <v>200</v>
+      </c>
+      <c r="C95" s="4">
+        <v>20</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (930, 200, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="7"/>
+        <v>931</v>
+      </c>
+      <c r="B96" s="3">
+        <f>B92+1</f>
+        <v>201</v>
+      </c>
+      <c r="C96" s="3">
+        <v>55</v>
+      </c>
+      <c r="D96" s="5">
+        <v>4</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (931, 201, 55, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="7"/>
+        <v>932</v>
+      </c>
+      <c r="B97" s="3">
+        <f>B96</f>
+        <v>201</v>
+      </c>
+      <c r="C97" s="3">
+        <v>55</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (932, 201, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" si="7"/>
+        <v>933</v>
+      </c>
+      <c r="B98" s="3">
+        <f>B96</f>
+        <v>201</v>
+      </c>
+      <c r="C98" s="3">
+        <v>82</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (933, 201, 82, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f t="shared" si="7"/>
+        <v>934</v>
+      </c>
+      <c r="B99" s="3">
+        <f>B96</f>
+        <v>201</v>
+      </c>
+      <c r="C99" s="3">
+        <v>82</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (934, 201, 82, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <f t="shared" si="7"/>
+        <v>935</v>
+      </c>
+      <c r="B100" s="4">
+        <f>B96+1</f>
+        <v>202</v>
+      </c>
+      <c r="C100" s="4">
+        <v>42</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (935, 202, 42, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <f t="shared" si="7"/>
+        <v>936</v>
+      </c>
+      <c r="B101" s="4">
+        <f>B100</f>
+        <v>202</v>
+      </c>
+      <c r="C101" s="4">
+        <v>42</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (936, 202, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <f t="shared" si="7"/>
+        <v>937</v>
+      </c>
+      <c r="B102" s="4">
+        <f>B100</f>
+        <v>202</v>
+      </c>
+      <c r="C102" s="4">
+        <v>55</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (937, 202, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <f t="shared" si="7"/>
+        <v>938</v>
+      </c>
+      <c r="B103" s="4">
+        <f>B100</f>
+        <v>202</v>
+      </c>
+      <c r="C103" s="4">
+        <v>55</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (938, 202, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f t="shared" si="7"/>
+        <v>939</v>
+      </c>
+      <c r="B104" s="3">
+        <f>B100+1</f>
+        <v>203</v>
+      </c>
+      <c r="C104" s="3">
+        <v>20</v>
+      </c>
+      <c r="D104" s="5">
+        <v>10</v>
+      </c>
+      <c r="E104" s="5">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (939, 203, 20, 10, 2, 2);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f t="shared" si="7"/>
+        <v>940</v>
+      </c>
+      <c r="B105" s="3">
+        <f>B104</f>
+        <v>203</v>
+      </c>
+      <c r="C105" s="3">
+        <v>20</v>
+      </c>
+      <c r="D105" s="5">
+        <v>3</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (940, 203, 20, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f t="shared" si="7"/>
+        <v>941</v>
+      </c>
+      <c r="B106" s="3">
+        <f>B104</f>
+        <v>203</v>
+      </c>
+      <c r="C106" s="3">
+        <v>82</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2</v>
+      </c>
+      <c r="G106" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (941, 203, 82, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f t="shared" si="7"/>
+        <v>942</v>
+      </c>
+      <c r="B107" s="3">
+        <f>B104</f>
+        <v>203</v>
+      </c>
+      <c r="C107" s="3">
+        <v>82</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (942, 203, 82, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <f t="shared" si="7"/>
+        <v>943</v>
+      </c>
+      <c r="B108" s="4">
+        <f>B104+1</f>
+        <v>204</v>
+      </c>
+      <c r="C108" s="4">
+        <v>54</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="4">
+        <v>2</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (943, 204, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <f t="shared" si="7"/>
+        <v>944</v>
+      </c>
+      <c r="B109" s="4">
+        <f>B108</f>
+        <v>204</v>
+      </c>
+      <c r="C109" s="4">
+        <v>54</v>
+      </c>
+      <c r="D109" s="6">
+        <v>1</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (944, 204, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <f t="shared" si="7"/>
+        <v>945</v>
+      </c>
+      <c r="B110" s="4">
+        <f>B108</f>
+        <v>204</v>
+      </c>
+      <c r="C110" s="4">
+        <v>233</v>
+      </c>
+      <c r="D110" s="6">
+        <v>1</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4">
+        <v>2</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (945, 204, 233, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <f t="shared" si="7"/>
+        <v>946</v>
+      </c>
+      <c r="B111" s="4">
+        <f>B108</f>
+        <v>204</v>
+      </c>
+      <c r="C111" s="4">
+        <v>233</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (946, 204, 233, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <f t="shared" si="7"/>
+        <v>947</v>
+      </c>
+      <c r="B112" s="3">
+        <f>B108+1</f>
+        <v>205</v>
+      </c>
+      <c r="C112" s="3">
+        <v>81</v>
+      </c>
+      <c r="D112" s="5">
+        <v>3</v>
+      </c>
+      <c r="E112" s="5">
+        <v>2</v>
+      </c>
+      <c r="F112" s="3">
+        <v>2</v>
+      </c>
+      <c r="G112" s="3" t="str">
+        <f t="shared" ref="G112:G151" si="8">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A112 &amp; ", " &amp; B112 &amp; ", " &amp; C112 &amp; ", " &amp; D112 &amp; ", " &amp; E112 &amp; ", " &amp; F112 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (947, 205, 81, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <f t="shared" si="7"/>
+        <v>948</v>
+      </c>
+      <c r="B113" s="3">
+        <f>B112</f>
+        <v>205</v>
+      </c>
+      <c r="C113" s="3">
+        <v>81</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (948, 205, 81, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f t="shared" ref="A114:A151" si="9">A113+1</f>
+        <v>949</v>
+      </c>
+      <c r="B114" s="3">
+        <f>B112</f>
+        <v>205</v>
+      </c>
+      <c r="C114" s="3">
+        <v>54</v>
+      </c>
+      <c r="D114" s="5">
+        <v>2</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (949, 205, 54, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f t="shared" si="9"/>
+        <v>950</v>
+      </c>
+      <c r="B115" s="3">
+        <f>B112</f>
+        <v>205</v>
+      </c>
+      <c r="C115" s="3">
+        <v>54</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (950, 205, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <f t="shared" si="9"/>
+        <v>951</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B112+1</f>
+        <v>206</v>
+      </c>
+      <c r="C116" s="4">
+        <v>233</v>
+      </c>
+      <c r="D116" s="6">
+        <v>3</v>
+      </c>
+      <c r="E116" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" s="4">
+        <v>2</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (951, 206, 233, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <f t="shared" si="9"/>
+        <v>952</v>
+      </c>
+      <c r="B117" s="4">
+        <f>B116</f>
+        <v>206</v>
+      </c>
+      <c r="C117" s="4">
+        <v>233</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (952, 206, 233, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <f t="shared" si="9"/>
+        <v>953</v>
+      </c>
+      <c r="B118" s="4">
+        <f>B116</f>
+        <v>206</v>
+      </c>
+      <c r="C118" s="4">
+        <v>81</v>
+      </c>
+      <c r="D118" s="6">
+        <v>2</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>2</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (953, 206, 81, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <f t="shared" si="9"/>
+        <v>954</v>
+      </c>
+      <c r="B119" s="4">
+        <f>B116</f>
+        <v>206</v>
+      </c>
+      <c r="C119" s="4">
+        <v>81</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (954, 206, 81, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <f t="shared" si="9"/>
+        <v>955</v>
+      </c>
+      <c r="B120" s="3">
+        <f>B116+1</f>
+        <v>207</v>
+      </c>
+      <c r="C120" s="3">
+        <v>38</v>
+      </c>
+      <c r="D120" s="5">
+        <v>0</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2</v>
+      </c>
+      <c r="G120" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (955, 207, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <f t="shared" si="9"/>
+        <v>956</v>
+      </c>
+      <c r="B121" s="3">
+        <f>B120</f>
+        <v>207</v>
+      </c>
+      <c r="C121" s="3">
+        <v>38</v>
+      </c>
+      <c r="D121" s="5">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (956, 207, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f t="shared" si="9"/>
+        <v>957</v>
+      </c>
+      <c r="B122" s="3">
+        <f>B120</f>
+        <v>207</v>
+      </c>
+      <c r="C122" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2</v>
+      </c>
+      <c r="G122" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (957, 207, 4930, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f t="shared" si="9"/>
+        <v>958</v>
+      </c>
+      <c r="B123" s="3">
+        <f>B120</f>
+        <v>207</v>
+      </c>
+      <c r="C123" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (958, 207, 4930, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <f t="shared" si="9"/>
+        <v>959</v>
+      </c>
+      <c r="B124" s="4">
+        <f>B120+1</f>
+        <v>208</v>
+      </c>
+      <c r="C124" s="4">
+        <v>40</v>
+      </c>
+      <c r="D124" s="6">
+        <v>0</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>2</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (959, 208, 40, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <f t="shared" si="9"/>
+        <v>960</v>
+      </c>
+      <c r="B125" s="4">
+        <f>B124</f>
+        <v>208</v>
+      </c>
+      <c r="C125" s="4">
+        <v>40</v>
+      </c>
+      <c r="D125" s="6">
+        <v>0</v>
+      </c>
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (960, 208, 40, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <f t="shared" si="9"/>
+        <v>961</v>
+      </c>
+      <c r="B126" s="4">
+        <f>B124</f>
+        <v>208</v>
+      </c>
+      <c r="C126" s="4">
+        <v>36</v>
+      </c>
+      <c r="D126" s="6">
+        <v>2</v>
+      </c>
+      <c r="E126" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" s="4">
+        <v>2</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (961, 208, 36, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <f t="shared" si="9"/>
+        <v>962</v>
+      </c>
+      <c r="B127" s="4">
+        <f>B124</f>
+        <v>208</v>
+      </c>
+      <c r="C127" s="4">
+        <v>36</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (962, 208, 36, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f t="shared" si="9"/>
+        <v>963</v>
+      </c>
+      <c r="B128" s="3">
+        <f>B124+1</f>
+        <v>209</v>
+      </c>
+      <c r="C128" s="3">
+        <v>42</v>
+      </c>
+      <c r="D128" s="5">
+        <v>4</v>
+      </c>
+      <c r="E128" s="5">
+        <v>2</v>
+      </c>
+      <c r="F128" s="3">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (963, 209, 42, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f t="shared" si="9"/>
+        <v>964</v>
+      </c>
+      <c r="B129" s="3">
+        <f>B128</f>
+        <v>209</v>
+      </c>
+      <c r="C129" s="3">
+        <v>42</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (964, 209, 42, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f t="shared" si="9"/>
+        <v>965</v>
+      </c>
+      <c r="B130" s="3">
+        <f>B128</f>
+        <v>209</v>
+      </c>
+      <c r="C130" s="3">
+        <v>81</v>
+      </c>
+      <c r="D130" s="5">
+        <v>0</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>2</v>
+      </c>
+      <c r="G130" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (965, 209, 81, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f t="shared" si="9"/>
+        <v>966</v>
+      </c>
+      <c r="B131" s="3">
+        <f>B128</f>
+        <v>209</v>
+      </c>
+      <c r="C131" s="3">
+        <v>81</v>
+      </c>
+      <c r="D131" s="5">
+        <v>0</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (966, 209, 81, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <f t="shared" si="9"/>
+        <v>967</v>
+      </c>
+      <c r="B132" s="4">
+        <f>B128+1</f>
+        <v>210</v>
+      </c>
+      <c r="C132" s="4">
+        <v>20</v>
+      </c>
+      <c r="D132" s="6">
+        <v>5</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2</v>
+      </c>
+      <c r="F132" s="4">
+        <v>2</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (967, 210, 20, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <f t="shared" si="9"/>
+        <v>968</v>
+      </c>
+      <c r="B133" s="4">
+        <f>B132</f>
+        <v>210</v>
+      </c>
+      <c r="C133" s="4">
+        <v>20</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (968, 210, 20, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <f t="shared" si="9"/>
+        <v>969</v>
+      </c>
+      <c r="B134" s="4">
+        <f>B132</f>
+        <v>210</v>
+      </c>
+      <c r="C134" s="4">
+        <v>233</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>2</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (969, 210, 233, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <f t="shared" si="9"/>
+        <v>970</v>
+      </c>
+      <c r="B135" s="4">
+        <f>B132</f>
+        <v>210</v>
+      </c>
+      <c r="C135" s="4">
+        <v>233</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (970, 210, 233, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f t="shared" si="9"/>
+        <v>971</v>
+      </c>
+      <c r="B136" s="3">
+        <f>B132+1</f>
+        <v>211</v>
+      </c>
+      <c r="C136" s="3">
+        <v>42</v>
+      </c>
+      <c r="D136" s="5">
+        <v>2</v>
+      </c>
+      <c r="E136" s="5">
+        <v>2</v>
+      </c>
+      <c r="F136" s="3">
+        <v>2</v>
+      </c>
+      <c r="G136" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (971, 211, 42, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <f t="shared" si="9"/>
+        <v>972</v>
+      </c>
+      <c r="B137" s="3">
+        <f>B136</f>
+        <v>211</v>
+      </c>
+      <c r="C137" s="3">
+        <v>42</v>
+      </c>
+      <c r="D137" s="5">
+        <v>0</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (972, 211, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <f t="shared" si="9"/>
+        <v>973</v>
+      </c>
+      <c r="B138" s="3">
+        <f>B136</f>
+        <v>211</v>
+      </c>
+      <c r="C138" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>2</v>
+      </c>
+      <c r="G138" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (973, 211, 4930, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <f t="shared" si="9"/>
+        <v>974</v>
+      </c>
+      <c r="B139" s="3">
+        <f>B136</f>
+        <v>211</v>
+      </c>
+      <c r="C139" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (974, 211, 4930, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <f t="shared" si="9"/>
+        <v>975</v>
+      </c>
+      <c r="B140" s="4">
+        <f>B136+1</f>
+        <v>212</v>
+      </c>
+      <c r="C140" s="4">
+        <v>36</v>
+      </c>
+      <c r="D140" s="6">
+        <v>6</v>
+      </c>
+      <c r="E140" s="6">
+        <v>2</v>
+      </c>
+      <c r="F140" s="4">
+        <v>2</v>
+      </c>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (975, 212, 36, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <f t="shared" si="9"/>
+        <v>976</v>
+      </c>
+      <c r="B141" s="4">
+        <f>B140</f>
+        <v>212</v>
+      </c>
+      <c r="C141" s="4">
+        <v>36</v>
+      </c>
+      <c r="D141" s="6">
+        <v>3</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (976, 212, 36, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <f t="shared" si="9"/>
+        <v>977</v>
+      </c>
+      <c r="B142" s="4">
+        <f>B140</f>
+        <v>212</v>
+      </c>
+      <c r="C142" s="4">
+        <v>20</v>
+      </c>
+      <c r="D142" s="6">
+        <v>0</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>2</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (977, 212, 20, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <f t="shared" si="9"/>
+        <v>978</v>
+      </c>
+      <c r="B143" s="4">
+        <f>B140</f>
+        <v>212</v>
+      </c>
+      <c r="C143" s="4">
+        <v>20</v>
+      </c>
+      <c r="D143" s="6">
+        <v>0</v>
+      </c>
+      <c r="E143" s="6">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (978, 212, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <f t="shared" si="9"/>
+        <v>979</v>
+      </c>
+      <c r="B144" s="3">
+        <f>B140+1</f>
+        <v>213</v>
+      </c>
+      <c r="C144" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D144" s="5">
+        <v>3</v>
+      </c>
+      <c r="E144" s="5">
+        <v>2</v>
+      </c>
+      <c r="F144" s="3">
+        <v>2</v>
+      </c>
+      <c r="G144" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (979, 213, 4930, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <f t="shared" si="9"/>
+        <v>980</v>
+      </c>
+      <c r="B145" s="3">
+        <f>B144</f>
+        <v>213</v>
+      </c>
+      <c r="C145" s="3">
+        <v>4930</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (980, 213, 4930, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <f t="shared" si="9"/>
+        <v>981</v>
+      </c>
+      <c r="B146" s="3">
+        <f>B144</f>
+        <v>213</v>
+      </c>
+      <c r="C146" s="3">
+        <v>20</v>
+      </c>
+      <c r="D146" s="5">
+        <v>1</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3">
+        <v>2</v>
+      </c>
+      <c r="G146" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (981, 213, 20, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <f t="shared" si="9"/>
+        <v>982</v>
+      </c>
+      <c r="B147" s="3">
+        <f>B144</f>
+        <v>213</v>
+      </c>
+      <c r="C147" s="3">
+        <v>20</v>
+      </c>
+      <c r="D147" s="5">
+        <v>0</v>
+      </c>
+      <c r="E147" s="5">
+        <v>0</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (982, 213, 20, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <f t="shared" si="9"/>
+        <v>983</v>
+      </c>
+      <c r="B148" s="4">
+        <f>B144+1</f>
+        <v>214</v>
+      </c>
+      <c r="C148" s="4">
+        <v>36</v>
+      </c>
+      <c r="D148" s="6">
+        <v>2</v>
+      </c>
+      <c r="E148" s="6">
+        <v>2</v>
+      </c>
+      <c r="F148" s="4">
+        <v>2</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (983, 214, 36, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <f t="shared" si="9"/>
+        <v>984</v>
+      </c>
+      <c r="B149" s="4">
+        <f>B148</f>
+        <v>214</v>
+      </c>
+      <c r="C149" s="4">
+        <v>36</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (984, 214, 36, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <f t="shared" si="9"/>
+        <v>985</v>
+      </c>
+      <c r="B150" s="4">
+        <f>B148</f>
+        <v>214</v>
+      </c>
+      <c r="C150" s="4">
+        <v>42</v>
+      </c>
+      <c r="D150" s="6">
+        <v>1</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>2</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (985, 214, 42, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <f t="shared" si="9"/>
+        <v>986</v>
+      </c>
+      <c r="B151" s="4">
+        <f>B148</f>
+        <v>214</v>
+      </c>
+      <c r="C151" s="4">
+        <v>42</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0</v>
+      </c>
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (986, 214, 42, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A153 &amp; ", '" &amp; B153 &amp; "', " &amp; C153 &amp; ", " &amp; D153 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>A45+1</f>
+        <v>215</v>
+      </c>
+      <c r="B154" s="2" t="str">
+        <f>"1964-10-20"</f>
+        <v>1964-10-20</v>
+      </c>
+      <c r="C154">
+        <v>17</v>
+      </c>
+      <c r="D154">
+        <v>81</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
+      </c>
+      <c r="G154" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A154 &amp; ", '" &amp; B154 &amp; "', " &amp; C154 &amp; ", " &amp; D154 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (215, '1964-10-20', 17, 81);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>A154+1</f>
+        <v>216</v>
+      </c>
+      <c r="B155" s="2" t="str">
+        <f>"1964-10-20"</f>
+        <v>1964-10-20</v>
+      </c>
+      <c r="C155">
+        <v>17</v>
+      </c>
+      <c r="D155">
+        <v>81</v>
+      </c>
+      <c r="E155">
+        <v>34</v>
+      </c>
+      <c r="G155" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A155 &amp; ", '" &amp; B155 &amp; "', " &amp; C155 &amp; ", " &amp; D155 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (216, '1964-10-20', 17, 81);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>A155+1</f>
+        <v>217</v>
+      </c>
+      <c r="B156" s="2" t="str">
+        <f>"1964-10-22"</f>
+        <v>1964-10-22</v>
+      </c>
+      <c r="C156">
+        <v>18</v>
+      </c>
+      <c r="D156">
+        <v>81</v>
+      </c>
+      <c r="E156">
+        <v>35</v>
+      </c>
+      <c r="G156" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A156 &amp; ", '" &amp; B156 &amp; "', " &amp; C156 &amp; ", " &amp; D156 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (217, '1964-10-22', 18, 81);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A158 &amp; ", " &amp; B158 &amp; ", " &amp; C158 &amp; ", " &amp; D158 &amp; ", " &amp; E158 &amp; ", " &amp; F158 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <f>A151 + 1</f>
+        <v>987</v>
+      </c>
+      <c r="B159" s="3">
+        <f>A154</f>
+        <v>215</v>
+      </c>
+      <c r="C159" s="3">
+        <v>81</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3">
+        <v>2</v>
+      </c>
+      <c r="G159" s="3" t="str">
+        <f t="shared" ref="G159:G170" si="10">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A159 &amp; ", " &amp; B159 &amp; ", " &amp; C159 &amp; ", " &amp; D159 &amp; ", " &amp; E159 &amp; ", " &amp; F159 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (987, 215, 81, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <f>A159+1</f>
+        <v>988</v>
+      </c>
+      <c r="B160" s="3">
+        <f>B159</f>
+        <v>215</v>
+      </c>
+      <c r="C160" s="3">
+        <v>81</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (988, 215, 81, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <f t="shared" ref="A161:A170" si="11">A160+1</f>
+        <v>989</v>
+      </c>
+      <c r="B161" s="3">
+        <f>B159</f>
+        <v>215</v>
+      </c>
+      <c r="C161" s="3">
+        <v>38</v>
+      </c>
+      <c r="D161" s="3">
+        <v>6</v>
+      </c>
+      <c r="E161" s="3">
+        <v>2</v>
+      </c>
+      <c r="F161" s="3">
+        <v>2</v>
+      </c>
+      <c r="G161" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (989, 215, 38, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <f t="shared" si="11"/>
+        <v>990</v>
+      </c>
+      <c r="B162" s="3">
+        <f>B159</f>
+        <v>215</v>
+      </c>
+      <c r="C162" s="3">
+        <v>38</v>
+      </c>
+      <c r="D162" s="3">
+        <v>4</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (990, 215, 38, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <f t="shared" si="11"/>
+        <v>991</v>
+      </c>
+      <c r="B163" s="4">
+        <f>B159+1</f>
+        <v>216</v>
+      </c>
+      <c r="C163" s="4">
+        <v>40</v>
+      </c>
+      <c r="D163" s="4">
+        <v>4</v>
+      </c>
+      <c r="E163" s="4">
+        <v>2</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2</v>
+      </c>
+      <c r="G163" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (991, 216, 40, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <f t="shared" si="11"/>
+        <v>992</v>
+      </c>
+      <c r="B164" s="4">
+        <f>B163</f>
+        <v>216</v>
+      </c>
+      <c r="C164" s="4">
+        <v>40</v>
+      </c>
+      <c r="D164" s="4">
+        <v>2</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (992, 216, 40, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <f t="shared" si="11"/>
+        <v>993</v>
+      </c>
+      <c r="B165" s="4">
+        <f>B163</f>
+        <v>216</v>
+      </c>
+      <c r="C165" s="4">
+        <v>233</v>
+      </c>
+      <c r="D165" s="4">
+        <v>3</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (993, 216, 233, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <f t="shared" si="11"/>
+        <v>994</v>
+      </c>
+      <c r="B166" s="4">
+        <f>B163</f>
+        <v>216</v>
+      </c>
+      <c r="C166" s="4">
+        <v>233</v>
+      </c>
+      <c r="D166" s="4">
+        <v>2</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (994, 216, 233, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <f t="shared" si="11"/>
+        <v>995</v>
+      </c>
+      <c r="B167" s="3">
+        <f>B163+1</f>
+        <v>217</v>
+      </c>
+      <c r="C167" s="3">
+        <v>38</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2</v>
+      </c>
+      <c r="G167" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (995, 217, 38, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <f t="shared" si="11"/>
+        <v>996</v>
+      </c>
+      <c r="B168" s="3">
+        <f>B167</f>
+        <v>217</v>
+      </c>
+      <c r="C168" s="3">
+        <v>38</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (996, 217, 38, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <f t="shared" si="11"/>
+        <v>997</v>
+      </c>
+      <c r="B169" s="3">
+        <f>B167</f>
+        <v>217</v>
+      </c>
+      <c r="C169" s="3">
+        <v>40</v>
+      </c>
+      <c r="D169" s="3">
+        <v>3</v>
+      </c>
+      <c r="E169" s="3">
+        <v>2</v>
+      </c>
+      <c r="F169" s="3">
+        <v>2</v>
+      </c>
+      <c r="G169" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (997, 217, 40, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <f t="shared" si="11"/>
+        <v>998</v>
+      </c>
+      <c r="B170" s="3">
+        <f>B167</f>
+        <v>217</v>
+      </c>
+      <c r="C170" s="3">
+        <v>40</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (998, 217, 40, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>
